--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Pension simulation project\_Plan Documents\PA-PSERS (Poorly Funded)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_PSERS\Data_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="8" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="207">
   <si>
     <t>Notes</t>
   </si>
@@ -385,24 +385,6 @@
     <t>tier</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
     <t>r.yos</t>
   </si>
   <si>
@@ -412,9 +394,6 @@
     <t>fasyears</t>
   </si>
   <si>
-    <t>cola</t>
-  </si>
-  <si>
     <t>v.yos</t>
   </si>
   <si>
@@ -428,9 +407,6 @@
   </si>
   <si>
     <t>factor.ca.disb</t>
-  </si>
-  <si>
-    <t>EEC.exempt.yos</t>
   </si>
   <si>
     <t>EEC.rate</t>
@@ -609,9 +585,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>GenFund.original</t>
   </si>
   <si>
@@ -637,12 +610,6 @@
   </si>
   <si>
     <t>I130</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>K13</t>
   </si>
   <si>
     <t>Tier.param</t>
@@ -1406,26 +1373,69 @@
     <t>qxm.post.male</t>
   </si>
   <si>
-    <t>qxmd.male</t>
-  </si>
-  <si>
-    <t>qxmd.female</t>
-  </si>
-  <si>
     <t>E73</t>
+  </si>
+  <si>
+    <t>qxm.d.male</t>
+  </si>
+  <si>
+    <t>qxm.d.female</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>t_CD</t>
+  </si>
+  <si>
+    <t>t_E</t>
+  </si>
+  <si>
+    <t>t_F</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Tier C/D</t>
+  </si>
+  <si>
+    <t>Tier E</t>
+  </si>
+  <si>
+    <t>Teir F</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Avg Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg age </t>
+  </si>
+  <si>
+    <t>Avg yos</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>K9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,6 +1588,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1677,7 +1693,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,7 +1814,7 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1807,9 +1823,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,56 +1865,20 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1921,31 +1898,22 @@
     <xf numFmtId="1" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,15 +1931,64 @@
     <xf numFmtId="1" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2001,8 +2018,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4133188</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246988</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>170969</xdr:rowOff>
     </xdr:to>
@@ -2040,15 +2057,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5161776</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>132405</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475476</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>18105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2071,7 +2088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="4819650"/>
+          <a:off x="400050" y="5467350"/>
           <a:ext cx="6190476" cy="7561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2083,16 +2100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5391150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6380931</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>113540</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>75381</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>151640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2115,7 +2132,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="4762500"/>
+          <a:off x="6953250" y="6896100"/>
           <a:ext cx="6552381" cy="6076190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2494,95 +2511,6 @@
         <a:xfrm>
           <a:off x="609600" y="781050"/>
           <a:ext cx="5352381" cy="3390476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>153035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD917F8D-B860-40A3-8350-AF9CE6B6D8C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8134350" y="1009650"/>
-          <a:ext cx="6400800" cy="6382385"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5E8274-BA4A-4C79-9D15-7B4D79744420}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8439150" y="7562850"/>
-          <a:ext cx="6229350" cy="6648450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,22 +3076,6 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>Notes:</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>The unrecognzied returns are associated with assets of retirement fund and health insurance fund combined. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -3193,6 +3105,81 @@
             <a:t>Only effective when modeling all tiers together.</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MV: 51706.2m</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AV:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  57361.6m</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Unrecognized</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>:  -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>5655.4m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3204,13 +3191,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>418433</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>151500</xdr:rowOff>
@@ -3248,14 +3235,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>94600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113650</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>113929</xdr:rowOff>
     </xdr:to>
@@ -3292,14 +3279,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>56498</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132698</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1181052</xdr:rowOff>
     </xdr:to>
@@ -3711,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3794,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3802,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3831,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>42</v>
@@ -3852,42 +3839,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3922,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,7 +3933,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -3956,84 +3943,115 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="54">
-        <v>-31778122</v>
+        <v>2015</v>
+      </c>
+      <c r="C7" s="109">
+        <v>-565540000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="54">
-        <v>-31778122</v>
+        <v>2016</v>
+      </c>
+      <c r="C8" s="109">
+        <v>-565540000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="54">
-        <v>-31778122</v>
+        <v>2017</v>
+      </c>
+      <c r="C9" s="109">
+        <v>-565540000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="54">
-        <v>-44654689</v>
+        <v>2018</v>
+      </c>
+      <c r="C10" s="109">
+        <v>-565540000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="54">
-        <v>-269200210</v>
+        <v>2019</v>
+      </c>
+      <c r="C11" s="109">
+        <v>-565540000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="109">
+        <v>-565540000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="109">
+        <v>-565540000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>2022</v>
       </c>
-      <c r="C12" s="55">
-        <v>-177279127</v>
+      <c r="C14" s="109">
+        <v>-565540000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="109">
+        <v>-565540000</v>
+      </c>
       <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="109">
+        <v>-565540000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4059,10 +4077,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,148 +4088,124 @@
     <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="4" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="96"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="98"/>
+    </row>
+    <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="99"/>
+    </row>
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+    </row>
+    <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="77"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="7" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-    </row>
-    <row r="8" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="100"/>
+    </row>
+    <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -4283,14 +4277,13 @@
     </row>
     <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
@@ -4306,8 +4299,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,1027 +4329,1027 @@
         <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="93"/>
+      <c r="A5" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C7" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="D7" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>19</v>
+      </c>
+      <c r="B8" s="80">
+        <v>0</v>
+      </c>
+      <c r="C8" s="80">
+        <v>0</v>
+      </c>
+      <c r="D8" s="80">
+        <v>0</v>
+      </c>
+      <c r="E8" s="80">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="78">
+        <v>20</v>
+      </c>
+      <c r="B9" s="81">
+        <v>0</v>
+      </c>
+      <c r="C9" s="81">
+        <v>0</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
+        <v>21</v>
+      </c>
+      <c r="B10" s="81">
+        <v>0</v>
+      </c>
+      <c r="C10" s="81">
+        <v>0</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="78">
+        <v>22</v>
+      </c>
+      <c r="B11" s="81">
+        <v>0</v>
+      </c>
+      <c r="C11" s="81">
+        <v>0</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
+        <v>23</v>
+      </c>
+      <c r="B12" s="81">
+        <v>0</v>
+      </c>
+      <c r="C12" s="81">
+        <v>0</v>
+      </c>
+      <c r="D12" s="81">
+        <v>0</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
+        <v>24</v>
+      </c>
+      <c r="B13" s="81">
+        <v>0</v>
+      </c>
+      <c r="C13" s="81">
+        <v>0</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
+        <v>25</v>
+      </c>
+      <c r="B14" s="81">
+        <v>0</v>
+      </c>
+      <c r="C14" s="81">
+        <v>0</v>
+      </c>
+      <c r="D14" s="81">
+        <v>0</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="78">
+        <v>26</v>
+      </c>
+      <c r="B15" s="81">
+        <v>0</v>
+      </c>
+      <c r="C15" s="81">
+        <v>0</v>
+      </c>
+      <c r="D15" s="81">
+        <v>0</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="78">
+        <v>27</v>
+      </c>
+      <c r="B16" s="81">
+        <v>0</v>
+      </c>
+      <c r="C16" s="81">
+        <v>0</v>
+      </c>
+      <c r="D16" s="81">
+        <v>0</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0</v>
+      </c>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="78">
+        <v>28</v>
+      </c>
+      <c r="B17" s="81">
+        <v>0</v>
+      </c>
+      <c r="C17" s="81">
+        <v>0</v>
+      </c>
+      <c r="D17" s="81">
+        <v>0</v>
+      </c>
+      <c r="E17" s="81">
+        <v>0</v>
+      </c>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="78">
+        <v>29</v>
+      </c>
+      <c r="B18" s="81">
+        <v>0</v>
+      </c>
+      <c r="C18" s="81">
+        <v>0</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0</v>
+      </c>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="78">
+        <v>30</v>
+      </c>
+      <c r="B19" s="81">
+        <v>0</v>
+      </c>
+      <c r="C19" s="81">
+        <v>0</v>
+      </c>
+      <c r="D19" s="81">
+        <v>0</v>
+      </c>
+      <c r="E19" s="81">
+        <v>0</v>
+      </c>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="78">
+        <v>31</v>
+      </c>
+      <c r="B20" s="81">
+        <v>0</v>
+      </c>
+      <c r="C20" s="81">
+        <v>0</v>
+      </c>
+      <c r="D20" s="81">
+        <v>0</v>
+      </c>
+      <c r="E20" s="81">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="78">
+        <v>32</v>
+      </c>
+      <c r="B21" s="81">
+        <v>0</v>
+      </c>
+      <c r="C21" s="81">
+        <v>0</v>
+      </c>
+      <c r="D21" s="81">
+        <v>0</v>
+      </c>
+      <c r="E21" s="81">
+        <v>0</v>
+      </c>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="78">
+        <v>33</v>
+      </c>
+      <c r="B22" s="81">
+        <v>0</v>
+      </c>
+      <c r="C22" s="81">
+        <v>0</v>
+      </c>
+      <c r="D22" s="81">
+        <v>0</v>
+      </c>
+      <c r="E22" s="81">
+        <v>0</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="78">
+        <v>34</v>
+      </c>
+      <c r="B23" s="81">
+        <v>0</v>
+      </c>
+      <c r="C23" s="81">
+        <v>0</v>
+      </c>
+      <c r="D23" s="81">
+        <v>0</v>
+      </c>
+      <c r="E23" s="81">
+        <v>0</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="78">
+        <v>35</v>
+      </c>
+      <c r="B24" s="81">
+        <v>0</v>
+      </c>
+      <c r="C24" s="81">
+        <v>0</v>
+      </c>
+      <c r="D24" s="81">
+        <v>0</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="78">
+        <v>36</v>
+      </c>
+      <c r="B25" s="81">
+        <v>0</v>
+      </c>
+      <c r="C25" s="81">
+        <v>0</v>
+      </c>
+      <c r="D25" s="81">
+        <v>0</v>
+      </c>
+      <c r="E25" s="81">
+        <v>0</v>
+      </c>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="78">
+        <v>37</v>
+      </c>
+      <c r="B26" s="81">
+        <v>0</v>
+      </c>
+      <c r="C26" s="81">
+        <v>0</v>
+      </c>
+      <c r="D26" s="81">
+        <v>0</v>
+      </c>
+      <c r="E26" s="81">
+        <v>0</v>
+      </c>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="78">
+        <v>38</v>
+      </c>
+      <c r="B27" s="81">
+        <v>0</v>
+      </c>
+      <c r="C27" s="81">
+        <v>0</v>
+      </c>
+      <c r="D27" s="81">
+        <v>0</v>
+      </c>
+      <c r="E27" s="81">
+        <v>0</v>
+      </c>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="78">
+        <v>39</v>
+      </c>
+      <c r="B28" s="81">
+        <v>0</v>
+      </c>
+      <c r="C28" s="81">
+        <v>0</v>
+      </c>
+      <c r="D28" s="81">
+        <v>0</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
+        <v>40</v>
+      </c>
+      <c r="B29" s="81">
+        <v>0</v>
+      </c>
+      <c r="C29" s="81">
+        <v>0</v>
+      </c>
+      <c r="D29" s="81">
+        <v>0</v>
+      </c>
+      <c r="E29" s="81">
+        <v>0</v>
+      </c>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="78">
+        <v>41</v>
+      </c>
+      <c r="B30" s="81">
+        <v>0</v>
+      </c>
+      <c r="C30" s="81">
+        <v>0</v>
+      </c>
+      <c r="D30" s="81">
+        <v>0</v>
+      </c>
+      <c r="E30" s="81">
+        <v>0</v>
+      </c>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="78">
+        <v>42</v>
+      </c>
+      <c r="B31" s="81">
+        <v>0</v>
+      </c>
+      <c r="C31" s="81">
+        <v>0</v>
+      </c>
+      <c r="D31" s="81">
+        <v>0</v>
+      </c>
+      <c r="E31" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="78">
+        <v>43</v>
+      </c>
+      <c r="B32" s="81">
+        <v>0</v>
+      </c>
+      <c r="C32" s="81">
+        <v>0</v>
+      </c>
+      <c r="D32" s="81">
+        <v>0</v>
+      </c>
+      <c r="E32" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="78">
+        <v>44</v>
+      </c>
+      <c r="B33" s="81">
+        <v>0</v>
+      </c>
+      <c r="C33" s="81">
+        <v>0</v>
+      </c>
+      <c r="D33" s="81">
+        <v>0</v>
+      </c>
+      <c r="E33" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="78">
+        <v>45</v>
+      </c>
+      <c r="B34" s="81">
+        <v>0</v>
+      </c>
+      <c r="C34" s="81">
+        <v>0</v>
+      </c>
+      <c r="D34" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E34" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="78">
+        <v>46</v>
+      </c>
+      <c r="B35" s="81">
+        <v>0</v>
+      </c>
+      <c r="C35" s="81">
+        <v>0</v>
+      </c>
+      <c r="D35" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E35" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="78">
+        <v>47</v>
+      </c>
+      <c r="B36" s="81">
+        <v>0</v>
+      </c>
+      <c r="C36" s="81">
+        <v>0</v>
+      </c>
+      <c r="D36" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E36" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
+        <v>48</v>
+      </c>
+      <c r="B37" s="81">
+        <v>0</v>
+      </c>
+      <c r="C37" s="81">
+        <v>0</v>
+      </c>
+      <c r="D37" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E37" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="78">
+        <v>49</v>
+      </c>
+      <c r="B38" s="81">
+        <v>0</v>
+      </c>
+      <c r="C38" s="81">
+        <v>0</v>
+      </c>
+      <c r="D38" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E38" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="78">
+        <v>50</v>
+      </c>
+      <c r="B39" s="81">
+        <v>0</v>
+      </c>
+      <c r="C39" s="81">
+        <v>0</v>
+      </c>
+      <c r="D39" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E39" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="78">
+        <v>51</v>
+      </c>
+      <c r="B40" s="81">
+        <v>0</v>
+      </c>
+      <c r="C40" s="81">
+        <v>0</v>
+      </c>
+      <c r="D40" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E40" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="78">
+        <v>52</v>
+      </c>
+      <c r="B41" s="81">
+        <v>0</v>
+      </c>
+      <c r="C41" s="81">
+        <v>0</v>
+      </c>
+      <c r="D41" s="81">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="E41" s="81">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="78">
         <v>53</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
-        <v>19</v>
-      </c>
-      <c r="B8" s="94">
-        <v>0</v>
-      </c>
-      <c r="C8" s="94">
-        <v>0</v>
-      </c>
-      <c r="D8" s="94">
-        <v>0</v>
-      </c>
-      <c r="E8" s="94">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
-        <v>20</v>
-      </c>
-      <c r="B9" s="95">
-        <v>0</v>
-      </c>
-      <c r="C9" s="95">
-        <v>0</v>
-      </c>
-      <c r="D9" s="95">
-        <v>0</v>
-      </c>
-      <c r="E9" s="95">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
-        <v>21</v>
-      </c>
-      <c r="B10" s="95">
-        <v>0</v>
-      </c>
-      <c r="C10" s="95">
-        <v>0</v>
-      </c>
-      <c r="D10" s="95">
-        <v>0</v>
-      </c>
-      <c r="E10" s="95">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
-        <v>22</v>
-      </c>
-      <c r="B11" s="95">
-        <v>0</v>
-      </c>
-      <c r="C11" s="95">
-        <v>0</v>
-      </c>
-      <c r="D11" s="95">
-        <v>0</v>
-      </c>
-      <c r="E11" s="95">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
-        <v>23</v>
-      </c>
-      <c r="B12" s="95">
-        <v>0</v>
-      </c>
-      <c r="C12" s="95">
-        <v>0</v>
-      </c>
-      <c r="D12" s="95">
-        <v>0</v>
-      </c>
-      <c r="E12" s="95">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
-        <v>24</v>
-      </c>
-      <c r="B13" s="95">
-        <v>0</v>
-      </c>
-      <c r="C13" s="95">
-        <v>0</v>
-      </c>
-      <c r="D13" s="95">
-        <v>0</v>
-      </c>
-      <c r="E13" s="95">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
-        <v>25</v>
-      </c>
-      <c r="B14" s="95">
-        <v>0</v>
-      </c>
-      <c r="C14" s="95">
-        <v>0</v>
-      </c>
-      <c r="D14" s="95">
-        <v>0</v>
-      </c>
-      <c r="E14" s="95">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
-        <v>26</v>
-      </c>
-      <c r="B15" s="95">
-        <v>0</v>
-      </c>
-      <c r="C15" s="95">
-        <v>0</v>
-      </c>
-      <c r="D15" s="95">
-        <v>0</v>
-      </c>
-      <c r="E15" s="95">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
-        <v>27</v>
-      </c>
-      <c r="B16" s="95">
-        <v>0</v>
-      </c>
-      <c r="C16" s="95">
-        <v>0</v>
-      </c>
-      <c r="D16" s="95">
-        <v>0</v>
-      </c>
-      <c r="E16" s="95">
-        <v>0</v>
-      </c>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
-        <v>28</v>
-      </c>
-      <c r="B17" s="95">
-        <v>0</v>
-      </c>
-      <c r="C17" s="95">
-        <v>0</v>
-      </c>
-      <c r="D17" s="95">
-        <v>0</v>
-      </c>
-      <c r="E17" s="95">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
-        <v>29</v>
-      </c>
-      <c r="B18" s="95">
-        <v>0</v>
-      </c>
-      <c r="C18" s="95">
-        <v>0</v>
-      </c>
-      <c r="D18" s="95">
-        <v>0</v>
-      </c>
-      <c r="E18" s="95">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
-        <v>30</v>
-      </c>
-      <c r="B19" s="95">
-        <v>0</v>
-      </c>
-      <c r="C19" s="95">
-        <v>0</v>
-      </c>
-      <c r="D19" s="95">
-        <v>0</v>
-      </c>
-      <c r="E19" s="95">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
-        <v>31</v>
-      </c>
-      <c r="B20" s="95">
-        <v>0</v>
-      </c>
-      <c r="C20" s="95">
-        <v>0</v>
-      </c>
-      <c r="D20" s="95">
-        <v>0</v>
-      </c>
-      <c r="E20" s="95">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
-        <v>32</v>
-      </c>
-      <c r="B21" s="95">
-        <v>0</v>
-      </c>
-      <c r="C21" s="95">
-        <v>0</v>
-      </c>
-      <c r="D21" s="95">
-        <v>0</v>
-      </c>
-      <c r="E21" s="95">
-        <v>0</v>
-      </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
-        <v>33</v>
-      </c>
-      <c r="B22" s="95">
-        <v>0</v>
-      </c>
-      <c r="C22" s="95">
-        <v>0</v>
-      </c>
-      <c r="D22" s="95">
-        <v>0</v>
-      </c>
-      <c r="E22" s="95">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
-        <v>34</v>
-      </c>
-      <c r="B23" s="95">
-        <v>0</v>
-      </c>
-      <c r="C23" s="95">
-        <v>0</v>
-      </c>
-      <c r="D23" s="95">
-        <v>0</v>
-      </c>
-      <c r="E23" s="95">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
-        <v>35</v>
-      </c>
-      <c r="B24" s="95">
-        <v>0</v>
-      </c>
-      <c r="C24" s="95">
-        <v>0</v>
-      </c>
-      <c r="D24" s="95">
-        <v>0</v>
-      </c>
-      <c r="E24" s="95">
-        <v>0</v>
-      </c>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
-        <v>36</v>
-      </c>
-      <c r="B25" s="95">
-        <v>0</v>
-      </c>
-      <c r="C25" s="95">
-        <v>0</v>
-      </c>
-      <c r="D25" s="95">
-        <v>0</v>
-      </c>
-      <c r="E25" s="95">
-        <v>0</v>
-      </c>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
-        <v>37</v>
-      </c>
-      <c r="B26" s="95">
-        <v>0</v>
-      </c>
-      <c r="C26" s="95">
-        <v>0</v>
-      </c>
-      <c r="D26" s="95">
-        <v>0</v>
-      </c>
-      <c r="E26" s="95">
-        <v>0</v>
-      </c>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
-        <v>38</v>
-      </c>
-      <c r="B27" s="95">
-        <v>0</v>
-      </c>
-      <c r="C27" s="95">
-        <v>0</v>
-      </c>
-      <c r="D27" s="95">
-        <v>0</v>
-      </c>
-      <c r="E27" s="95">
-        <v>0</v>
-      </c>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
-        <v>39</v>
-      </c>
-      <c r="B28" s="95">
-        <v>0</v>
-      </c>
-      <c r="C28" s="95">
-        <v>0</v>
-      </c>
-      <c r="D28" s="95">
-        <v>0</v>
-      </c>
-      <c r="E28" s="95">
-        <v>0</v>
-      </c>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
-        <v>40</v>
-      </c>
-      <c r="B29" s="95">
-        <v>0</v>
-      </c>
-      <c r="C29" s="95">
-        <v>0</v>
-      </c>
-      <c r="D29" s="95">
-        <v>0</v>
-      </c>
-      <c r="E29" s="95">
-        <v>0</v>
-      </c>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
-        <v>41</v>
-      </c>
-      <c r="B30" s="95">
-        <v>0</v>
-      </c>
-      <c r="C30" s="95">
-        <v>0</v>
-      </c>
-      <c r="D30" s="95">
-        <v>0</v>
-      </c>
-      <c r="E30" s="95">
-        <v>0</v>
-      </c>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
-        <v>42</v>
-      </c>
-      <c r="B31" s="95">
-        <v>0</v>
-      </c>
-      <c r="C31" s="95">
-        <v>0</v>
-      </c>
-      <c r="D31" s="95">
-        <v>0</v>
-      </c>
-      <c r="E31" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
-        <v>43</v>
-      </c>
-      <c r="B32" s="95">
-        <v>0</v>
-      </c>
-      <c r="C32" s="95">
-        <v>0</v>
-      </c>
-      <c r="D32" s="95">
-        <v>0</v>
-      </c>
-      <c r="E32" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
-        <v>44</v>
-      </c>
-      <c r="B33" s="95">
-        <v>0</v>
-      </c>
-      <c r="C33" s="95">
-        <v>0</v>
-      </c>
-      <c r="D33" s="95">
-        <v>0</v>
-      </c>
-      <c r="E33" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="91">
-        <v>45</v>
-      </c>
-      <c r="B34" s="95">
-        <v>0</v>
-      </c>
-      <c r="C34" s="95">
-        <v>0</v>
-      </c>
-      <c r="D34" s="95">
+      <c r="B42" s="81">
+        <v>0</v>
+      </c>
+      <c r="C42" s="81">
+        <v>0</v>
+      </c>
+      <c r="D42" s="81">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E34" s="95">
+      <c r="E42" s="81">
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
-        <v>46</v>
-      </c>
-      <c r="B35" s="95">
-        <v>0</v>
-      </c>
-      <c r="C35" s="95">
-        <v>0</v>
-      </c>
-      <c r="D35" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E35" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
-        <v>47</v>
-      </c>
-      <c r="B36" s="95">
-        <v>0</v>
-      </c>
-      <c r="C36" s="95">
-        <v>0</v>
-      </c>
-      <c r="D36" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E36" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
-        <v>48</v>
-      </c>
-      <c r="B37" s="95">
-        <v>0</v>
-      </c>
-      <c r="C37" s="95">
-        <v>0</v>
-      </c>
-      <c r="D37" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E37" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
-        <v>49</v>
-      </c>
-      <c r="B38" s="95">
-        <v>0</v>
-      </c>
-      <c r="C38" s="95">
-        <v>0</v>
-      </c>
-      <c r="D38" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E38" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
-        <v>50</v>
-      </c>
-      <c r="B39" s="95">
-        <v>0</v>
-      </c>
-      <c r="C39" s="95">
-        <v>0</v>
-      </c>
-      <c r="D39" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E39" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
-        <v>51</v>
-      </c>
-      <c r="B40" s="95">
-        <v>0</v>
-      </c>
-      <c r="C40" s="95">
-        <v>0</v>
-      </c>
-      <c r="D40" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E40" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
-        <v>52</v>
-      </c>
-      <c r="B41" s="95">
-        <v>0</v>
-      </c>
-      <c r="C41" s="95">
-        <v>0</v>
-      </c>
-      <c r="D41" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E41" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
-        <v>53</v>
-      </c>
-      <c r="B42" s="95">
-        <v>0</v>
-      </c>
-      <c r="C42" s="95">
-        <v>0</v>
-      </c>
-      <c r="D42" s="95">
-        <v>0.19159999999999999</v>
-      </c>
-      <c r="E42" s="95">
-        <v>0.15</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="78">
         <v>54</v>
       </c>
-      <c r="B43" s="95">
-        <v>0</v>
-      </c>
-      <c r="C43" s="95">
-        <v>0</v>
-      </c>
-      <c r="D43" s="95">
+      <c r="B43" s="81">
+        <v>0</v>
+      </c>
+      <c r="C43" s="81">
+        <v>0</v>
+      </c>
+      <c r="D43" s="81">
         <v>0.26590000000000003</v>
       </c>
-      <c r="E43" s="95">
+      <c r="E43" s="81">
         <v>0.1002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="78">
         <v>55</v>
       </c>
-      <c r="B44" s="95">
+      <c r="B44" s="81">
         <v>0.1857</v>
       </c>
-      <c r="C44" s="95">
+      <c r="C44" s="81">
         <v>0.18590000000000001</v>
       </c>
-      <c r="D44" s="95">
+      <c r="D44" s="81">
         <v>0.26590000000000003</v>
       </c>
-      <c r="E44" s="95">
+      <c r="E44" s="81">
         <v>0.1002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="78">
         <v>56</v>
       </c>
-      <c r="B45" s="95">
+      <c r="B45" s="81">
         <v>0.1724</v>
       </c>
-      <c r="C45" s="95">
+      <c r="C45" s="81">
         <v>0.16819999999999999</v>
       </c>
-      <c r="D45" s="95">
+      <c r="D45" s="81">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E45" s="95">
+      <c r="E45" s="81">
         <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="78">
         <v>57</v>
       </c>
-      <c r="B46" s="95">
+      <c r="B46" s="81">
         <v>0.17030000000000001</v>
       </c>
-      <c r="C46" s="95">
+      <c r="C46" s="81">
         <v>0.17030000000000001</v>
       </c>
-      <c r="D46" s="95">
+      <c r="D46" s="81">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E46" s="95">
+      <c r="E46" s="81">
         <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="78">
         <v>58</v>
       </c>
-      <c r="B47" s="95">
+      <c r="B47" s="81">
         <v>0.17280000000000001</v>
       </c>
-      <c r="C47" s="95">
+      <c r="C47" s="81">
         <v>0.17380000000000001</v>
       </c>
-      <c r="D47" s="95">
+      <c r="D47" s="81">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E47" s="95">
+      <c r="E47" s="81">
         <v>0.35049999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="78">
         <v>59</v>
       </c>
-      <c r="B48" s="95">
+      <c r="B48" s="81">
         <v>0.21679999999999999</v>
       </c>
-      <c r="C48" s="95">
+      <c r="C48" s="81">
         <v>0.21360000000000001</v>
       </c>
-      <c r="D48" s="95">
+      <c r="D48" s="81">
         <v>0.30869999999999997</v>
       </c>
-      <c r="E48" s="95">
+      <c r="E48" s="81">
         <v>0.35770000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="78">
         <v>60</v>
       </c>
-      <c r="B49" s="95">
+      <c r="B49" s="81">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C49" s="95">
+      <c r="C49" s="81">
         <v>0.17050000000000001</v>
       </c>
-      <c r="D49" s="95">
+      <c r="D49" s="81">
         <v>0.30869999999999997</v>
       </c>
-      <c r="E49" s="95">
+      <c r="E49" s="81">
         <v>0.35770000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="78">
         <v>61</v>
       </c>
-      <c r="B50" s="95">
+      <c r="B50" s="81">
         <v>0.28610000000000002</v>
       </c>
-      <c r="C50" s="95">
+      <c r="C50" s="81">
         <v>0.2999</v>
       </c>
-      <c r="D50" s="95">
+      <c r="D50" s="81">
         <v>0.28810000000000002</v>
       </c>
-      <c r="E50" s="95">
+      <c r="E50" s="81">
         <v>0.30659999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="78">
         <v>62</v>
       </c>
-      <c r="B51" s="95">
-        <v>0</v>
-      </c>
-      <c r="C51" s="95">
-        <v>0</v>
-      </c>
-      <c r="D51" s="95">
+      <c r="B51" s="81">
+        <v>0</v>
+      </c>
+      <c r="C51" s="81">
+        <v>0</v>
+      </c>
+      <c r="D51" s="81">
         <v>0.51449999999999996</v>
       </c>
-      <c r="E51" s="95">
+      <c r="E51" s="81">
         <v>0.61319999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="78">
         <v>63</v>
       </c>
-      <c r="B52" s="95">
-        <v>0</v>
-      </c>
-      <c r="C52" s="95">
-        <v>0</v>
-      </c>
-      <c r="D52" s="95">
+      <c r="B52" s="81">
+        <v>0</v>
+      </c>
+      <c r="C52" s="81">
+        <v>0</v>
+      </c>
+      <c r="D52" s="81">
         <v>0.25729999999999997</v>
       </c>
-      <c r="E52" s="95">
+      <c r="E52" s="81">
         <v>0.2555</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="78">
         <v>64</v>
       </c>
-      <c r="B53" s="95">
-        <v>0</v>
-      </c>
-      <c r="C53" s="95">
-        <v>0</v>
-      </c>
-      <c r="D53" s="95">
+      <c r="B53" s="81">
+        <v>0</v>
+      </c>
+      <c r="C53" s="81">
+        <v>0</v>
+      </c>
+      <c r="D53" s="81">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E53" s="95">
+      <c r="E53" s="81">
         <v>0.2223</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="78">
         <v>65</v>
       </c>
-      <c r="B54" s="95">
-        <v>0</v>
-      </c>
-      <c r="C54" s="95">
-        <v>0</v>
-      </c>
-      <c r="D54" s="95">
+      <c r="B54" s="81">
+        <v>0</v>
+      </c>
+      <c r="C54" s="81">
+        <v>0</v>
+      </c>
+      <c r="D54" s="81">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E54" s="95">
+      <c r="E54" s="81">
         <v>0.2223</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="78">
         <v>66</v>
       </c>
-      <c r="B55" s="95">
-        <v>0</v>
-      </c>
-      <c r="C55" s="95">
-        <v>0</v>
-      </c>
-      <c r="D55" s="95">
+      <c r="B55" s="81">
+        <v>0</v>
+      </c>
+      <c r="C55" s="81">
+        <v>0</v>
+      </c>
+      <c r="D55" s="81">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E55" s="95">
+      <c r="E55" s="81">
         <v>0.27789999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="78">
         <v>67</v>
       </c>
-      <c r="B56" s="95">
-        <v>0</v>
-      </c>
-      <c r="C56" s="95">
-        <v>0</v>
-      </c>
-      <c r="D56" s="95">
+      <c r="B56" s="81">
+        <v>0</v>
+      </c>
+      <c r="C56" s="81">
+        <v>0</v>
+      </c>
+      <c r="D56" s="81">
         <v>0.1925</v>
       </c>
-      <c r="E56" s="95">
+      <c r="E56" s="81">
         <v>0.2223</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="78">
         <v>68</v>
       </c>
-      <c r="B57" s="95">
-        <v>0</v>
-      </c>
-      <c r="C57" s="95">
-        <v>0</v>
-      </c>
-      <c r="D57" s="95">
+      <c r="B57" s="81">
+        <v>0</v>
+      </c>
+      <c r="C57" s="81">
+        <v>0</v>
+      </c>
+      <c r="D57" s="81">
         <v>0.1925</v>
       </c>
-      <c r="E57" s="95">
+      <c r="E57" s="81">
         <v>0.2223</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="78">
         <v>69</v>
       </c>
-      <c r="B58" s="95">
-        <v>0</v>
-      </c>
-      <c r="C58" s="95">
-        <v>0</v>
-      </c>
-      <c r="D58" s="95">
+      <c r="B58" s="81">
+        <v>0</v>
+      </c>
+      <c r="C58" s="81">
+        <v>0</v>
+      </c>
+      <c r="D58" s="81">
         <v>0.19339999999999999</v>
       </c>
-      <c r="E58" s="95">
+      <c r="E58" s="81">
         <v>0.22789999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="78">
         <v>70</v>
       </c>
-      <c r="B59" s="95">
-        <v>0</v>
-      </c>
-      <c r="C59" s="95">
-        <v>0</v>
-      </c>
-      <c r="D59" s="95">
+      <c r="B59" s="81">
+        <v>0</v>
+      </c>
+      <c r="C59" s="81">
+        <v>0</v>
+      </c>
+      <c r="D59" s="81">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E59" s="95">
+      <c r="E59" s="81">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="78">
         <v>71</v>
       </c>
-      <c r="B60" s="95">
-        <v>0</v>
-      </c>
-      <c r="C60" s="95">
-        <v>0</v>
-      </c>
-      <c r="D60" s="95">
+      <c r="B60" s="81">
+        <v>0</v>
+      </c>
+      <c r="C60" s="81">
+        <v>0</v>
+      </c>
+      <c r="D60" s="81">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E60" s="95">
+      <c r="E60" s="81">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="78">
         <v>72</v>
       </c>
-      <c r="B61" s="95">
-        <v>0</v>
-      </c>
-      <c r="C61" s="95">
-        <v>0</v>
-      </c>
-      <c r="D61" s="95">
+      <c r="B61" s="81">
+        <v>0</v>
+      </c>
+      <c r="C61" s="81">
+        <v>0</v>
+      </c>
+      <c r="D61" s="81">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E61" s="95">
+      <c r="E61" s="81">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="78">
         <v>73</v>
       </c>
-      <c r="B62" s="95">
-        <v>0</v>
-      </c>
-      <c r="C62" s="95">
-        <v>0</v>
-      </c>
-      <c r="D62" s="95">
+      <c r="B62" s="81">
+        <v>0</v>
+      </c>
+      <c r="C62" s="81">
+        <v>0</v>
+      </c>
+      <c r="D62" s="81">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E62" s="95">
+      <c r="E62" s="81">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
+      <c r="A63" s="79">
         <v>74</v>
       </c>
-      <c r="B63" s="96">
-        <v>0</v>
-      </c>
-      <c r="C63" s="96">
-        <v>0</v>
-      </c>
-      <c r="D63" s="96">
+      <c r="B63" s="82">
+        <v>0</v>
+      </c>
+      <c r="C63" s="82">
+        <v>0</v>
+      </c>
+      <c r="D63" s="82">
         <v>1</v>
       </c>
-      <c r="E63" s="96">
+      <c r="E63" s="82">
         <v>1</v>
       </c>
     </row>
@@ -5381,7 +5374,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,57 +5397,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="77"/>
+      <c r="B4" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="94"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>140</v>
+      <c r="B5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>158</v>
+      <c r="A6" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="70"/>
+      <c r="A7" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="99"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="72"/>
+      <c r="A8" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="84"/>
+      <c r="A9" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5478,7 +5471,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5507,1056 +5500,1056 @@
         <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="93"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="G7" s="76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>19</v>
+      </c>
+      <c r="B8" s="80">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C8" s="80">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="D8" s="80">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E8" s="80">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="F8" s="80">
+        <v>0</v>
+      </c>
+      <c r="G8" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="78">
+        <v>20</v>
+      </c>
+      <c r="B9" s="81">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C9" s="81">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="D9" s="81">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="F9" s="81">
+        <v>0</v>
+      </c>
+      <c r="G9" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
+        <v>21</v>
+      </c>
+      <c r="B10" s="81">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C10" s="81">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="D10" s="81">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="F10" s="81">
+        <v>0</v>
+      </c>
+      <c r="G10" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="78">
+        <v>22</v>
+      </c>
+      <c r="B11" s="81">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C11" s="81">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="D11" s="81">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="F11" s="81">
+        <v>0</v>
+      </c>
+      <c r="G11" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
+        <v>23</v>
+      </c>
+      <c r="B12" s="81">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="C12" s="81">
+        <v>0.1341</v>
+      </c>
+      <c r="D12" s="81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E12" s="81">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="F12" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G12" s="81">
+        <v>5.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
+        <v>24</v>
+      </c>
+      <c r="B13" s="81">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="C13" s="81">
+        <v>0.1341</v>
+      </c>
+      <c r="D13" s="81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E13" s="81">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="F13" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G13" s="81">
+        <v>5.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
+        <v>25</v>
+      </c>
+      <c r="B14" s="81">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="C14" s="81">
+        <v>0.1341</v>
+      </c>
+      <c r="D14" s="81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E14" s="81">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="F14" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G14" s="81">
+        <v>5.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="78">
+        <v>26</v>
+      </c>
+      <c r="B15" s="81">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="C15" s="81">
+        <v>0.1341</v>
+      </c>
+      <c r="D15" s="81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E15" s="81">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="F15" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G15" s="81">
+        <v>5.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="78">
+        <v>27</v>
+      </c>
+      <c r="B16" s="81">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="C16" s="81">
+        <v>0.1341</v>
+      </c>
+      <c r="D16" s="81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E16" s="81">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="F16" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G16" s="81">
+        <v>5.0200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="78">
+        <v>28</v>
+      </c>
+      <c r="B17" s="81">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C17" s="81">
+        <v>0.1381</v>
+      </c>
+      <c r="D17" s="81">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E17" s="81">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F17" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G17" s="81">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="78">
+        <v>29</v>
+      </c>
+      <c r="B18" s="81">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C18" s="81">
+        <v>0.1381</v>
+      </c>
+      <c r="D18" s="81">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E18" s="81">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F18" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G18" s="81">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="78">
+        <v>30</v>
+      </c>
+      <c r="B19" s="81">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C19" s="81">
+        <v>0.1381</v>
+      </c>
+      <c r="D19" s="81">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E19" s="81">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F19" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G19" s="81">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="78">
+        <v>31</v>
+      </c>
+      <c r="B20" s="81">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C20" s="81">
+        <v>0.1381</v>
+      </c>
+      <c r="D20" s="81">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E20" s="81">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F20" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G20" s="81">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="78">
+        <v>32</v>
+      </c>
+      <c r="B21" s="81">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C21" s="81">
+        <v>0.1381</v>
+      </c>
+      <c r="D21" s="81">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="E21" s="81">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="F21" s="81">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G21" s="81">
+        <v>4.02E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="78">
+        <v>33</v>
+      </c>
+      <c r="B22" s="81">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="C22" s="81">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="D22" s="81">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="E22" s="81">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F22" s="81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G22" s="81">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="78">
+        <v>34</v>
+      </c>
+      <c r="B23" s="81">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="C23" s="81">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="D23" s="81">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="E23" s="81">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F23" s="81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G23" s="81">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="78">
+        <v>35</v>
+      </c>
+      <c r="B24" s="81">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="C24" s="81">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="D24" s="81">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="E24" s="81">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F24" s="81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G24" s="81">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="78">
+        <v>36</v>
+      </c>
+      <c r="B25" s="81">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="C25" s="81">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="D25" s="81">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="E25" s="81">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F25" s="81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G25" s="81">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="78">
+        <v>37</v>
+      </c>
+      <c r="B26" s="81">
+        <v>0.13389999999999999</v>
+      </c>
+      <c r="C26" s="81">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D26" s="81">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="E26" s="81">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F26" s="81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G26" s="81">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="78">
+        <v>38</v>
+      </c>
+      <c r="B27" s="81">
+        <v>0.1449</v>
+      </c>
+      <c r="C27" s="81">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D27" s="81">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E27" s="81">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F27" s="81">
+        <v>1.34E-2</v>
+      </c>
+      <c r="G27" s="81">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="78">
+        <v>39</v>
+      </c>
+      <c r="B28" s="81">
+        <v>0.1449</v>
+      </c>
+      <c r="C28" s="81">
+        <v>0.1244</v>
+      </c>
+      <c r="D28" s="81">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E28" s="81">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F28" s="81">
+        <v>1.34E-2</v>
+      </c>
+      <c r="G28" s="81">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
+        <v>40</v>
+      </c>
+      <c r="B29" s="81">
+        <v>0.1449</v>
+      </c>
+      <c r="C29" s="81">
+        <v>0.1179</v>
+      </c>
+      <c r="D29" s="81">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E29" s="81">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F29" s="81">
+        <v>1.34E-2</v>
+      </c>
+      <c r="G29" s="81">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="78">
+        <v>41</v>
+      </c>
+      <c r="B30" s="81">
+        <v>0.1449</v>
+      </c>
+      <c r="C30" s="81">
+        <v>0.1179</v>
+      </c>
+      <c r="D30" s="81">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E30" s="81">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F30" s="81">
+        <v>1.34E-2</v>
+      </c>
+      <c r="G30" s="81">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="78">
+        <v>42</v>
+      </c>
+      <c r="B31" s="81">
+        <v>0.1449</v>
+      </c>
+      <c r="C31" s="81">
+        <v>0.1179</v>
+      </c>
+      <c r="D31" s="81">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E31" s="81">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F31" s="81">
+        <v>1.34E-2</v>
+      </c>
+      <c r="G31" s="81">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="78">
+        <v>43</v>
+      </c>
+      <c r="B32" s="81">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="C32" s="81">
+        <v>0.1154</v>
+      </c>
+      <c r="D32" s="81">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E32" s="81">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="F32" s="81">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G32" s="81">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="78">
+        <v>44</v>
+      </c>
+      <c r="B33" s="81">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="C33" s="81">
+        <v>0.1154</v>
+      </c>
+      <c r="D33" s="81">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E33" s="81">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="F33" s="81">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G33" s="81">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="78">
+        <v>45</v>
+      </c>
+      <c r="B34" s="81">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="C34" s="81">
+        <v>0.1154</v>
+      </c>
+      <c r="D34" s="81">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E34" s="81">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="F34" s="81">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G34" s="81">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="78">
+        <v>46</v>
+      </c>
+      <c r="B35" s="81">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="C35" s="81">
+        <v>0.1154</v>
+      </c>
+      <c r="D35" s="81">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E35" s="81">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="F35" s="81">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G35" s="81">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="78">
+        <v>47</v>
+      </c>
+      <c r="B36" s="81">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="C36" s="81">
+        <v>0.1154</v>
+      </c>
+      <c r="D36" s="81">
+        <v>4.53E-2</v>
+      </c>
+      <c r="E36" s="81">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="F36" s="81">
+        <v>1.37E-2</v>
+      </c>
+      <c r="G36" s="81">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="78">
+        <v>48</v>
+      </c>
+      <c r="B37" s="81">
+        <v>0.1431</v>
+      </c>
+      <c r="C37" s="81">
+        <v>0.1166</v>
+      </c>
+      <c r="D37" s="81">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E37" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F37" s="81">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G37" s="81">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="78">
+        <v>49</v>
+      </c>
+      <c r="B38" s="81">
+        <v>0.1431</v>
+      </c>
+      <c r="C38" s="81">
+        <v>0.1166</v>
+      </c>
+      <c r="D38" s="81">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E38" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F38" s="81">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G38" s="81">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="78">
+        <v>50</v>
+      </c>
+      <c r="B39" s="81">
+        <v>0.1431</v>
+      </c>
+      <c r="C39" s="81">
+        <v>0.1166</v>
+      </c>
+      <c r="D39" s="81">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E39" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F39" s="81">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G39" s="81">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="78">
+        <v>51</v>
+      </c>
+      <c r="B40" s="81">
+        <v>0.1431</v>
+      </c>
+      <c r="C40" s="81">
+        <v>0.1166</v>
+      </c>
+      <c r="D40" s="81">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E40" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F40" s="81">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G40" s="81">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="78">
+        <v>52</v>
+      </c>
+      <c r="B41" s="81">
+        <v>0.1431</v>
+      </c>
+      <c r="C41" s="81">
+        <v>0.1166</v>
+      </c>
+      <c r="D41" s="81">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="E41" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F41" s="81">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G41" s="81">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="78">
         <v>53</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
-        <v>19</v>
-      </c>
-      <c r="B8" s="94">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C8" s="94">
-        <v>0.22869999999999999</v>
-      </c>
-      <c r="D8" s="94">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="E8" s="94">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="F8" s="94">
-        <v>0</v>
-      </c>
-      <c r="G8" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
-        <v>20</v>
-      </c>
-      <c r="B9" s="95">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C9" s="95">
-        <v>0.22869999999999999</v>
-      </c>
-      <c r="D9" s="95">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="E9" s="95">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="F9" s="95">
-        <v>0</v>
-      </c>
-      <c r="G9" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
-        <v>21</v>
-      </c>
-      <c r="B10" s="95">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C10" s="95">
-        <v>0.22869999999999999</v>
-      </c>
-      <c r="D10" s="95">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="E10" s="95">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="F10" s="95">
-        <v>0</v>
-      </c>
-      <c r="G10" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
-        <v>22</v>
-      </c>
-      <c r="B11" s="95">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C11" s="95">
-        <v>0.22869999999999999</v>
-      </c>
-      <c r="D11" s="95">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="E11" s="95">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="F11" s="95">
-        <v>0</v>
-      </c>
-      <c r="G11" s="95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
-        <v>23</v>
-      </c>
-      <c r="B12" s="95">
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="C12" s="95">
-        <v>0.1341</v>
-      </c>
-      <c r="D12" s="95">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E12" s="95">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="F12" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G12" s="95">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
-        <v>24</v>
-      </c>
-      <c r="B13" s="95">
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="C13" s="95">
-        <v>0.1341</v>
-      </c>
-      <c r="D13" s="95">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E13" s="95">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="F13" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G13" s="95">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
-        <v>25</v>
-      </c>
-      <c r="B14" s="95">
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="C14" s="95">
-        <v>0.1341</v>
-      </c>
-      <c r="D14" s="95">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E14" s="95">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="F14" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G14" s="95">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
-        <v>26</v>
-      </c>
-      <c r="B15" s="95">
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="C15" s="95">
-        <v>0.1341</v>
-      </c>
-      <c r="D15" s="95">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E15" s="95">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="F15" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G15" s="95">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
-        <v>27</v>
-      </c>
-      <c r="B16" s="95">
-        <v>0.14849999999999999</v>
-      </c>
-      <c r="C16" s="95">
-        <v>0.1341</v>
-      </c>
-      <c r="D16" s="95">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E16" s="95">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="F16" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G16" s="95">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
-        <v>28</v>
-      </c>
-      <c r="B17" s="95">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C17" s="95">
-        <v>0.1381</v>
-      </c>
-      <c r="D17" s="95">
+      <c r="B42" s="81">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="C42" s="81">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D42" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="E42" s="81">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F42" s="81">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G42" s="81">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="78">
+        <v>54</v>
+      </c>
+      <c r="B43" s="81">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="C43" s="81">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D43" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="E43" s="81">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F43" s="81">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G43" s="81">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="78">
+        <v>55</v>
+      </c>
+      <c r="B44" s="81">
+        <v>0.1217</v>
+      </c>
+      <c r="C44" s="81">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D44" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="E44" s="81">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F44" s="81">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="G44" s="81">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="78">
+        <v>56</v>
+      </c>
+      <c r="B45" s="81">
+        <v>0.1217</v>
+      </c>
+      <c r="C45" s="81">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D45" s="81">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="E45" s="81">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="F45" s="81">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="G45" s="81">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E17" s="95">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F17" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G17" s="95">
-        <v>4.02E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
-        <v>29</v>
-      </c>
-      <c r="B18" s="95">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C18" s="95">
-        <v>0.1381</v>
-      </c>
-      <c r="D18" s="95">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="E18" s="95">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F18" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G18" s="95">
-        <v>4.02E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
-        <v>30</v>
-      </c>
-      <c r="B19" s="95">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C19" s="95">
-        <v>0.1381</v>
-      </c>
-      <c r="D19" s="95">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="E19" s="95">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F19" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G19" s="95">
-        <v>4.02E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
-        <v>31</v>
-      </c>
-      <c r="B20" s="95">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C20" s="95">
-        <v>0.1381</v>
-      </c>
-      <c r="D20" s="95">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="E20" s="95">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F20" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G20" s="95">
-        <v>4.02E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
-        <v>32</v>
-      </c>
-      <c r="B21" s="95">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C21" s="95">
-        <v>0.1381</v>
-      </c>
-      <c r="D21" s="95">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="E21" s="95">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="F21" s="95">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="G21" s="95">
-        <v>4.02E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
-        <v>33</v>
-      </c>
-      <c r="B22" s="95">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="C22" s="95">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="D22" s="95">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="E22" s="95">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="F22" s="95">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G22" s="95">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
-        <v>34</v>
-      </c>
-      <c r="B23" s="95">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="C23" s="95">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="D23" s="95">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="E23" s="95">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="F23" s="95">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G23" s="95">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
-        <v>35</v>
-      </c>
-      <c r="B24" s="95">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="C24" s="95">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="D24" s="95">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="E24" s="95">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="F24" s="95">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G24" s="95">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
-        <v>36</v>
-      </c>
-      <c r="B25" s="95">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="C25" s="95">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="D25" s="95">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="E25" s="95">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="F25" s="95">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G25" s="95">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
-        <v>37</v>
-      </c>
-      <c r="B26" s="95">
-        <v>0.13389999999999999</v>
-      </c>
-      <c r="C26" s="95">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D26" s="95">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="E26" s="95">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="F26" s="95">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G26" s="95">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
-        <v>38</v>
-      </c>
-      <c r="B27" s="95">
-        <v>0.1449</v>
-      </c>
-      <c r="C27" s="95">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D27" s="95">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E27" s="95">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F27" s="95">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G27" s="95">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
-        <v>39</v>
-      </c>
-      <c r="B28" s="95">
-        <v>0.1449</v>
-      </c>
-      <c r="C28" s="95">
-        <v>0.1244</v>
-      </c>
-      <c r="D28" s="95">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E28" s="95">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F28" s="95">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G28" s="95">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
-        <v>40</v>
-      </c>
-      <c r="B29" s="95">
-        <v>0.1449</v>
-      </c>
-      <c r="C29" s="95">
-        <v>0.1179</v>
-      </c>
-      <c r="D29" s="95">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E29" s="95">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F29" s="95">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G29" s="95">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
-        <v>41</v>
-      </c>
-      <c r="B30" s="95">
-        <v>0.1449</v>
-      </c>
-      <c r="C30" s="95">
-        <v>0.1179</v>
-      </c>
-      <c r="D30" s="95">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E30" s="95">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F30" s="95">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G30" s="95">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
-        <v>42</v>
-      </c>
-      <c r="B31" s="95">
-        <v>0.1449</v>
-      </c>
-      <c r="C31" s="95">
-        <v>0.1179</v>
-      </c>
-      <c r="D31" s="95">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E31" s="95">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F31" s="95">
-        <v>1.34E-2</v>
-      </c>
-      <c r="G31" s="95">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
-        <v>43</v>
-      </c>
-      <c r="B32" s="95">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="C32" s="95">
-        <v>0.1154</v>
-      </c>
-      <c r="D32" s="95">
-        <v>4.53E-2</v>
-      </c>
-      <c r="E32" s="95">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="F32" s="95">
-        <v>1.37E-2</v>
-      </c>
-      <c r="G32" s="95">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
-        <v>44</v>
-      </c>
-      <c r="B33" s="95">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="C33" s="95">
-        <v>0.1154</v>
-      </c>
-      <c r="D33" s="95">
-        <v>4.53E-2</v>
-      </c>
-      <c r="E33" s="95">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="F33" s="95">
-        <v>1.37E-2</v>
-      </c>
-      <c r="G33" s="95">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="91">
-        <v>45</v>
-      </c>
-      <c r="B34" s="95">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="C34" s="95">
-        <v>0.1154</v>
-      </c>
-      <c r="D34" s="95">
-        <v>4.53E-2</v>
-      </c>
-      <c r="E34" s="95">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="F34" s="95">
-        <v>1.37E-2</v>
-      </c>
-      <c r="G34" s="95">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
-        <v>46</v>
-      </c>
-      <c r="B35" s="95">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="C35" s="95">
-        <v>0.1154</v>
-      </c>
-      <c r="D35" s="95">
-        <v>4.53E-2</v>
-      </c>
-      <c r="E35" s="95">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="F35" s="95">
-        <v>1.37E-2</v>
-      </c>
-      <c r="G35" s="95">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
-        <v>47</v>
-      </c>
-      <c r="B36" s="95">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="C36" s="95">
-        <v>0.1154</v>
-      </c>
-      <c r="D36" s="95">
-        <v>4.53E-2</v>
-      </c>
-      <c r="E36" s="95">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="F36" s="95">
-        <v>1.37E-2</v>
-      </c>
-      <c r="G36" s="95">
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
-        <v>48</v>
-      </c>
-      <c r="B37" s="95">
-        <v>0.1431</v>
-      </c>
-      <c r="C37" s="95">
-        <v>0.1166</v>
-      </c>
-      <c r="D37" s="95">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="E37" s="95">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="78">
+        <v>57</v>
+      </c>
+      <c r="B46" s="81">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="C46" s="81">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D46" s="81">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F37" s="95">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G37" s="95">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
-        <v>49</v>
-      </c>
-      <c r="B38" s="95">
-        <v>0.1431</v>
-      </c>
-      <c r="C38" s="95">
-        <v>0.1166</v>
-      </c>
-      <c r="D38" s="95">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="E38" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="F38" s="95">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G38" s="95">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
-        <v>50</v>
-      </c>
-      <c r="B39" s="95">
-        <v>0.1431</v>
-      </c>
-      <c r="C39" s="95">
-        <v>0.1166</v>
-      </c>
-      <c r="D39" s="95">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="E39" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="F39" s="95">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G39" s="95">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
-        <v>51</v>
-      </c>
-      <c r="B40" s="95">
-        <v>0.1431</v>
-      </c>
-      <c r="C40" s="95">
-        <v>0.1166</v>
-      </c>
-      <c r="D40" s="95">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="E40" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="F40" s="95">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G40" s="95">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
-        <v>52</v>
-      </c>
-      <c r="B41" s="95">
-        <v>0.1431</v>
-      </c>
-      <c r="C41" s="95">
-        <v>0.1166</v>
-      </c>
-      <c r="D41" s="95">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="E41" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="F41" s="95">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G41" s="95">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
-        <v>53</v>
-      </c>
-      <c r="B42" s="95">
-        <v>0.14380000000000001</v>
-      </c>
-      <c r="C42" s="95">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="D42" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="E42" s="95">
+      <c r="E46" s="81">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F42" s="95">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G42" s="95">
-        <v>2.0799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
-        <v>54</v>
-      </c>
-      <c r="B43" s="95">
-        <v>0.14380000000000001</v>
-      </c>
-      <c r="C43" s="95">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="D43" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="E43" s="95">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="F43" s="95">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G43" s="95">
-        <v>3.1099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
-        <v>55</v>
-      </c>
-      <c r="B44" s="95">
-        <v>0.1217</v>
-      </c>
-      <c r="C44" s="95">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="D44" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="E44" s="95">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="F44" s="95">
+      <c r="F46" s="81">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G44" s="95">
-        <v>3.1099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
-        <v>56</v>
-      </c>
-      <c r="B45" s="95">
-        <v>0.1217</v>
-      </c>
-      <c r="C45" s="95">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="D45" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="E45" s="95">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="F45" s="95">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="G45" s="95">
-        <v>3.3700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
-        <v>57</v>
-      </c>
-      <c r="B46" s="95">
-        <v>0.11070000000000001</v>
-      </c>
-      <c r="C46" s="95">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="D46" s="95">
-        <v>4.4299999999999999E-2</v>
-      </c>
-      <c r="E46" s="95">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="F46" s="95">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="G46" s="95">
+      <c r="G46" s="81">
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="78">
         <v>58</v>
       </c>
-      <c r="B47" s="95">
+      <c r="B47" s="81">
         <v>0.11840000000000001</v>
       </c>
-      <c r="C47" s="95">
+      <c r="C47" s="81">
         <v>0.1225</v>
       </c>
-      <c r="D47" s="95">
+      <c r="D47" s="81">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E47" s="95">
+      <c r="E47" s="81">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F47" s="95">
+      <c r="F47" s="81">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="G47" s="95">
+      <c r="G47" s="81">
         <v>4.65E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="78">
         <v>59</v>
       </c>
-      <c r="B48" s="95">
+      <c r="B48" s="81">
         <v>0.11840000000000001</v>
       </c>
-      <c r="C48" s="95">
+      <c r="C48" s="81">
         <v>0.1225</v>
       </c>
-      <c r="D48" s="95">
+      <c r="D48" s="81">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E48" s="95">
+      <c r="E48" s="81">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F48" s="95">
+      <c r="F48" s="81">
         <v>5.57E-2</v>
       </c>
-      <c r="G48" s="95">
+      <c r="G48" s="81">
         <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="78">
         <v>60</v>
       </c>
-      <c r="B49" s="95">
+      <c r="B49" s="81">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C49" s="95">
+      <c r="C49" s="81">
         <v>0.1225</v>
       </c>
-      <c r="D49" s="95">
+      <c r="D49" s="81">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E49" s="95">
+      <c r="E49" s="81">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F49" s="95">
+      <c r="F49" s="81">
         <v>5.57E-2</v>
       </c>
-      <c r="G49" s="95">
+      <c r="G49" s="81">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="92">
+      <c r="A50" s="79">
         <v>61</v>
       </c>
-      <c r="B50" s="96">
+      <c r="B50" s="82">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C50" s="96">
+      <c r="C50" s="82">
         <v>0.1225</v>
       </c>
-      <c r="D50" s="96">
+      <c r="D50" s="82">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E50" s="96">
+      <c r="E50" s="82">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F50" s="96">
+      <c r="F50" s="82">
         <v>0.1237</v>
       </c>
-      <c r="G50" s="96">
+      <c r="G50" s="82">
         <v>0.1164</v>
       </c>
     </row>
@@ -6602,44 +6595,44 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="77"/>
+      <c r="B4" s="94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="94"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>140</v>
+      <c r="B5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="106"/>
+    </row>
+    <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="99"/>
+    </row>
+    <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="81"/>
-    </row>
-    <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="70"/>
-    </row>
-    <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6661,8 +6654,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6694,654 +6687,654 @@
         <v>51</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="93"/>
+      <c r="A5" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="101"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>172</v>
+      <c r="A6" s="102"/>
+      <c r="B6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>189</v>
+      <c r="B7" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
+      <c r="A8" s="77">
         <v>19</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="78">
         <v>20</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="78">
         <v>21</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="A11" s="78">
         <v>22</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+      <c r="A12" s="78">
         <v>23</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="78">
         <v>24</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+      <c r="A14" s="78">
         <v>25</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="78">
         <v>26</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="78">
         <v>27</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="84">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="A17" s="78">
         <v>28</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="84">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+      <c r="A18" s="78">
         <v>29</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="84">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="A19" s="78">
         <v>30</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="84">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="84">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="A20" s="78">
         <v>31</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="84">
         <v>3.1799999999999998E-4</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="84">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="78">
         <v>32</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="84">
         <v>4.4099999999999999E-4</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="84">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="A22" s="78">
         <v>33</v>
       </c>
-      <c r="B22" s="98">
+      <c r="B22" s="84">
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="84">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="A23" s="78">
         <v>34</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="84">
         <v>4.9399999999999997E-4</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="84">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
+      <c r="A24" s="78">
         <v>35</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="84">
         <v>5.8200000000000005E-4</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="84">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+      <c r="A25" s="78">
         <v>36</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="84">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="84">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+      <c r="A26" s="78">
         <v>37</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="84">
         <v>7.6800000000000002E-4</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="84">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
+      <c r="A27" s="78">
         <v>38</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="84">
         <v>9.5600000000000004E-4</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="84">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+      <c r="A28" s="78">
         <v>39</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="84">
         <v>1.059E-3</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="84">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+      <c r="A29" s="78">
         <v>40</v>
       </c>
-      <c r="B29" s="98">
+      <c r="B29" s="84">
         <v>1.163E-3</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="84">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
+      <c r="A30" s="78">
         <v>41</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="84">
         <v>1.163E-3</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="84">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
+      <c r="A31" s="78">
         <v>42</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="84">
         <v>1.163E-3</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="84">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
+      <c r="A32" s="78">
         <v>43</v>
       </c>
-      <c r="B32" s="98">
+      <c r="B32" s="84">
         <v>1.598E-3</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="84">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="78">
         <v>44</v>
       </c>
-      <c r="B33" s="98">
+      <c r="B33" s="84">
         <v>1.598E-3</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="84">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="91">
+      <c r="A34" s="78">
         <v>45</v>
       </c>
-      <c r="B34" s="98">
+      <c r="B34" s="84">
         <v>1.598E-3</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="84">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+      <c r="A35" s="78">
         <v>46</v>
       </c>
-      <c r="B35" s="98">
+      <c r="B35" s="84">
         <v>1.776E-3</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="84">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="78">
         <v>47</v>
       </c>
-      <c r="B36" s="98">
+      <c r="B36" s="84">
         <v>1.954E-3</v>
       </c>
-      <c r="C36" s="98">
+      <c r="C36" s="84">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="78">
         <v>48</v>
       </c>
-      <c r="B37" s="98">
+      <c r="B37" s="84">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="84">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+      <c r="A38" s="78">
         <v>49</v>
       </c>
-      <c r="B38" s="98">
+      <c r="B38" s="84">
         <v>2.6329999999999999E-3</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="84">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="78">
         <v>50</v>
       </c>
-      <c r="B39" s="98">
+      <c r="B39" s="84">
         <v>2.8349999999999998E-3</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="84">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="78">
         <v>51</v>
       </c>
-      <c r="B40" s="98">
+      <c r="B40" s="84">
         <v>3.1389999999999999E-3</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="84">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="78">
         <v>52</v>
       </c>
-      <c r="B41" s="98">
+      <c r="B41" s="84">
         <v>3.4429999999999999E-3</v>
       </c>
-      <c r="C41" s="98">
+      <c r="C41" s="84">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+      <c r="A42" s="78">
         <v>53</v>
       </c>
-      <c r="B42" s="98">
+      <c r="B42" s="84">
         <v>3.8049999999999998E-3</v>
       </c>
-      <c r="C42" s="98">
+      <c r="C42" s="84">
         <v>2.5209999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="78">
         <v>54</v>
       </c>
-      <c r="B43" s="98">
+      <c r="B43" s="84">
         <v>4.1139999999999996E-3</v>
       </c>
-      <c r="C43" s="98">
+      <c r="C43" s="84">
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="78">
         <v>55</v>
       </c>
-      <c r="B44" s="98">
+      <c r="B44" s="84">
         <v>4.4229999999999998E-3</v>
       </c>
-      <c r="C44" s="98">
+      <c r="C44" s="84">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="78">
         <v>56</v>
       </c>
-      <c r="B45" s="98">
+      <c r="B45" s="84">
         <v>4.731E-3</v>
       </c>
-      <c r="C45" s="98">
+      <c r="C45" s="84">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="78">
         <v>57</v>
       </c>
-      <c r="B46" s="98">
+      <c r="B46" s="84">
         <v>5.0400000000000002E-3</v>
       </c>
-      <c r="C46" s="98">
+      <c r="C46" s="84">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="78">
         <v>58</v>
       </c>
-      <c r="B47" s="98">
+      <c r="B47" s="84">
         <v>5.2180000000000004E-3</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="84">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="78">
         <v>59</v>
       </c>
-      <c r="B48" s="98">
+      <c r="B48" s="84">
         <v>5.5189999999999996E-3</v>
       </c>
-      <c r="C48" s="98">
+      <c r="C48" s="84">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="78">
         <v>60</v>
       </c>
-      <c r="B49" s="98">
+      <c r="B49" s="84">
         <v>5.8199999999999997E-3</v>
       </c>
-      <c r="C49" s="98">
+      <c r="C49" s="84">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="78">
         <v>61</v>
       </c>
-      <c r="B50" s="98">
+      <c r="B50" s="84">
         <v>3.6129999999999999E-3</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="84">
         <v>2.7430000000000002E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="78">
         <v>62</v>
       </c>
-      <c r="B51" s="98">
+      <c r="B51" s="84">
         <v>3.1110000000000001E-3</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="84">
         <v>1.797E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="78">
         <v>63</v>
       </c>
-      <c r="B52" s="98">
+      <c r="B52" s="84">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="84">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="78">
         <v>64</v>
       </c>
-      <c r="B53" s="98">
+      <c r="B53" s="84">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="C53" s="98">
+      <c r="C53" s="84">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="78">
         <v>65</v>
       </c>
-      <c r="B54" s="98">
+      <c r="B54" s="84">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C54" s="98">
+      <c r="C54" s="84">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="78">
         <v>66</v>
       </c>
-      <c r="B55" s="98">
+      <c r="B55" s="84">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C55" s="98">
+      <c r="C55" s="84">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="78">
         <v>67</v>
       </c>
-      <c r="B56" s="98">
+      <c r="B56" s="84">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C56" s="98">
+      <c r="C56" s="84">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="78">
         <v>68</v>
       </c>
-      <c r="B57" s="98">
+      <c r="B57" s="84">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C57" s="98">
+      <c r="C57" s="84">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="78">
         <v>69</v>
       </c>
-      <c r="B58" s="98">
+      <c r="B58" s="84">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C58" s="98">
+      <c r="C58" s="84">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="78">
         <v>70</v>
       </c>
-      <c r="B59" s="98">
+      <c r="B59" s="84">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C59" s="98">
+      <c r="C59" s="84">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="78">
         <v>71</v>
       </c>
-      <c r="B60" s="98">
+      <c r="B60" s="84">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C60" s="98">
+      <c r="C60" s="84">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="78">
         <v>72</v>
       </c>
-      <c r="B61" s="98">
+      <c r="B61" s="84">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C61" s="98">
+      <c r="C61" s="84">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="78">
         <v>73</v>
       </c>
-      <c r="B62" s="98">
+      <c r="B62" s="84">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C62" s="98">
+      <c r="C62" s="84">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
+      <c r="A63" s="79">
         <v>74</v>
       </c>
-      <c r="B63" s="99">
-        <v>0</v>
-      </c>
-      <c r="C63" s="99">
+      <c r="B63" s="85">
+        <v>0</v>
+      </c>
+      <c r="C63" s="85">
         <v>0</v>
       </c>
     </row>
@@ -7381,30 +7374,30 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>140</v>
+      <c r="B3" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="70"/>
+      <c r="A4" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="99"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="70"/>
+      <c r="A5" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7425,7 +7418,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7452,651 +7445,651 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="93"/>
+      <c r="A5" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="101"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>172</v>
+      <c r="A6" s="102"/>
+      <c r="B6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>193</v>
+      <c r="B7" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
+      <c r="A8" s="77">
         <v>19</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="83">
         <v>3.5500000000000001E-4</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="83">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="78">
         <v>20</v>
       </c>
-      <c r="B9" s="98">
+      <c r="B9" s="84">
         <v>3.9100000000000002E-4</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="84">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="78">
         <v>21</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="84">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="84">
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="A11" s="78">
         <v>22</v>
       </c>
-      <c r="B11" s="98">
+      <c r="B11" s="84">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="84">
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+      <c r="A12" s="78">
         <v>23</v>
       </c>
-      <c r="B12" s="98">
+      <c r="B12" s="84">
         <v>3.9399999999999998E-4</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="84">
         <v>1.25E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="78">
         <v>24</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="84">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="84">
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+      <c r="A14" s="78">
         <v>25</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="84">
         <v>4.06E-4</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="84">
         <v>1.2899999999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="78">
         <v>26</v>
       </c>
-      <c r="B15" s="98">
+      <c r="B15" s="84">
         <v>3.68E-4</v>
       </c>
-      <c r="C15" s="98">
+      <c r="C15" s="84">
         <v>1.55E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="78">
         <v>27</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="84">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="84">
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="A17" s="78">
         <v>28</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="84">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="84">
         <v>1.3899999999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+      <c r="A18" s="78">
         <v>29</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="84">
         <v>3.48E-4</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="84">
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="A19" s="78">
         <v>30</v>
       </c>
-      <c r="B19" s="98">
+      <c r="B19" s="84">
         <v>3.9300000000000001E-4</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="84">
         <v>1.65E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="A20" s="78">
         <v>31</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="84">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="84">
         <v>1.85E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="78">
         <v>32</v>
       </c>
-      <c r="B21" s="98">
+      <c r="B21" s="84">
         <v>4.2099999999999999E-4</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="84">
         <v>2.0799999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="A22" s="78">
         <v>33</v>
       </c>
-      <c r="B22" s="98">
+      <c r="B22" s="84">
         <v>3.6299999999999999E-4</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="84">
         <v>2.14E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="A23" s="78">
         <v>34</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="84">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="84">
         <v>2.22E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
+      <c r="A24" s="78">
         <v>35</v>
       </c>
-      <c r="B24" s="98">
+      <c r="B24" s="84">
         <v>4.4200000000000001E-4</v>
       </c>
-      <c r="C24" s="98">
+      <c r="C24" s="84">
         <v>2.4399999999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+      <c r="A25" s="78">
         <v>36</v>
       </c>
-      <c r="B25" s="98">
+      <c r="B25" s="84">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="C25" s="98">
+      <c r="C25" s="84">
         <v>2.24E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+      <c r="A26" s="78">
         <v>37</v>
       </c>
-      <c r="B26" s="98">
+      <c r="B26" s="84">
         <v>4.37E-4</v>
       </c>
-      <c r="C26" s="98">
+      <c r="C26" s="84">
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
+      <c r="A27" s="78">
         <v>38</v>
       </c>
-      <c r="B27" s="98">
+      <c r="B27" s="84">
         <v>4.8700000000000002E-4</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="84">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+      <c r="A28" s="78">
         <v>39</v>
       </c>
-      <c r="B28" s="98">
+      <c r="B28" s="84">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="84">
         <v>2.9599999999999998E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+      <c r="A29" s="78">
         <v>40</v>
       </c>
-      <c r="B29" s="98">
+      <c r="B29" s="84">
         <v>5.0199999999999995E-4</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="84">
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
+      <c r="A30" s="78">
         <v>41</v>
       </c>
-      <c r="B30" s="98">
+      <c r="B30" s="84">
         <v>5.5400000000000002E-4</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="84">
         <v>3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
+      <c r="A31" s="78">
         <v>42</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="84">
         <v>6.3900000000000003E-4</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="84">
         <v>4.06E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
+      <c r="A32" s="78">
         <v>43</v>
       </c>
-      <c r="B32" s="98">
+      <c r="B32" s="84">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="84">
         <v>4.0900000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="78">
         <v>44</v>
       </c>
-      <c r="B33" s="98">
+      <c r="B33" s="84">
         <v>7.1500000000000003E-4</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="84">
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="91">
+      <c r="A34" s="78">
         <v>45</v>
       </c>
-      <c r="B34" s="98">
+      <c r="B34" s="84">
         <v>8.3799999999999999E-4</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="84">
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+      <c r="A35" s="78">
         <v>46</v>
       </c>
-      <c r="B35" s="98">
+      <c r="B35" s="84">
         <v>7.76E-4</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="84">
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="78">
         <v>47</v>
       </c>
-      <c r="B36" s="98">
+      <c r="B36" s="84">
         <v>9.1200000000000005E-4</v>
       </c>
-      <c r="C36" s="98">
+      <c r="C36" s="84">
         <v>6.6200000000000005E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="78">
         <v>48</v>
       </c>
-      <c r="B37" s="98">
+      <c r="B37" s="84">
         <v>1.132E-3</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="84">
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+      <c r="A38" s="78">
         <v>49</v>
       </c>
-      <c r="B38" s="98">
+      <c r="B38" s="84">
         <v>1.2669999999999999E-3</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="84">
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="78">
         <v>50</v>
       </c>
-      <c r="B39" s="98">
+      <c r="B39" s="84">
         <v>1.3760000000000001E-3</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="84">
         <v>8.8099999999999995E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="78">
         <v>51</v>
       </c>
-      <c r="B40" s="98">
+      <c r="B40" s="84">
         <v>1.49E-3</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="84">
         <v>9.3899999999999995E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="78">
         <v>52</v>
       </c>
-      <c r="B41" s="98">
+      <c r="B41" s="84">
         <v>1.7340000000000001E-3</v>
       </c>
-      <c r="C41" s="98">
+      <c r="C41" s="84">
         <v>1.0369999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+      <c r="A42" s="78">
         <v>53</v>
       </c>
-      <c r="B42" s="98">
+      <c r="B42" s="84">
         <v>1.769E-3</v>
       </c>
-      <c r="C42" s="98">
+      <c r="C42" s="84">
         <v>1.109E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="78">
         <v>54</v>
       </c>
-      <c r="B43" s="98">
+      <c r="B43" s="84">
         <v>2.0669999999999998E-3</v>
       </c>
-      <c r="C43" s="98">
+      <c r="C43" s="84">
         <v>1.206E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="78">
         <v>55</v>
       </c>
-      <c r="B44" s="98">
+      <c r="B44" s="84">
         <v>2.3340000000000001E-3</v>
       </c>
-      <c r="C44" s="98">
+      <c r="C44" s="84">
         <v>1.3309999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="78">
         <v>56</v>
       </c>
-      <c r="B45" s="98">
+      <c r="B45" s="84">
         <v>2.49E-3</v>
       </c>
-      <c r="C45" s="98">
+      <c r="C45" s="84">
         <v>1.423E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="78">
         <v>57</v>
       </c>
-      <c r="B46" s="98">
+      <c r="B46" s="84">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="C46" s="98">
+      <c r="C46" s="84">
         <v>1.588E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="78">
         <v>58</v>
       </c>
-      <c r="B47" s="98">
+      <c r="B47" s="84">
         <v>2.9650000000000002E-3</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="84">
         <v>1.691E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="78">
         <v>59</v>
       </c>
-      <c r="B48" s="98">
+      <c r="B48" s="84">
         <v>3.4139999999999999E-3</v>
       </c>
-      <c r="C48" s="98">
+      <c r="C48" s="84">
         <v>1.792E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="78">
         <v>60</v>
       </c>
-      <c r="B49" s="98">
+      <c r="B49" s="84">
         <v>3.7880000000000001E-3</v>
       </c>
-      <c r="C49" s="98">
+      <c r="C49" s="84">
         <v>1.9589999999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="78">
         <v>61</v>
       </c>
-      <c r="B50" s="98">
+      <c r="B50" s="84">
         <v>4.0590000000000001E-3</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="84">
         <v>2.137E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="78">
         <v>62</v>
       </c>
-      <c r="B51" s="98">
+      <c r="B51" s="84">
         <v>4.6779999999999999E-3</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="84">
         <v>2.2799999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="78">
         <v>63</v>
       </c>
-      <c r="B52" s="98">
+      <c r="B52" s="84">
         <v>5.5170000000000002E-3</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="84">
         <v>2.539E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="78">
         <v>64</v>
       </c>
-      <c r="B53" s="98">
+      <c r="B53" s="84">
         <v>6.1900000000000002E-3</v>
       </c>
-      <c r="C53" s="98">
+      <c r="C53" s="84">
         <v>2.7899999999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="78">
         <v>65</v>
       </c>
-      <c r="B54" s="98">
+      <c r="B54" s="84">
         <v>7.0029999999999997E-3</v>
       </c>
-      <c r="C54" s="98">
+      <c r="C54" s="84">
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="78">
         <v>66</v>
       </c>
-      <c r="B55" s="98">
+      <c r="B55" s="84">
         <v>7.5160000000000001E-3</v>
       </c>
-      <c r="C55" s="98">
+      <c r="C55" s="84">
         <v>3.4150000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="78">
         <v>67</v>
       </c>
-      <c r="B56" s="98">
+      <c r="B56" s="84">
         <v>9.1769999999999994E-3</v>
       </c>
-      <c r="C56" s="98">
+      <c r="C56" s="84">
         <v>3.6800000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="78">
         <v>68</v>
       </c>
-      <c r="B57" s="98">
+      <c r="B57" s="84">
         <v>9.6109999999999998E-3</v>
       </c>
-      <c r="C57" s="98">
+      <c r="C57" s="84">
         <v>4.4730000000000004E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="78">
         <v>69</v>
       </c>
-      <c r="B58" s="98">
+      <c r="B58" s="84">
         <v>1.0673999999999999E-2</v>
       </c>
-      <c r="C58" s="98">
+      <c r="C58" s="84">
         <v>4.431E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="78">
         <v>70</v>
       </c>
-      <c r="B59" s="98">
+      <c r="B59" s="84">
         <v>1.1193E-2</v>
       </c>
-      <c r="C59" s="98">
+      <c r="C59" s="84">
         <v>5.0109999999999998E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="78">
         <v>71</v>
       </c>
-      <c r="B60" s="98">
+      <c r="B60" s="84">
         <v>1.3648E-2</v>
       </c>
-      <c r="C60" s="98">
+      <c r="C60" s="84">
         <v>5.9820000000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="78">
         <v>72</v>
       </c>
-      <c r="B61" s="98">
+      <c r="B61" s="84">
         <v>1.4447E-2</v>
       </c>
-      <c r="C61" s="98">
+      <c r="C61" s="84">
         <v>6.7559999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="78">
         <v>73</v>
       </c>
-      <c r="B62" s="98">
+      <c r="B62" s="84">
         <v>1.7038999999999999E-2</v>
       </c>
-      <c r="C62" s="98">
+      <c r="C62" s="84">
         <v>7.6020000000000003E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="92">
+      <c r="A63" s="79">
         <v>74</v>
       </c>
-      <c r="B63" s="99">
-        <v>0</v>
-      </c>
-      <c r="C63" s="99">
+      <c r="B63" s="85">
+        <v>0</v>
+      </c>
+      <c r="C63" s="85">
         <v>0</v>
       </c>
     </row>
@@ -8115,16 +8108,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8137,7 +8131,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8145,287 +8139,123 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="D6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="38">
+        <v>20</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1</v>
+      </c>
+      <c r="I7" s="38">
+        <v>62</v>
+      </c>
+      <c r="J7" s="38">
+        <v>5</v>
+      </c>
+      <c r="K7" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="38">
+        <v>20</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="52">
+        <v>1</v>
+      </c>
+      <c r="H8" s="52">
+        <v>1</v>
+      </c>
+      <c r="I8" s="38">
         <v>65</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38">
+      <c r="J8" s="38">
+        <v>10</v>
+      </c>
+      <c r="K8" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="52">
         <v>20</v>
       </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="E9" s="52">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="52">
         <v>1</v>
       </c>
-      <c r="E7" s="38">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="38">
-        <v>50</v>
-      </c>
-      <c r="I7" s="38">
-        <v>999</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0.06</v>
-      </c>
-      <c r="K7" s="38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="38">
-        <v>20</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="H9" s="52">
         <v>1</v>
       </c>
-      <c r="E8" s="38">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="38">
-        <v>50</v>
-      </c>
-      <c r="I8" s="38">
-        <v>999</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="I9" s="52">
+        <v>65</v>
+      </c>
+      <c r="J9" s="52">
         <v>10</v>
       </c>
-      <c r="C9" s="38">
-        <v>50</v>
-      </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0.03</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="H9" s="38">
-        <v>50</v>
-      </c>
-      <c r="I9" s="38">
-        <v>10</v>
-      </c>
-      <c r="J9" s="38">
-        <v>0.08</v>
-      </c>
-      <c r="K9" s="38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="38">
-        <v>20</v>
-      </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="38">
-        <v>1</v>
-      </c>
-      <c r="E10" s="38">
-        <v>0.03</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="H10" s="38">
-        <v>50</v>
-      </c>
-      <c r="I10" s="38">
-        <v>999</v>
-      </c>
-      <c r="J10" s="38">
-        <v>0.08</v>
-      </c>
-      <c r="K10" s="38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="38">
-        <v>20</v>
-      </c>
-      <c r="C11" s="38">
-        <v>50</v>
-      </c>
-      <c r="D11" s="38">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0.03</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="H11" s="38">
-        <v>50</v>
-      </c>
-      <c r="I11" s="38">
-        <v>20</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0.09</v>
-      </c>
-      <c r="K11" s="38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="38">
-        <v>20</v>
-      </c>
-      <c r="C12" s="38">
-        <v>50</v>
-      </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="38">
-        <v>50</v>
-      </c>
-      <c r="I12" s="38">
-        <v>20</v>
-      </c>
-      <c r="J12" s="38">
-        <v>0.09</v>
-      </c>
-      <c r="K12" s="38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="52">
-        <v>20</v>
-      </c>
-      <c r="C13" s="52">
-        <v>50</v>
-      </c>
-      <c r="D13" s="52">
-        <v>2</v>
-      </c>
-      <c r="E13" s="52">
-        <v>0.03</v>
-      </c>
-      <c r="F13" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="52">
-        <v>50</v>
-      </c>
-      <c r="I13" s="52">
-        <v>20</v>
-      </c>
-      <c r="J13" s="52">
-        <v>0.09</v>
-      </c>
-      <c r="K13" s="52">
-        <v>33</v>
+      <c r="K9" s="52">
+        <v>0.10299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8442,7 +8272,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8469,1173 +8299,1173 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="101"/>
+      <c r="A5" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="108"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>198</v>
+      <c r="A6" s="107"/>
+      <c r="B6" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="103" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>202</v>
+      <c r="B7" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="104">
+      <c r="A8" s="88">
         <v>50</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="91">
         <v>4.1929999999999997E-3</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="91">
         <v>2.5560000000000001E-3</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="91">
         <v>2.1038000000000001E-2</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="91">
         <v>1.1939999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="105">
+      <c r="A9" s="89">
         <v>51</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="92">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="92">
         <v>2.7409999999999999E-3</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="92">
         <v>2.1703E-2</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="92">
         <v>1.2501E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="105">
+      <c r="A10" s="89">
         <v>52</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="92">
         <v>4.8700000000000002E-3</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="92">
         <v>2.869E-3</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="92">
         <v>2.2357999999999999E-2</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="92">
         <v>1.3063E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="105">
+      <c r="A11" s="89">
         <v>53</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="92">
         <v>5.1879999999999999E-3</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="92">
         <v>3.0249999999999999E-3</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="92">
         <v>2.2852999999999998E-2</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="92">
         <v>1.3634E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="105">
+      <c r="A12" s="89">
         <v>54</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="92">
         <v>5.5059999999999996E-3</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="92">
         <v>3.1809999999999998E-3</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="92">
         <v>2.3307999999999999E-2</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="92">
         <v>1.4203E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="105">
+      <c r="A13" s="89">
         <v>55</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="92">
         <v>5.8329999999999996E-3</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="92">
         <v>3.4390000000000002E-3</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="92">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="92">
         <v>1.4768E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="105">
+      <c r="A14" s="89">
         <v>56</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="92">
         <v>6.1729999999999997E-3</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="92">
         <v>3.64E-3</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="92">
         <v>2.4244000000000002E-2</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="92">
         <v>1.5334E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="105">
+      <c r="A15" s="89">
         <v>57</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="92">
         <v>6.5339999999999999E-3</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="92">
         <v>3.9579999999999997E-3</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="92">
         <v>2.477E-2</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="92">
         <v>1.5893999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="105">
+      <c r="A16" s="89">
         <v>58</v>
       </c>
-      <c r="B16" s="108">
+      <c r="B16" s="92">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="92">
         <v>4.2989999999999999E-3</v>
       </c>
-      <c r="D16" s="108">
+      <c r="D16" s="92">
         <v>2.5347999999999999E-2</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="92">
         <v>1.6452999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
+      <c r="A17" s="89">
         <v>59</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="92">
         <v>7.3379999999999999E-3</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="92">
         <v>4.6540000000000002E-3</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="92">
         <v>2.5984E-2</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="92">
         <v>1.7028999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="105">
+      <c r="A18" s="89">
         <v>60</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="92">
         <v>7.7990000000000004E-3</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="92">
         <v>5.071E-3</v>
       </c>
-      <c r="D18" s="108">
+      <c r="D18" s="92">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="92">
         <v>1.7614999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="105">
+      <c r="A19" s="89">
         <v>61</v>
       </c>
-      <c r="B19" s="108">
+      <c r="B19" s="92">
         <v>8.3119999999999999E-3</v>
       </c>
-      <c r="C19" s="108">
+      <c r="C19" s="92">
         <v>5.5030000000000001E-3</v>
       </c>
-      <c r="D19" s="108">
+      <c r="D19" s="92">
         <v>2.7507E-2</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="92">
         <v>1.8256999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="105">
+      <c r="A20" s="89">
         <v>62</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="92">
         <v>8.8920000000000006E-3</v>
       </c>
-      <c r="C20" s="108">
+      <c r="C20" s="92">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="D20" s="108">
+      <c r="D20" s="92">
         <v>2.8433E-2</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="92">
         <v>1.8957000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="105">
+      <c r="A21" s="89">
         <v>63</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="92">
         <v>9.554E-3</v>
       </c>
-      <c r="C21" s="108">
+      <c r="C21" s="92">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="D21" s="108">
+      <c r="D21" s="92">
         <v>2.9505E-2</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="92">
         <v>1.9748000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="105">
+      <c r="A22" s="89">
         <v>64</v>
       </c>
-      <c r="B22" s="108">
+      <c r="B22" s="92">
         <v>1.0309E-2</v>
       </c>
-      <c r="C22" s="108">
+      <c r="C22" s="92">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="D22" s="108">
+      <c r="D22" s="92">
         <v>3.0731000000000001E-2</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="92">
         <v>2.0663000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="105">
+      <c r="A23" s="89">
         <v>65</v>
       </c>
-      <c r="B23" s="108">
+      <c r="B23" s="92">
         <v>1.1169E-2</v>
       </c>
-      <c r="C23" s="108">
+      <c r="C23" s="92">
         <v>7.8919999999999997E-3</v>
       </c>
-      <c r="D23" s="108">
+      <c r="D23" s="92">
         <v>3.2134999999999997E-2</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="92">
         <v>2.1715000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="105">
+      <c r="A24" s="89">
         <v>66</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="92">
         <v>1.2142999999999999E-2</v>
       </c>
-      <c r="C24" s="108">
+      <c r="C24" s="92">
         <v>8.6499999999999997E-3</v>
       </c>
-      <c r="D24" s="108">
+      <c r="D24" s="92">
         <v>3.3711999999999999E-2</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="92">
         <v>2.2922999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="105">
+      <c r="A25" s="89">
         <v>67</v>
       </c>
-      <c r="B25" s="108">
+      <c r="B25" s="92">
         <v>1.3242E-2</v>
       </c>
-      <c r="C25" s="108">
+      <c r="C25" s="92">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="D25" s="108">
+      <c r="D25" s="92">
         <v>3.5465999999999998E-2</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="92">
         <v>2.4315E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="105">
+      <c r="A26" s="89">
         <v>68</v>
       </c>
-      <c r="B26" s="108">
+      <c r="B26" s="92">
         <v>1.4484E-2</v>
       </c>
-      <c r="C26" s="108">
+      <c r="C26" s="92">
         <v>1.0465E-2</v>
       </c>
-      <c r="D26" s="108">
+      <c r="D26" s="92">
         <v>3.7429999999999998E-2</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="92">
         <v>2.5898999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="105">
+      <c r="A27" s="89">
         <v>69</v>
       </c>
-      <c r="B27" s="108">
+      <c r="B27" s="92">
         <v>1.5882E-2</v>
       </c>
-      <c r="C27" s="108">
+      <c r="C27" s="92">
         <v>1.1528999999999999E-2</v>
       </c>
-      <c r="D27" s="108">
+      <c r="D27" s="92">
         <v>3.9600999999999997E-2</v>
       </c>
-      <c r="E27" s="108">
+      <c r="E27" s="92">
         <v>2.7681000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="105">
+      <c r="A28" s="89">
         <v>70</v>
       </c>
-      <c r="B28" s="108">
+      <c r="B28" s="92">
         <v>1.7451000000000001E-2</v>
       </c>
-      <c r="C28" s="108">
+      <c r="C28" s="92">
         <v>1.2706E-2</v>
       </c>
-      <c r="D28" s="108">
+      <c r="D28" s="92">
         <v>4.1986000000000002E-2</v>
       </c>
-      <c r="E28" s="108">
+      <c r="E28" s="92">
         <v>2.9672E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="105">
+      <c r="A29" s="89">
         <v>71</v>
       </c>
-      <c r="B29" s="108">
+      <c r="B29" s="92">
         <v>1.9195E-2</v>
       </c>
-      <c r="C29" s="108">
+      <c r="C29" s="92">
         <v>1.3983000000000001E-2</v>
       </c>
-      <c r="D29" s="108">
+      <c r="D29" s="92">
         <v>4.4581000000000003E-2</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="92">
         <v>3.1898999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="105">
+      <c r="A30" s="89">
         <v>72</v>
       </c>
-      <c r="B30" s="108">
+      <c r="B30" s="92">
         <v>2.1156000000000001E-2</v>
       </c>
-      <c r="C30" s="108">
+      <c r="C30" s="92">
         <v>1.5469E-2</v>
       </c>
-      <c r="D30" s="108">
+      <c r="D30" s="92">
         <v>4.7446000000000002E-2</v>
       </c>
-      <c r="E30" s="108">
+      <c r="E30" s="92">
         <v>3.4358E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="105">
+      <c r="A31" s="89">
         <v>73</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="92">
         <v>2.3337E-2</v>
       </c>
-      <c r="C31" s="108">
+      <c r="C31" s="92">
         <v>1.6990999999999999E-2</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="92">
         <v>5.0556999999999998E-2</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="92">
         <v>3.7082999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="105">
+      <c r="A32" s="89">
         <v>74</v>
       </c>
-      <c r="B32" s="108">
+      <c r="B32" s="92">
         <v>2.5766000000000001E-2</v>
       </c>
-      <c r="C32" s="108">
+      <c r="C32" s="92">
         <v>1.8807999999999998E-2</v>
       </c>
-      <c r="D32" s="108">
+      <c r="D32" s="92">
         <v>5.3940000000000002E-2</v>
       </c>
-      <c r="E32" s="108">
+      <c r="E32" s="92">
         <v>4.0087999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="105">
+      <c r="A33" s="89">
         <v>75</v>
       </c>
-      <c r="B33" s="108">
+      <c r="B33" s="92">
         <v>2.8482E-2</v>
       </c>
-      <c r="C33" s="108">
+      <c r="C33" s="92">
         <v>2.0775999999999999E-2</v>
       </c>
-      <c r="D33" s="108">
+      <c r="D33" s="92">
         <v>5.7639000000000003E-2</v>
       </c>
-      <c r="E33" s="108">
+      <c r="E33" s="92">
         <v>4.3392E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="105">
+      <c r="A34" s="89">
         <v>76</v>
       </c>
-      <c r="B34" s="108">
+      <c r="B34" s="92">
         <v>3.1517000000000003E-2</v>
       </c>
-      <c r="C34" s="108">
+      <c r="C34" s="92">
         <v>2.2922000000000001E-2</v>
       </c>
-      <c r="D34" s="108">
+      <c r="D34" s="92">
         <v>6.1669000000000002E-2</v>
       </c>
-      <c r="E34" s="108">
+      <c r="E34" s="92">
         <v>4.7003999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="105">
+      <c r="A35" s="89">
         <v>77</v>
       </c>
-      <c r="B35" s="108">
+      <c r="B35" s="92">
         <v>3.4923999999999997E-2</v>
       </c>
-      <c r="C35" s="108">
+      <c r="C35" s="92">
         <v>2.5277999999999998E-2</v>
       </c>
-      <c r="D35" s="108">
+      <c r="D35" s="92">
         <v>6.6087000000000007E-2</v>
       </c>
-      <c r="E35" s="108">
+      <c r="E35" s="92">
         <v>5.0992000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="105">
+      <c r="A36" s="89">
         <v>78</v>
       </c>
-      <c r="B36" s="108">
+      <c r="B36" s="92">
         <v>3.8740999999999998E-2</v>
       </c>
-      <c r="C36" s="108">
+      <c r="C36" s="92">
         <v>2.8080000000000001E-2</v>
       </c>
-      <c r="D36" s="108">
+      <c r="D36" s="92">
         <v>7.0909E-2</v>
       </c>
-      <c r="E36" s="108">
+      <c r="E36" s="92">
         <v>5.5336999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="105">
+      <c r="A37" s="89">
         <v>79</v>
       </c>
-      <c r="B37" s="108">
+      <c r="B37" s="92">
         <v>4.3032000000000001E-2</v>
       </c>
-      <c r="C37" s="108">
+      <c r="C37" s="92">
         <v>3.1167E-2</v>
       </c>
-      <c r="D37" s="108">
+      <c r="D37" s="92">
         <v>7.6191999999999996E-2</v>
       </c>
-      <c r="E37" s="108">
+      <c r="E37" s="92">
         <v>6.0074000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="105">
+      <c r="A38" s="89">
         <v>80</v>
       </c>
-      <c r="B38" s="108">
+      <c r="B38" s="92">
         <v>4.7877000000000003E-2</v>
       </c>
-      <c r="C38" s="108">
+      <c r="C38" s="92">
         <v>3.4653999999999997E-2</v>
       </c>
-      <c r="D38" s="108">
+      <c r="D38" s="92">
         <v>8.2020999999999997E-2</v>
       </c>
-      <c r="E38" s="108">
+      <c r="E38" s="92">
         <v>6.5215999999999996E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="105">
+      <c r="A39" s="89">
         <v>81</v>
       </c>
-      <c r="B39" s="108">
+      <c r="B39" s="92">
         <v>5.3323000000000002E-2</v>
       </c>
-      <c r="C39" s="108">
+      <c r="C39" s="92">
         <v>3.8705999999999997E-2</v>
       </c>
-      <c r="D39" s="108">
+      <c r="D39" s="92">
         <v>8.8413000000000005E-2</v>
       </c>
-      <c r="E39" s="108">
+      <c r="E39" s="92">
         <v>7.0822999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="106">
+      <c r="A40" s="90">
         <v>82</v>
       </c>
-      <c r="B40" s="109">
+      <c r="B40" s="93">
         <v>5.9471999999999997E-2</v>
       </c>
-      <c r="C40" s="109">
+      <c r="C40" s="93">
         <v>4.3188999999999998E-2</v>
       </c>
-      <c r="D40" s="109">
+      <c r="D40" s="93">
         <v>9.5469999999999999E-2</v>
       </c>
-      <c r="E40" s="109">
+      <c r="E40" s="93">
         <v>7.6855999999999994E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="104">
+      <c r="A41" s="88">
         <v>83</v>
       </c>
-      <c r="B41" s="107">
+      <c r="B41" s="91">
         <v>6.6387000000000002E-2</v>
       </c>
-      <c r="C41" s="107">
+      <c r="C41" s="91">
         <v>4.8592999999999997E-2</v>
       </c>
-      <c r="D41" s="107">
+      <c r="D41" s="91">
         <v>0.10323300000000001</v>
       </c>
-      <c r="E41" s="107">
+      <c r="E41" s="91">
         <v>8.3399000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="105">
+      <c r="A42" s="89">
         <v>84</v>
       </c>
-      <c r="B42" s="108">
+      <c r="B42" s="92">
         <v>7.4195999999999998E-2</v>
       </c>
-      <c r="C42" s="108">
+      <c r="C42" s="92">
         <v>5.4351999999999998E-2</v>
       </c>
-      <c r="D42" s="108">
+      <c r="D42" s="92">
         <v>0.111831</v>
       </c>
-      <c r="E42" s="108">
+      <c r="E42" s="92">
         <v>9.0454000000000007E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="105">
+      <c r="A43" s="89">
         <v>85</v>
       </c>
-      <c r="B43" s="108">
+      <c r="B43" s="92">
         <v>8.2932000000000006E-2</v>
       </c>
-      <c r="C43" s="108">
+      <c r="C43" s="92">
         <v>6.1115000000000003E-2</v>
       </c>
-      <c r="D43" s="108">
+      <c r="D43" s="92">
         <v>0.121249</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E43" s="92">
         <v>9.8012000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="105">
+      <c r="A44" s="89">
         <v>86</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="92">
         <v>9.2705999999999997E-2</v>
       </c>
-      <c r="C44" s="108">
+      <c r="C44" s="92">
         <v>6.8409999999999999E-2</v>
       </c>
-      <c r="D44" s="108">
+      <c r="D44" s="92">
         <v>0.13158900000000001</v>
       </c>
-      <c r="E44" s="108">
+      <c r="E44" s="92">
         <v>0.106125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="105">
+      <c r="A45" s="89">
         <v>87</v>
       </c>
-      <c r="B45" s="108">
+      <c r="B45" s="92">
         <v>0.103659</v>
       </c>
-      <c r="C45" s="108">
+      <c r="C45" s="92">
         <v>7.6642000000000002E-2</v>
       </c>
-      <c r="D45" s="108">
+      <c r="D45" s="92">
         <v>0.142982</v>
       </c>
-      <c r="E45" s="108">
+      <c r="E45" s="92">
         <v>0.114756</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="105">
+      <c r="A46" s="89">
         <v>88</v>
       </c>
-      <c r="B46" s="108">
+      <c r="B46" s="92">
         <v>0.115809</v>
       </c>
-      <c r="C46" s="108">
+      <c r="C46" s="92">
         <v>8.5860000000000006E-2</v>
       </c>
-      <c r="D46" s="108">
+      <c r="D46" s="92">
         <v>0.15538099999999999</v>
       </c>
-      <c r="E46" s="108">
+      <c r="E46" s="92">
         <v>0.123866</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="105">
+      <c r="A47" s="89">
         <v>89</v>
       </c>
-      <c r="B47" s="108">
+      <c r="B47" s="92">
         <v>0.12932099999999999</v>
       </c>
-      <c r="C47" s="108">
+      <c r="C47" s="92">
         <v>9.6109E-2</v>
       </c>
-      <c r="D47" s="108">
+      <c r="D47" s="92">
         <v>0.168932</v>
       </c>
-      <c r="E47" s="108">
+      <c r="E47" s="92">
         <v>0.133466</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="105">
+      <c r="A48" s="89">
         <v>90</v>
       </c>
-      <c r="B48" s="108">
+      <c r="B48" s="92">
         <v>0.14427200000000001</v>
       </c>
-      <c r="C48" s="108">
+      <c r="C48" s="92">
         <v>0.10763200000000001</v>
       </c>
-      <c r="D48" s="108">
+      <c r="D48" s="92">
         <v>0.18365200000000001</v>
       </c>
-      <c r="E48" s="108">
+      <c r="E48" s="92">
         <v>0.143701</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="105">
+      <c r="A49" s="89">
         <v>91</v>
       </c>
-      <c r="B49" s="108">
+      <c r="B49" s="92">
         <v>0.16012399999999999</v>
       </c>
-      <c r="C49" s="108">
+      <c r="C49" s="92">
         <v>0.119724</v>
       </c>
-      <c r="D49" s="108">
+      <c r="D49" s="92">
         <v>0.19836899999999999</v>
       </c>
-      <c r="E49" s="108">
+      <c r="E49" s="92">
         <v>0.15490599999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="105">
+      <c r="A50" s="89">
         <v>92</v>
       </c>
-      <c r="B50" s="108">
+      <c r="B50" s="92">
         <v>0.17643700000000001</v>
       </c>
-      <c r="C50" s="108">
+      <c r="C50" s="92">
         <v>0.13281799999999999</v>
       </c>
-      <c r="D50" s="108">
+      <c r="D50" s="92">
         <v>0.212982</v>
       </c>
-      <c r="E50" s="108">
+      <c r="E50" s="92">
         <v>0.16706399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="105">
+      <c r="A51" s="89">
         <v>93</v>
       </c>
-      <c r="B51" s="108">
+      <c r="B51" s="92">
         <v>0.19293099999999999</v>
       </c>
-      <c r="C51" s="108">
+      <c r="C51" s="92">
         <v>0.14646300000000001</v>
       </c>
-      <c r="D51" s="108">
+      <c r="D51" s="92">
         <v>0.22741600000000001</v>
       </c>
-      <c r="E51" s="108">
+      <c r="E51" s="92">
         <v>0.17996400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="105">
+      <c r="A52" s="89">
         <v>94</v>
       </c>
-      <c r="B52" s="108">
+      <c r="B52" s="92">
         <v>0.20955499999999999</v>
       </c>
-      <c r="C52" s="108">
+      <c r="C52" s="92">
         <v>0.16056000000000001</v>
       </c>
-      <c r="D52" s="108">
+      <c r="D52" s="92">
         <v>0.241727</v>
       </c>
-      <c r="E52" s="108">
+      <c r="E52" s="92">
         <v>0.19351199999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="105">
+      <c r="A53" s="89">
         <v>95</v>
       </c>
-      <c r="B53" s="108">
+      <c r="B53" s="92">
         <v>0.22620599999999999</v>
       </c>
-      <c r="C53" s="108">
+      <c r="C53" s="92">
         <v>0.175231</v>
       </c>
-      <c r="D53" s="108">
+      <c r="D53" s="92">
         <v>0.25581700000000002</v>
       </c>
-      <c r="E53" s="108">
+      <c r="E53" s="92">
         <v>0.20766100000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="105">
+      <c r="A54" s="89">
         <v>96</v>
       </c>
-      <c r="B54" s="108">
+      <c r="B54" s="92">
         <v>0.244336</v>
       </c>
-      <c r="C54" s="108">
+      <c r="C54" s="92">
         <v>0.19181400000000001</v>
       </c>
-      <c r="D54" s="108">
+      <c r="D54" s="92">
         <v>0.27127099999999998</v>
       </c>
-      <c r="E54" s="108">
+      <c r="E54" s="92">
         <v>0.223077</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="105">
+      <c r="A55" s="89">
         <v>97</v>
       </c>
-      <c r="B55" s="108">
+      <c r="B55" s="92">
         <v>0.262934</v>
       </c>
-      <c r="C55" s="108">
+      <c r="C55" s="92">
         <v>0.207561</v>
       </c>
-      <c r="D55" s="108">
+      <c r="D55" s="92">
         <v>0.28686800000000001</v>
       </c>
-      <c r="E55" s="108">
+      <c r="E55" s="92">
         <v>0.239119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="105">
+      <c r="A56" s="89">
         <v>98</v>
       </c>
-      <c r="B56" s="108">
+      <c r="B56" s="92">
         <v>0.28220299999999998</v>
       </c>
-      <c r="C56" s="108">
+      <c r="C56" s="92">
         <v>0.224075</v>
       </c>
-      <c r="D56" s="108">
+      <c r="D56" s="92">
         <v>0.30279499999999998</v>
       </c>
-      <c r="E56" s="108">
+      <c r="E56" s="92">
         <v>0.25581700000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="105">
+      <c r="A57" s="89">
         <v>99</v>
       </c>
-      <c r="B57" s="108">
+      <c r="B57" s="92">
         <v>0.30202600000000002</v>
       </c>
-      <c r="C57" s="108">
+      <c r="C57" s="92">
         <v>0.242783</v>
       </c>
-      <c r="D57" s="108">
+      <c r="D57" s="92">
         <v>0.31895600000000002</v>
       </c>
-      <c r="E57" s="108">
+      <c r="E57" s="92">
         <v>0.27298299999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="105">
+      <c r="A58" s="89">
         <v>100</v>
       </c>
-      <c r="B58" s="108">
+      <c r="B58" s="92">
         <v>0.32213599999999998</v>
       </c>
-      <c r="C58" s="108">
+      <c r="C58" s="92">
         <v>0.261237</v>
       </c>
-      <c r="D58" s="108">
+      <c r="D58" s="92">
         <v>0.33519399999999999</v>
       </c>
-      <c r="E58" s="108">
+      <c r="E58" s="92">
         <v>0.290601</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="105">
+      <c r="A59" s="89">
         <v>101</v>
       </c>
-      <c r="B59" s="108">
+      <c r="B59" s="92">
         <v>0.34241500000000002</v>
       </c>
-      <c r="C59" s="108">
+      <c r="C59" s="92">
         <v>0.28054000000000001</v>
       </c>
-      <c r="D59" s="108">
+      <c r="D59" s="92">
         <v>0.35164299999999998</v>
       </c>
-      <c r="E59" s="108">
+      <c r="E59" s="92">
         <v>0.30860300000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="105">
+      <c r="A60" s="89">
         <v>102</v>
       </c>
-      <c r="B60" s="108">
+      <c r="B60" s="92">
         <v>0.36243599999999998</v>
       </c>
-      <c r="C60" s="108">
+      <c r="C60" s="92">
         <v>0.29914499999999999</v>
       </c>
-      <c r="D60" s="108">
+      <c r="D60" s="92">
         <v>0.36827199999999999</v>
       </c>
-      <c r="E60" s="108">
+      <c r="E60" s="92">
         <v>0.326959</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="105">
+      <c r="A61" s="89">
         <v>103</v>
       </c>
-      <c r="B61" s="108">
+      <c r="B61" s="92">
         <v>0.38221899999999998</v>
       </c>
-      <c r="C61" s="108">
+      <c r="C61" s="92">
         <v>0.317332</v>
       </c>
-      <c r="D61" s="108">
+      <c r="D61" s="92">
         <v>0.38527899999999998</v>
       </c>
-      <c r="E61" s="108">
+      <c r="E61" s="92">
         <v>0.34557599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="105">
+      <c r="A62" s="89">
         <v>104</v>
       </c>
-      <c r="B62" s="108">
+      <c r="B62" s="92">
         <v>0.40142600000000001</v>
       </c>
-      <c r="C62" s="108">
+      <c r="C62" s="92">
         <v>0.33612599999999998</v>
       </c>
-      <c r="D62" s="108">
+      <c r="D62" s="92">
         <v>0.40248899999999999</v>
       </c>
-      <c r="E62" s="108">
+      <c r="E62" s="92">
         <v>0.36431799999999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="105">
+      <c r="A63" s="89">
         <v>105</v>
       </c>
-      <c r="B63" s="108">
+      <c r="B63" s="92">
         <v>0.41986499999999999</v>
       </c>
-      <c r="C63" s="108">
+      <c r="C63" s="92">
         <v>0.35540100000000002</v>
       </c>
-      <c r="D63" s="108">
+      <c r="D63" s="92">
         <v>0.41986499999999999</v>
       </c>
-      <c r="E63" s="108">
+      <c r="E63" s="92">
         <v>0.38322699999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="105">
+      <c r="A64" s="89">
         <v>106</v>
       </c>
-      <c r="B64" s="108">
+      <c r="B64" s="92">
         <v>0.437668</v>
       </c>
-      <c r="C64" s="108">
+      <c r="C64" s="92">
         <v>0.375944</v>
       </c>
-      <c r="D64" s="108">
+      <c r="D64" s="92">
         <v>0.437668</v>
       </c>
-      <c r="E64" s="108">
+      <c r="E64" s="92">
         <v>0.40228799999999998</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="105">
+      <c r="A65" s="89">
         <v>107</v>
       </c>
-      <c r="B65" s="108">
+      <c r="B65" s="92">
         <v>0.454347</v>
       </c>
-      <c r="C65" s="108">
+      <c r="C65" s="92">
         <v>0.388598</v>
       </c>
-      <c r="D65" s="108">
+      <c r="D65" s="92">
         <v>0.454347</v>
       </c>
-      <c r="E65" s="108">
+      <c r="E65" s="92">
         <v>0.42046099999999997</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="105">
+      <c r="A66" s="89">
         <v>108</v>
       </c>
-      <c r="B66" s="108">
+      <c r="B66" s="92">
         <v>0.47012799999999999</v>
       </c>
-      <c r="C66" s="108">
+      <c r="C66" s="92">
         <v>0.399982</v>
       </c>
-      <c r="D66" s="108">
+      <c r="D66" s="92">
         <v>0.47012799999999999</v>
       </c>
-      <c r="E66" s="108">
+      <c r="E66" s="92">
         <v>0.43795499999999998</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="105">
+      <c r="A67" s="89">
         <v>109</v>
       </c>
-      <c r="B67" s="108">
+      <c r="B67" s="92">
         <v>0.48492499999999999</v>
       </c>
-      <c r="C67" s="108">
+      <c r="C67" s="92">
         <v>0.43267099999999997</v>
       </c>
-      <c r="D67" s="108">
+      <c r="D67" s="92">
         <v>0.48492499999999999</v>
       </c>
-      <c r="E67" s="108">
+      <c r="E67" s="92">
         <v>0.45436900000000002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="105">
+      <c r="A68" s="89">
         <v>110</v>
       </c>
-      <c r="B68" s="108">
+      <c r="B68" s="92">
         <v>0.498558</v>
       </c>
-      <c r="C68" s="108">
+      <c r="C68" s="92">
         <v>0.46975299999999998</v>
       </c>
-      <c r="D68" s="108">
+      <c r="D68" s="92">
         <v>0.498558</v>
       </c>
-      <c r="E68" s="108">
+      <c r="E68" s="92">
         <v>0.46975299999999998</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="105">
+      <c r="A69" s="89">
         <v>111</v>
       </c>
-      <c r="B69" s="108">
+      <c r="B69" s="92">
         <v>0.50341899999999995</v>
       </c>
-      <c r="C69" s="108">
+      <c r="C69" s="92">
         <v>0.455181</v>
       </c>
-      <c r="D69" s="108">
+      <c r="D69" s="92">
         <v>0.50341899999999995</v>
       </c>
-      <c r="E69" s="108">
+      <c r="E69" s="92">
         <v>0.48410599999999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="105">
+      <c r="A70" s="89">
         <v>112</v>
       </c>
-      <c r="B70" s="108">
+      <c r="B70" s="92">
         <v>0.50251000000000001</v>
       </c>
-      <c r="C70" s="108">
+      <c r="C70" s="92">
         <v>0.49745499999999998</v>
       </c>
-      <c r="D70" s="108">
+      <c r="D70" s="92">
         <v>0.50251000000000001</v>
       </c>
-      <c r="E70" s="108">
+      <c r="E70" s="92">
         <v>0.49745499999999998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="105">
+      <c r="A71" s="89">
         <v>113</v>
       </c>
-      <c r="B71" s="108">
+      <c r="B71" s="92">
         <v>0.50175499999999995</v>
       </c>
-      <c r="C71" s="108">
+      <c r="C71" s="92">
         <v>0.50301399999999996</v>
       </c>
-      <c r="D71" s="108">
+      <c r="D71" s="92">
         <v>0.50175499999999995</v>
       </c>
-      <c r="E71" s="108">
+      <c r="E71" s="92">
         <v>0.50301399999999996</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="105">
+      <c r="A72" s="89">
         <v>114</v>
       </c>
-      <c r="B72" s="108">
+      <c r="B72" s="92">
         <v>0.50090199999999996</v>
       </c>
-      <c r="C72" s="108">
+      <c r="C72" s="92">
         <v>0.50140300000000004</v>
       </c>
-      <c r="D72" s="108">
+      <c r="D72" s="92">
         <v>0.50090199999999996</v>
       </c>
-      <c r="E72" s="108">
+      <c r="E72" s="92">
         <v>0.50140300000000004</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="106">
+      <c r="A73" s="90">
         <v>115</v>
       </c>
-      <c r="B73" s="109">
+      <c r="B73" s="93">
         <v>0.5</v>
       </c>
-      <c r="C73" s="109">
+      <c r="C73" s="93">
         <v>0.5</v>
       </c>
-      <c r="D73" s="109">
+      <c r="D73" s="93">
         <v>0.5</v>
       </c>
-      <c r="E73" s="109">
+      <c r="E73" s="93">
         <v>0.5</v>
       </c>
     </row>
@@ -9657,7 +9487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -9673,7 +9503,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9696,7 +9526,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9704,27 +9534,27 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>3.5000000000000003E-2</v>
@@ -9751,7 +9581,7 @@
         <v>5324062.2605363978</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J6">
         <v>2.9000000000000001E-2</v>
@@ -9774,7 +9604,7 @@
         <v>5558321</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J7" s="50">
         <v>0.02</v>
@@ -10280,24 +10110,25 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="83.42578125" customWidth="1"/>
-    <col min="3" max="3" width="101.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10305,12 +10136,98 @@
         <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71">
+        <f>3974+207425</f>
+        <v>211399</v>
+      </c>
+      <c r="C71" s="49">
+        <f>1000*(188002+11204863)/B71</f>
+        <v>53892.709993897792</v>
+      </c>
+      <c r="D71" s="110">
+        <f>(3974*51.2+207425*46.6)/B71</f>
+        <v>46.686473445948188</v>
+      </c>
+      <c r="E71" s="110">
+        <f>(3974*17.8+207425*13.3)/B71</f>
+        <v>13.384593588427572</v>
+      </c>
+      <c r="F71">
+        <f>(3004+151546)/(3004+151546+970+55879)</f>
+        <v>0.73108198241240496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72">
+        <v>41189</v>
+      </c>
+      <c r="C72" s="49">
+        <f>1000*1033264/B72</f>
+        <v>25085.920998324797</v>
+      </c>
+      <c r="D72">
+        <v>37.4</v>
+      </c>
+      <c r="E72">
+        <v>1.3</v>
+      </c>
+      <c r="F72">
+        <f>29058/(29058+12131)</f>
+        <v>0.70547961834470363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73">
+        <v>7280</v>
+      </c>
+      <c r="C73" s="49">
+        <f>1000*252084/B73</f>
+        <v>34626.923076923078</v>
+      </c>
+      <c r="D73">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E73">
+        <v>1.7</v>
+      </c>
+      <c r="F73">
+        <f>5115/(2165+5115)</f>
+        <v>0.70260989010989006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10335,7 +10252,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -10353,7 +10270,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10370,7 +10287,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -10394,7 +10311,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -10402,7 +10319,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -10411,16 +10328,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
-        <v>131</v>
+      <c r="A9" s="69" t="s">
+        <v>120</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -10450,7 +10367,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -10468,7 +10385,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10549,7 +10466,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,7 +10493,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -10599,18 +10516,18 @@
       <c r="A7" s="32">
         <v>19</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="70">
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>20</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="71">
         <v>0.10249999999999999</v>
       </c>
     </row>
@@ -10618,7 +10535,7 @@
       <c r="A9" s="33">
         <v>21</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="71">
         <v>0.10050000000000001</v>
       </c>
     </row>
@@ -10626,7 +10543,7 @@
       <c r="A10" s="33">
         <v>22</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="71">
         <v>9.849999999999999E-2</v>
       </c>
     </row>
@@ -10634,7 +10551,7 @@
       <c r="A11" s="33">
         <v>23</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
@@ -10642,7 +10559,7 @@
       <c r="A12" s="33">
         <v>24</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="71">
         <v>9.4499999999999987E-2</v>
       </c>
     </row>
@@ -10650,7 +10567,7 @@
       <c r="A13" s="33">
         <v>25</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <v>9.2499999999999999E-2</v>
       </c>
     </row>
@@ -10658,7 +10575,7 @@
       <c r="A14" s="33">
         <v>26</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="71">
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
@@ -10666,7 +10583,7 @@
       <c r="A15" s="33">
         <v>27</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <v>8.6500000000000007E-2</v>
       </c>
     </row>
@@ -10674,7 +10591,7 @@
       <c r="A16" s="33">
         <v>28</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="71">
         <v>8.3499999999999991E-2</v>
       </c>
     </row>
@@ -10682,7 +10599,7 @@
       <c r="A17" s="33">
         <v>29</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
@@ -10690,7 +10607,7 @@
       <c r="A18" s="33">
         <v>30</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="71">
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
@@ -10698,7 +10615,7 @@
       <c r="A19" s="33">
         <v>31</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
@@ -10706,7 +10623,7 @@
       <c r="A20" s="33">
         <v>32</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="71">
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
@@ -10714,7 +10631,7 @@
       <c r="A21" s="33">
         <v>33</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="71">
         <v>7.1500000000000008E-2</v>
       </c>
     </row>
@@ -10722,7 +10639,7 @@
       <c r="A22" s="33">
         <v>34</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="71">
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
@@ -10730,7 +10647,7 @@
       <c r="A23" s="33">
         <v>35</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="71">
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
@@ -10738,7 +10655,7 @@
       <c r="A24" s="33">
         <v>36</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="71">
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
@@ -10746,7 +10663,7 @@
       <c r="A25" s="33">
         <v>37</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="71">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -10754,7 +10671,7 @@
       <c r="A26" s="33">
         <v>38</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="71">
         <v>6.1500000000000006E-2</v>
       </c>
     </row>
@@ -10762,7 +10679,7 @@
       <c r="A27" s="33">
         <v>39</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="71">
         <v>5.9500000000000004E-2</v>
       </c>
     </row>
@@ -10770,7 +10687,7 @@
       <c r="A28" s="33">
         <v>40</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="71">
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
@@ -10778,7 +10695,7 @@
       <c r="A29" s="33">
         <v>41</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="71">
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
@@ -10786,7 +10703,7 @@
       <c r="A30" s="33">
         <v>42</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="71">
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
@@ -10794,7 +10711,7 @@
       <c r="A31" s="33">
         <v>43</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="71">
         <v>5.1500000000000004E-2</v>
       </c>
     </row>
@@ -10802,7 +10719,7 @@
       <c r="A32" s="33">
         <v>44</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="71">
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -10810,7 +10727,7 @@
       <c r="A33" s="33">
         <v>45</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="71">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
@@ -10818,7 +10735,7 @@
       <c r="A34" s="33">
         <v>46</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="72">
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
@@ -10826,7 +10743,7 @@
       <c r="A35" s="33">
         <v>47</v>
       </c>
-      <c r="B35" s="74">
+      <c r="B35" s="70">
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
@@ -10834,7 +10751,7 @@
       <c r="A36" s="33">
         <v>48</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="71">
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
@@ -10842,7 +10759,7 @@
       <c r="A37" s="33">
         <v>49</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="71">
         <v>3.95E-2</v>
       </c>
     </row>
@@ -10850,7 +10767,7 @@
       <c r="A38" s="33">
         <v>50</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="71">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -10858,7 +10775,7 @@
       <c r="A39" s="33">
         <v>51</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="71">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
@@ -10866,7 +10783,7 @@
       <c r="A40" s="33">
         <v>52</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="71">
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
@@ -10874,7 +10791,7 @@
       <c r="A41" s="33">
         <v>53</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="71">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -10882,7 +10799,7 @@
       <c r="A42" s="33">
         <v>54</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="71">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
@@ -10890,7 +10807,7 @@
       <c r="A43" s="33">
         <v>55</v>
       </c>
-      <c r="B43" s="75">
+      <c r="B43" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10898,7 +10815,7 @@
       <c r="A44" s="33">
         <v>56</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10906,7 +10823,7 @@
       <c r="A45" s="33">
         <v>57</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10914,7 +10831,7 @@
       <c r="A46" s="33">
         <v>58</v>
       </c>
-      <c r="B46" s="75">
+      <c r="B46" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10922,7 +10839,7 @@
       <c r="A47" s="33">
         <v>59</v>
       </c>
-      <c r="B47" s="75">
+      <c r="B47" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10930,7 +10847,7 @@
       <c r="A48" s="33">
         <v>60</v>
       </c>
-      <c r="B48" s="75">
+      <c r="B48" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10938,7 +10855,7 @@
       <c r="A49" s="33">
         <v>61</v>
       </c>
-      <c r="B49" s="75">
+      <c r="B49" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10946,7 +10863,7 @@
       <c r="A50" s="33">
         <v>62</v>
       </c>
-      <c r="B50" s="75">
+      <c r="B50" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10954,7 +10871,7 @@
       <c r="A51" s="33">
         <v>63</v>
       </c>
-      <c r="B51" s="75">
+      <c r="B51" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10962,7 +10879,7 @@
       <c r="A52" s="33">
         <v>64</v>
       </c>
-      <c r="B52" s="75">
+      <c r="B52" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10970,7 +10887,7 @@
       <c r="A53" s="33">
         <v>65</v>
       </c>
-      <c r="B53" s="75">
+      <c r="B53" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10978,7 +10895,7 @@
       <c r="A54" s="33">
         <v>66</v>
       </c>
-      <c r="B54" s="75">
+      <c r="B54" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10986,7 +10903,7 @@
       <c r="A55" s="33">
         <v>67</v>
       </c>
-      <c r="B55" s="75">
+      <c r="B55" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10994,7 +10911,7 @@
       <c r="A56" s="33">
         <v>68</v>
       </c>
-      <c r="B56" s="75">
+      <c r="B56" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11002,7 +10919,7 @@
       <c r="A57" s="33">
         <v>69</v>
       </c>
-      <c r="B57" s="75">
+      <c r="B57" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11010,7 +10927,7 @@
       <c r="A58" s="33">
         <v>70</v>
       </c>
-      <c r="B58" s="75">
+      <c r="B58" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11018,7 +10935,7 @@
       <c r="A59" s="33">
         <v>71</v>
       </c>
-      <c r="B59" s="75">
+      <c r="B59" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11026,7 +10943,7 @@
       <c r="A60" s="33">
         <v>72</v>
       </c>
-      <c r="B60" s="75">
+      <c r="B60" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11034,7 +10951,7 @@
       <c r="A61" s="33">
         <v>73</v>
       </c>
-      <c r="B61" s="75">
+      <c r="B61" s="71">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -11061,11 +10978,11 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="57" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="63" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="66" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -11088,16 +11005,16 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11105,28 +11022,28 @@
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11134,28 +11051,28 @@
         <v>58</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="208">
   <si>
     <t>Notes</t>
   </si>
@@ -1385,15 +1385,6 @@
     <t>C16</t>
   </si>
   <si>
-    <t>t_CD</t>
-  </si>
-  <si>
-    <t>t_E</t>
-  </si>
-  <si>
-    <t>t_F</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -1422,6 +1413,18 @@
   </si>
   <si>
     <t>K9</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>tCD</t>
+  </si>
+  <si>
+    <t>tE</t>
+  </si>
+  <si>
+    <t>tF</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1436,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1844,9 +1847,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1940,6 +1940,16 @@
     <xf numFmtId="167" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1957,9 +1967,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1985,10 +1992,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3968,7 +3971,7 @@
       <c r="B7">
         <v>2015</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -3976,7 +3979,7 @@
       <c r="B8">
         <v>2016</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -3984,7 +3987,7 @@
       <c r="B9">
         <v>2017</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -3992,7 +3995,7 @@
       <c r="B10">
         <v>2018</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -4000,7 +4003,7 @@
       <c r="B11">
         <v>2019</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -4008,7 +4011,7 @@
       <c r="B12">
         <v>2020</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -4016,7 +4019,7 @@
       <c r="B13">
         <v>2021</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -4024,7 +4027,7 @@
       <c r="B14">
         <v>2022</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -4032,7 +4035,7 @@
       <c r="B15">
         <v>2023</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="94">
         <v>-565540000</v>
       </c>
       <c r="D15" s="39"/>
@@ -4041,7 +4044,7 @@
       <c r="B16">
         <v>2024</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="94">
         <v>-565540000</v>
       </c>
     </row>
@@ -4080,7 +4083,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,14 +4101,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="96"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
@@ -4126,19 +4129,19 @@
       <c r="A5" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="98"/>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -4147,24 +4150,24 @@
       <c r="C6" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="99"/>
+      <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="59" t="s">
@@ -4173,10 +4176,10 @@
       <c r="C8" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="100"/>
+      <c r="E8" s="96"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -4333,1023 +4336,1023 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="73" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="75" t="s">
         <v>174</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="76">
         <v>19</v>
       </c>
-      <c r="B8" s="80">
-        <v>0</v>
-      </c>
-      <c r="C8" s="80">
-        <v>0</v>
-      </c>
-      <c r="D8" s="80">
-        <v>0</v>
-      </c>
-      <c r="E8" s="80">
+      <c r="B8" s="79">
+        <v>0</v>
+      </c>
+      <c r="C8" s="79">
+        <v>0</v>
+      </c>
+      <c r="D8" s="79">
+        <v>0</v>
+      </c>
+      <c r="E8" s="79">
         <v>0</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="77">
         <v>20</v>
       </c>
-      <c r="B9" s="81">
-        <v>0</v>
-      </c>
-      <c r="C9" s="81">
-        <v>0</v>
-      </c>
-      <c r="D9" s="81">
-        <v>0</v>
-      </c>
-      <c r="E9" s="81">
+      <c r="B9" s="80">
+        <v>0</v>
+      </c>
+      <c r="C9" s="80">
+        <v>0</v>
+      </c>
+      <c r="D9" s="80">
+        <v>0</v>
+      </c>
+      <c r="E9" s="80">
         <v>0</v>
       </c>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>21</v>
       </c>
-      <c r="B10" s="81">
-        <v>0</v>
-      </c>
-      <c r="C10" s="81">
-        <v>0</v>
-      </c>
-      <c r="D10" s="81">
-        <v>0</v>
-      </c>
-      <c r="E10" s="81">
+      <c r="B10" s="80">
+        <v>0</v>
+      </c>
+      <c r="C10" s="80">
+        <v>0</v>
+      </c>
+      <c r="D10" s="80">
+        <v>0</v>
+      </c>
+      <c r="E10" s="80">
         <v>0</v>
       </c>
       <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="77">
         <v>22</v>
       </c>
-      <c r="B11" s="81">
-        <v>0</v>
-      </c>
-      <c r="C11" s="81">
-        <v>0</v>
-      </c>
-      <c r="D11" s="81">
-        <v>0</v>
-      </c>
-      <c r="E11" s="81">
+      <c r="B11" s="80">
+        <v>0</v>
+      </c>
+      <c r="C11" s="80">
+        <v>0</v>
+      </c>
+      <c r="D11" s="80">
+        <v>0</v>
+      </c>
+      <c r="E11" s="80">
         <v>0</v>
       </c>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>23</v>
       </c>
-      <c r="B12" s="81">
-        <v>0</v>
-      </c>
-      <c r="C12" s="81">
-        <v>0</v>
-      </c>
-      <c r="D12" s="81">
-        <v>0</v>
-      </c>
-      <c r="E12" s="81">
+      <c r="B12" s="80">
+        <v>0</v>
+      </c>
+      <c r="C12" s="80">
+        <v>0</v>
+      </c>
+      <c r="D12" s="80">
+        <v>0</v>
+      </c>
+      <c r="E12" s="80">
         <v>0</v>
       </c>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="77">
         <v>24</v>
       </c>
-      <c r="B13" s="81">
-        <v>0</v>
-      </c>
-      <c r="C13" s="81">
-        <v>0</v>
-      </c>
-      <c r="D13" s="81">
-        <v>0</v>
-      </c>
-      <c r="E13" s="81">
+      <c r="B13" s="80">
+        <v>0</v>
+      </c>
+      <c r="C13" s="80">
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0</v>
+      </c>
+      <c r="E13" s="80">
         <v>0</v>
       </c>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>25</v>
       </c>
-      <c r="B14" s="81">
-        <v>0</v>
-      </c>
-      <c r="C14" s="81">
-        <v>0</v>
-      </c>
-      <c r="D14" s="81">
-        <v>0</v>
-      </c>
-      <c r="E14" s="81">
+      <c r="B14" s="80">
+        <v>0</v>
+      </c>
+      <c r="C14" s="80">
+        <v>0</v>
+      </c>
+      <c r="D14" s="80">
+        <v>0</v>
+      </c>
+      <c r="E14" s="80">
         <v>0</v>
       </c>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="77">
         <v>26</v>
       </c>
-      <c r="B15" s="81">
-        <v>0</v>
-      </c>
-      <c r="C15" s="81">
-        <v>0</v>
-      </c>
-      <c r="D15" s="81">
-        <v>0</v>
-      </c>
-      <c r="E15" s="81">
+      <c r="B15" s="80">
+        <v>0</v>
+      </c>
+      <c r="C15" s="80">
+        <v>0</v>
+      </c>
+      <c r="D15" s="80">
+        <v>0</v>
+      </c>
+      <c r="E15" s="80">
         <v>0</v>
       </c>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="77">
         <v>27</v>
       </c>
-      <c r="B16" s="81">
-        <v>0</v>
-      </c>
-      <c r="C16" s="81">
-        <v>0</v>
-      </c>
-      <c r="D16" s="81">
-        <v>0</v>
-      </c>
-      <c r="E16" s="81">
+      <c r="B16" s="80">
+        <v>0</v>
+      </c>
+      <c r="C16" s="80">
+        <v>0</v>
+      </c>
+      <c r="D16" s="80">
+        <v>0</v>
+      </c>
+      <c r="E16" s="80">
         <v>0</v>
       </c>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="77">
         <v>28</v>
       </c>
-      <c r="B17" s="81">
-        <v>0</v>
-      </c>
-      <c r="C17" s="81">
-        <v>0</v>
-      </c>
-      <c r="D17" s="81">
-        <v>0</v>
-      </c>
-      <c r="E17" s="81">
+      <c r="B17" s="80">
+        <v>0</v>
+      </c>
+      <c r="C17" s="80">
+        <v>0</v>
+      </c>
+      <c r="D17" s="80">
+        <v>0</v>
+      </c>
+      <c r="E17" s="80">
         <v>0</v>
       </c>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="77">
         <v>29</v>
       </c>
-      <c r="B18" s="81">
-        <v>0</v>
-      </c>
-      <c r="C18" s="81">
-        <v>0</v>
-      </c>
-      <c r="D18" s="81">
-        <v>0</v>
-      </c>
-      <c r="E18" s="81">
+      <c r="B18" s="80">
+        <v>0</v>
+      </c>
+      <c r="C18" s="80">
+        <v>0</v>
+      </c>
+      <c r="D18" s="80">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
         <v>0</v>
       </c>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="77">
         <v>30</v>
       </c>
-      <c r="B19" s="81">
-        <v>0</v>
-      </c>
-      <c r="C19" s="81">
-        <v>0</v>
-      </c>
-      <c r="D19" s="81">
-        <v>0</v>
-      </c>
-      <c r="E19" s="81">
+      <c r="B19" s="80">
+        <v>0</v>
+      </c>
+      <c r="C19" s="80">
+        <v>0</v>
+      </c>
+      <c r="D19" s="80">
+        <v>0</v>
+      </c>
+      <c r="E19" s="80">
         <v>0</v>
       </c>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="77">
         <v>31</v>
       </c>
-      <c r="B20" s="81">
-        <v>0</v>
-      </c>
-      <c r="C20" s="81">
-        <v>0</v>
-      </c>
-      <c r="D20" s="81">
-        <v>0</v>
-      </c>
-      <c r="E20" s="81">
+      <c r="B20" s="80">
+        <v>0</v>
+      </c>
+      <c r="C20" s="80">
+        <v>0</v>
+      </c>
+      <c r="D20" s="80">
+        <v>0</v>
+      </c>
+      <c r="E20" s="80">
         <v>0</v>
       </c>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="77">
         <v>32</v>
       </c>
-      <c r="B21" s="81">
-        <v>0</v>
-      </c>
-      <c r="C21" s="81">
-        <v>0</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0</v>
-      </c>
-      <c r="E21" s="81">
+      <c r="B21" s="80">
+        <v>0</v>
+      </c>
+      <c r="C21" s="80">
+        <v>0</v>
+      </c>
+      <c r="D21" s="80">
+        <v>0</v>
+      </c>
+      <c r="E21" s="80">
         <v>0</v>
       </c>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="77">
         <v>33</v>
       </c>
-      <c r="B22" s="81">
-        <v>0</v>
-      </c>
-      <c r="C22" s="81">
-        <v>0</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0</v>
-      </c>
-      <c r="E22" s="81">
+      <c r="B22" s="80">
+        <v>0</v>
+      </c>
+      <c r="C22" s="80">
+        <v>0</v>
+      </c>
+      <c r="D22" s="80">
+        <v>0</v>
+      </c>
+      <c r="E22" s="80">
         <v>0</v>
       </c>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="77">
         <v>34</v>
       </c>
-      <c r="B23" s="81">
-        <v>0</v>
-      </c>
-      <c r="C23" s="81">
-        <v>0</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0</v>
-      </c>
-      <c r="E23" s="81">
+      <c r="B23" s="80">
+        <v>0</v>
+      </c>
+      <c r="C23" s="80">
+        <v>0</v>
+      </c>
+      <c r="D23" s="80">
+        <v>0</v>
+      </c>
+      <c r="E23" s="80">
         <v>0</v>
       </c>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="78">
+      <c r="A24" s="77">
         <v>35</v>
       </c>
-      <c r="B24" s="81">
-        <v>0</v>
-      </c>
-      <c r="C24" s="81">
-        <v>0</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0</v>
-      </c>
-      <c r="E24" s="81">
+      <c r="B24" s="80">
+        <v>0</v>
+      </c>
+      <c r="C24" s="80">
+        <v>0</v>
+      </c>
+      <c r="D24" s="80">
+        <v>0</v>
+      </c>
+      <c r="E24" s="80">
         <v>0</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="78">
+      <c r="A25" s="77">
         <v>36</v>
       </c>
-      <c r="B25" s="81">
-        <v>0</v>
-      </c>
-      <c r="C25" s="81">
-        <v>0</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0</v>
-      </c>
-      <c r="E25" s="81">
+      <c r="B25" s="80">
+        <v>0</v>
+      </c>
+      <c r="C25" s="80">
+        <v>0</v>
+      </c>
+      <c r="D25" s="80">
+        <v>0</v>
+      </c>
+      <c r="E25" s="80">
         <v>0</v>
       </c>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
+      <c r="A26" s="77">
         <v>37</v>
       </c>
-      <c r="B26" s="81">
-        <v>0</v>
-      </c>
-      <c r="C26" s="81">
-        <v>0</v>
-      </c>
-      <c r="D26" s="81">
-        <v>0</v>
-      </c>
-      <c r="E26" s="81">
+      <c r="B26" s="80">
+        <v>0</v>
+      </c>
+      <c r="C26" s="80">
+        <v>0</v>
+      </c>
+      <c r="D26" s="80">
+        <v>0</v>
+      </c>
+      <c r="E26" s="80">
         <v>0</v>
       </c>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="77">
         <v>38</v>
       </c>
-      <c r="B27" s="81">
-        <v>0</v>
-      </c>
-      <c r="C27" s="81">
-        <v>0</v>
-      </c>
-      <c r="D27" s="81">
-        <v>0</v>
-      </c>
-      <c r="E27" s="81">
+      <c r="B27" s="80">
+        <v>0</v>
+      </c>
+      <c r="C27" s="80">
+        <v>0</v>
+      </c>
+      <c r="D27" s="80">
+        <v>0</v>
+      </c>
+      <c r="E27" s="80">
         <v>0</v>
       </c>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="78">
+      <c r="A28" s="77">
         <v>39</v>
       </c>
-      <c r="B28" s="81">
-        <v>0</v>
-      </c>
-      <c r="C28" s="81">
-        <v>0</v>
-      </c>
-      <c r="D28" s="81">
-        <v>0</v>
-      </c>
-      <c r="E28" s="81">
+      <c r="B28" s="80">
+        <v>0</v>
+      </c>
+      <c r="C28" s="80">
+        <v>0</v>
+      </c>
+      <c r="D28" s="80">
+        <v>0</v>
+      </c>
+      <c r="E28" s="80">
         <v>0</v>
       </c>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="78">
+      <c r="A29" s="77">
         <v>40</v>
       </c>
-      <c r="B29" s="81">
-        <v>0</v>
-      </c>
-      <c r="C29" s="81">
-        <v>0</v>
-      </c>
-      <c r="D29" s="81">
-        <v>0</v>
-      </c>
-      <c r="E29" s="81">
+      <c r="B29" s="80">
+        <v>0</v>
+      </c>
+      <c r="C29" s="80">
+        <v>0</v>
+      </c>
+      <c r="D29" s="80">
+        <v>0</v>
+      </c>
+      <c r="E29" s="80">
         <v>0</v>
       </c>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="78">
+      <c r="A30" s="77">
         <v>41</v>
       </c>
-      <c r="B30" s="81">
-        <v>0</v>
-      </c>
-      <c r="C30" s="81">
-        <v>0</v>
-      </c>
-      <c r="D30" s="81">
-        <v>0</v>
-      </c>
-      <c r="E30" s="81">
+      <c r="B30" s="80">
+        <v>0</v>
+      </c>
+      <c r="C30" s="80">
+        <v>0</v>
+      </c>
+      <c r="D30" s="80">
+        <v>0</v>
+      </c>
+      <c r="E30" s="80">
         <v>0</v>
       </c>
       <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="77">
         <v>42</v>
       </c>
-      <c r="B31" s="81">
-        <v>0</v>
-      </c>
-      <c r="C31" s="81">
-        <v>0</v>
-      </c>
-      <c r="D31" s="81">
-        <v>0</v>
-      </c>
-      <c r="E31" s="81">
+      <c r="B31" s="80">
+        <v>0</v>
+      </c>
+      <c r="C31" s="80">
+        <v>0</v>
+      </c>
+      <c r="D31" s="80">
+        <v>0</v>
+      </c>
+      <c r="E31" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="78">
+      <c r="A32" s="77">
         <v>43</v>
       </c>
-      <c r="B32" s="81">
-        <v>0</v>
-      </c>
-      <c r="C32" s="81">
-        <v>0</v>
-      </c>
-      <c r="D32" s="81">
-        <v>0</v>
-      </c>
-      <c r="E32" s="81">
+      <c r="B32" s="80">
+        <v>0</v>
+      </c>
+      <c r="C32" s="80">
+        <v>0</v>
+      </c>
+      <c r="D32" s="80">
+        <v>0</v>
+      </c>
+      <c r="E32" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="78">
+      <c r="A33" s="77">
         <v>44</v>
       </c>
-      <c r="B33" s="81">
-        <v>0</v>
-      </c>
-      <c r="C33" s="81">
-        <v>0</v>
-      </c>
-      <c r="D33" s="81">
-        <v>0</v>
-      </c>
-      <c r="E33" s="81">
+      <c r="B33" s="80">
+        <v>0</v>
+      </c>
+      <c r="C33" s="80">
+        <v>0</v>
+      </c>
+      <c r="D33" s="80">
+        <v>0</v>
+      </c>
+      <c r="E33" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="78">
+      <c r="A34" s="77">
         <v>45</v>
       </c>
-      <c r="B34" s="81">
-        <v>0</v>
-      </c>
-      <c r="C34" s="81">
-        <v>0</v>
-      </c>
-      <c r="D34" s="81">
+      <c r="B34" s="80">
+        <v>0</v>
+      </c>
+      <c r="C34" s="80">
+        <v>0</v>
+      </c>
+      <c r="D34" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E34" s="81">
+      <c r="E34" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="77">
         <v>46</v>
       </c>
-      <c r="B35" s="81">
-        <v>0</v>
-      </c>
-      <c r="C35" s="81">
-        <v>0</v>
-      </c>
-      <c r="D35" s="81">
+      <c r="B35" s="80">
+        <v>0</v>
+      </c>
+      <c r="C35" s="80">
+        <v>0</v>
+      </c>
+      <c r="D35" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E35" s="81">
+      <c r="E35" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="78">
+      <c r="A36" s="77">
         <v>47</v>
       </c>
-      <c r="B36" s="81">
-        <v>0</v>
-      </c>
-      <c r="C36" s="81">
-        <v>0</v>
-      </c>
-      <c r="D36" s="81">
+      <c r="B36" s="80">
+        <v>0</v>
+      </c>
+      <c r="C36" s="80">
+        <v>0</v>
+      </c>
+      <c r="D36" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="78">
+      <c r="A37" s="77">
         <v>48</v>
       </c>
-      <c r="B37" s="81">
-        <v>0</v>
-      </c>
-      <c r="C37" s="81">
-        <v>0</v>
-      </c>
-      <c r="D37" s="81">
+      <c r="B37" s="80">
+        <v>0</v>
+      </c>
+      <c r="C37" s="80">
+        <v>0</v>
+      </c>
+      <c r="D37" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E37" s="81">
+      <c r="E37" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="78">
+      <c r="A38" s="77">
         <v>49</v>
       </c>
-      <c r="B38" s="81">
-        <v>0</v>
-      </c>
-      <c r="C38" s="81">
-        <v>0</v>
-      </c>
-      <c r="D38" s="81">
+      <c r="B38" s="80">
+        <v>0</v>
+      </c>
+      <c r="C38" s="80">
+        <v>0</v>
+      </c>
+      <c r="D38" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="77">
         <v>50</v>
       </c>
-      <c r="B39" s="81">
-        <v>0</v>
-      </c>
-      <c r="C39" s="81">
-        <v>0</v>
-      </c>
-      <c r="D39" s="81">
+      <c r="B39" s="80">
+        <v>0</v>
+      </c>
+      <c r="C39" s="80">
+        <v>0</v>
+      </c>
+      <c r="D39" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="77">
         <v>51</v>
       </c>
-      <c r="B40" s="81">
-        <v>0</v>
-      </c>
-      <c r="C40" s="81">
-        <v>0</v>
-      </c>
-      <c r="D40" s="81">
+      <c r="B40" s="80">
+        <v>0</v>
+      </c>
+      <c r="C40" s="80">
+        <v>0</v>
+      </c>
+      <c r="D40" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E40" s="81">
+      <c r="E40" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="78">
+      <c r="A41" s="77">
         <v>52</v>
       </c>
-      <c r="B41" s="81">
-        <v>0</v>
-      </c>
-      <c r="C41" s="81">
-        <v>0</v>
-      </c>
-      <c r="D41" s="81">
+      <c r="B41" s="80">
+        <v>0</v>
+      </c>
+      <c r="C41" s="80">
+        <v>0</v>
+      </c>
+      <c r="D41" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="78">
+      <c r="A42" s="77">
         <v>53</v>
       </c>
-      <c r="B42" s="81">
-        <v>0</v>
-      </c>
-      <c r="C42" s="81">
-        <v>0</v>
-      </c>
-      <c r="D42" s="81">
+      <c r="B42" s="80">
+        <v>0</v>
+      </c>
+      <c r="C42" s="80">
+        <v>0</v>
+      </c>
+      <c r="D42" s="80">
         <v>0.19159999999999999</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="80">
         <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="77">
         <v>54</v>
       </c>
-      <c r="B43" s="81">
-        <v>0</v>
-      </c>
-      <c r="C43" s="81">
-        <v>0</v>
-      </c>
-      <c r="D43" s="81">
+      <c r="B43" s="80">
+        <v>0</v>
+      </c>
+      <c r="C43" s="80">
+        <v>0</v>
+      </c>
+      <c r="D43" s="80">
         <v>0.26590000000000003</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="80">
         <v>0.1002</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="77">
         <v>55</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="80">
         <v>0.1857</v>
       </c>
-      <c r="C44" s="81">
+      <c r="C44" s="80">
         <v>0.18590000000000001</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="80">
         <v>0.26590000000000003</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="80">
         <v>0.1002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="78">
+      <c r="A45" s="77">
         <v>56</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="80">
         <v>0.1724</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="80">
         <v>0.16819999999999999</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="80">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="80">
         <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="78">
+      <c r="A46" s="77">
         <v>57</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="80">
         <v>0.17030000000000001</v>
       </c>
-      <c r="C46" s="81">
+      <c r="C46" s="80">
         <v>0.17030000000000001</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="80">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="80">
         <v>0.30049999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="77">
         <v>58</v>
       </c>
-      <c r="B47" s="81">
+      <c r="B47" s="80">
         <v>0.17280000000000001</v>
       </c>
-      <c r="C47" s="81">
+      <c r="C47" s="80">
         <v>0.17380000000000001</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="80">
         <v>0.31909999999999999</v>
       </c>
-      <c r="E47" s="81">
+      <c r="E47" s="80">
         <v>0.35049999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="78">
+      <c r="A48" s="77">
         <v>59</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="80">
         <v>0.21679999999999999</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C48" s="80">
         <v>0.21360000000000001</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="80">
         <v>0.30869999999999997</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="80">
         <v>0.35770000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="78">
+      <c r="A49" s="77">
         <v>60</v>
       </c>
-      <c r="B49" s="81">
+      <c r="B49" s="80">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C49" s="81">
+      <c r="C49" s="80">
         <v>0.17050000000000001</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="80">
         <v>0.30869999999999997</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E49" s="80">
         <v>0.35770000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="78">
+      <c r="A50" s="77">
         <v>61</v>
       </c>
-      <c r="B50" s="81">
+      <c r="B50" s="80">
         <v>0.28610000000000002</v>
       </c>
-      <c r="C50" s="81">
+      <c r="C50" s="80">
         <v>0.2999</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="80">
         <v>0.28810000000000002</v>
       </c>
-      <c r="E50" s="81">
+      <c r="E50" s="80">
         <v>0.30659999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="77">
         <v>62</v>
       </c>
-      <c r="B51" s="81">
-        <v>0</v>
-      </c>
-      <c r="C51" s="81">
-        <v>0</v>
-      </c>
-      <c r="D51" s="81">
+      <c r="B51" s="80">
+        <v>0</v>
+      </c>
+      <c r="C51" s="80">
+        <v>0</v>
+      </c>
+      <c r="D51" s="80">
         <v>0.51449999999999996</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="80">
         <v>0.61319999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="78">
+      <c r="A52" s="77">
         <v>63</v>
       </c>
-      <c r="B52" s="81">
-        <v>0</v>
-      </c>
-      <c r="C52" s="81">
-        <v>0</v>
-      </c>
-      <c r="D52" s="81">
+      <c r="B52" s="80">
+        <v>0</v>
+      </c>
+      <c r="C52" s="80">
+        <v>0</v>
+      </c>
+      <c r="D52" s="80">
         <v>0.25729999999999997</v>
       </c>
-      <c r="E52" s="81">
+      <c r="E52" s="80">
         <v>0.2555</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="78">
+      <c r="A53" s="77">
         <v>64</v>
       </c>
-      <c r="B53" s="81">
-        <v>0</v>
-      </c>
-      <c r="C53" s="81">
-        <v>0</v>
-      </c>
-      <c r="D53" s="81">
+      <c r="B53" s="80">
+        <v>0</v>
+      </c>
+      <c r="C53" s="80">
+        <v>0</v>
+      </c>
+      <c r="D53" s="80">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="80">
         <v>0.2223</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="78">
+      <c r="A54" s="77">
         <v>65</v>
       </c>
-      <c r="B54" s="81">
-        <v>0</v>
-      </c>
-      <c r="C54" s="81">
-        <v>0</v>
-      </c>
-      <c r="D54" s="81">
+      <c r="B54" s="80">
+        <v>0</v>
+      </c>
+      <c r="C54" s="80">
+        <v>0</v>
+      </c>
+      <c r="D54" s="80">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="80">
         <v>0.2223</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="77">
         <v>66</v>
       </c>
-      <c r="B55" s="81">
-        <v>0</v>
-      </c>
-      <c r="C55" s="81">
-        <v>0</v>
-      </c>
-      <c r="D55" s="81">
+      <c r="B55" s="80">
+        <v>0</v>
+      </c>
+      <c r="C55" s="80">
+        <v>0</v>
+      </c>
+      <c r="D55" s="80">
         <v>0.21390000000000001</v>
       </c>
-      <c r="E55" s="81">
+      <c r="E55" s="80">
         <v>0.27789999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="78">
+      <c r="A56" s="77">
         <v>67</v>
       </c>
-      <c r="B56" s="81">
-        <v>0</v>
-      </c>
-      <c r="C56" s="81">
-        <v>0</v>
-      </c>
-      <c r="D56" s="81">
+      <c r="B56" s="80">
+        <v>0</v>
+      </c>
+      <c r="C56" s="80">
+        <v>0</v>
+      </c>
+      <c r="D56" s="80">
         <v>0.1925</v>
       </c>
-      <c r="E56" s="81">
+      <c r="E56" s="80">
         <v>0.2223</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="78">
+      <c r="A57" s="77">
         <v>68</v>
       </c>
-      <c r="B57" s="81">
-        <v>0</v>
-      </c>
-      <c r="C57" s="81">
-        <v>0</v>
-      </c>
-      <c r="D57" s="81">
+      <c r="B57" s="80">
+        <v>0</v>
+      </c>
+      <c r="C57" s="80">
+        <v>0</v>
+      </c>
+      <c r="D57" s="80">
         <v>0.1925</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="80">
         <v>0.2223</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="78">
+      <c r="A58" s="77">
         <v>69</v>
       </c>
-      <c r="B58" s="81">
-        <v>0</v>
-      </c>
-      <c r="C58" s="81">
-        <v>0</v>
-      </c>
-      <c r="D58" s="81">
+      <c r="B58" s="80">
+        <v>0</v>
+      </c>
+      <c r="C58" s="80">
+        <v>0</v>
+      </c>
+      <c r="D58" s="80">
         <v>0.19339999999999999</v>
       </c>
-      <c r="E58" s="81">
+      <c r="E58" s="80">
         <v>0.22789999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="77">
         <v>70</v>
       </c>
-      <c r="B59" s="81">
-        <v>0</v>
-      </c>
-      <c r="C59" s="81">
-        <v>0</v>
-      </c>
-      <c r="D59" s="81">
+      <c r="B59" s="80">
+        <v>0</v>
+      </c>
+      <c r="C59" s="80">
+        <v>0</v>
+      </c>
+      <c r="D59" s="80">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E59" s="81">
+      <c r="E59" s="80">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="78">
+      <c r="A60" s="77">
         <v>71</v>
       </c>
-      <c r="B60" s="81">
-        <v>0</v>
-      </c>
-      <c r="C60" s="81">
-        <v>0</v>
-      </c>
-      <c r="D60" s="81">
+      <c r="B60" s="80">
+        <v>0</v>
+      </c>
+      <c r="C60" s="80">
+        <v>0</v>
+      </c>
+      <c r="D60" s="80">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E60" s="81">
+      <c r="E60" s="80">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="78">
+      <c r="A61" s="77">
         <v>72</v>
       </c>
-      <c r="B61" s="81">
-        <v>0</v>
-      </c>
-      <c r="C61" s="81">
-        <v>0</v>
-      </c>
-      <c r="D61" s="81">
+      <c r="B61" s="80">
+        <v>0</v>
+      </c>
+      <c r="C61" s="80">
+        <v>0</v>
+      </c>
+      <c r="D61" s="80">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E61" s="81">
+      <c r="E61" s="80">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="78">
+      <c r="A62" s="77">
         <v>73</v>
       </c>
-      <c r="B62" s="81">
-        <v>0</v>
-      </c>
-      <c r="C62" s="81">
-        <v>0</v>
-      </c>
-      <c r="D62" s="81">
+      <c r="B62" s="80">
+        <v>0</v>
+      </c>
+      <c r="C62" s="80">
+        <v>0</v>
+      </c>
+      <c r="D62" s="80">
         <v>0.19350000000000001</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="80">
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="79">
+      <c r="A63" s="78">
         <v>74</v>
       </c>
-      <c r="B63" s="82">
-        <v>0</v>
-      </c>
-      <c r="C63" s="82">
-        <v>0</v>
-      </c>
-      <c r="D63" s="82">
+      <c r="B63" s="81">
+        <v>0</v>
+      </c>
+      <c r="C63" s="81">
+        <v>0</v>
+      </c>
+      <c r="D63" s="81">
         <v>1</v>
       </c>
-      <c r="E63" s="82">
+      <c r="E63" s="81">
         <v>1</v>
       </c>
     </row>
@@ -5373,8 +5376,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,10 +5400,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="97"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -5423,31 +5426,31 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="105"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5471,7 +5474,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5504,1052 +5507,1052 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="101"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="73" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="75" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="76">
         <v>19</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="79">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="79">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="79">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="79">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F8" s="80">
-        <v>0</v>
-      </c>
-      <c r="G8" s="80">
+      <c r="F8" s="79">
+        <v>0</v>
+      </c>
+      <c r="G8" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="77">
         <v>20</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="80">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="80">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="80">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="80">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F9" s="81">
-        <v>0</v>
-      </c>
-      <c r="G9" s="81">
+      <c r="F9" s="80">
+        <v>0</v>
+      </c>
+      <c r="G9" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>21</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="80">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="80">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="80">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="80">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F10" s="81">
-        <v>0</v>
-      </c>
-      <c r="G10" s="81">
+      <c r="F10" s="80">
+        <v>0</v>
+      </c>
+      <c r="G10" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="77">
         <v>22</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="80">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="80">
         <v>0.22869999999999999</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="80">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="80">
         <v>0.10539999999999999</v>
       </c>
-      <c r="F11" s="81">
-        <v>0</v>
-      </c>
-      <c r="G11" s="81">
+      <c r="F11" s="80">
+        <v>0</v>
+      </c>
+      <c r="G11" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>23</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="80">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="80">
         <v>0.1341</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="80">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="80">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="80">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="77">
         <v>24</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="80">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="80">
         <v>0.1341</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="80">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="80">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="80">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>25</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="80">
         <v>0.1341</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="80">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="80">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="80">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="77">
         <v>26</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="80">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="80">
         <v>0.1341</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="80">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="80">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="80">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="77">
         <v>27</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="80">
         <v>0.14849999999999999</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="80">
         <v>0.1341</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="80">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="80">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="F16" s="81">
+      <c r="F16" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="80">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="77">
         <v>28</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="80">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="80">
         <v>0.1381</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="80">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G17" s="81">
+      <c r="G17" s="80">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="77">
         <v>29</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="80">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="80">
         <v>0.1381</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F18" s="81">
+      <c r="F18" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G18" s="81">
+      <c r="G18" s="80">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="77">
         <v>30</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="80">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="80">
         <v>0.1381</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="80">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G19" s="81">
+      <c r="G19" s="80">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="77">
         <v>31</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="80">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="80">
         <v>0.1381</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="80">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G20" s="81">
+      <c r="G20" s="80">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="77">
         <v>32</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="80">
         <v>0.12740000000000001</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="80">
         <v>0.1381</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="80">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="80">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="80">
         <v>4.02E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="77">
         <v>33</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="80">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="80">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="80">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="80">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="80">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="77">
         <v>34</v>
       </c>
-      <c r="B23" s="81">
+      <c r="B23" s="80">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="80">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="80">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="80">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="80">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="78">
+      <c r="A24" s="77">
         <v>35</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="80">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="80">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="80">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="80">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="80">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="78">
+      <c r="A25" s="77">
         <v>36</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="80">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="80">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="80">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E25" s="81">
+      <c r="E25" s="80">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="80">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
+      <c r="A26" s="77">
         <v>37</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="80">
         <v>0.13389999999999999</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="80">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="80">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="80">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="80">
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="77">
         <v>38</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="80">
         <v>0.1449</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="80">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="80">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="80">
         <v>4.87E-2</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="80">
         <v>1.34E-2</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="80">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="78">
+      <c r="A28" s="77">
         <v>39</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="80">
         <v>0.1449</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="80">
         <v>0.1244</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="80">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="80">
         <v>4.87E-2</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="80">
         <v>1.34E-2</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="80">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="78">
+      <c r="A29" s="77">
         <v>40</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="80">
         <v>0.1449</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="80">
         <v>0.1179</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="80">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="80">
         <v>4.87E-2</v>
       </c>
-      <c r="F29" s="81">
+      <c r="F29" s="80">
         <v>1.34E-2</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="80">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="78">
+      <c r="A30" s="77">
         <v>41</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="80">
         <v>0.1449</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="80">
         <v>0.1179</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="80">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="80">
         <v>4.87E-2</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="80">
         <v>1.34E-2</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="80">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="77">
         <v>42</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="80">
         <v>0.1449</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="80">
         <v>0.1179</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="80">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="80">
         <v>4.87E-2</v>
       </c>
-      <c r="F31" s="81">
+      <c r="F31" s="80">
         <v>1.34E-2</v>
       </c>
-      <c r="G31" s="81">
+      <c r="G31" s="80">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="78">
+      <c r="A32" s="77">
         <v>43</v>
       </c>
-      <c r="B32" s="81">
+      <c r="B32" s="80">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="80">
         <v>0.1154</v>
       </c>
-      <c r="D32" s="81">
+      <c r="D32" s="80">
         <v>4.53E-2</v>
       </c>
-      <c r="E32" s="81">
+      <c r="E32" s="80">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="80">
         <v>1.37E-2</v>
       </c>
-      <c r="G32" s="81">
+      <c r="G32" s="80">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="78">
+      <c r="A33" s="77">
         <v>44</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="80">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="80">
         <v>0.1154</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D33" s="80">
         <v>4.53E-2</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="80">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="80">
         <v>1.37E-2</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="80">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="78">
+      <c r="A34" s="77">
         <v>45</v>
       </c>
-      <c r="B34" s="81">
+      <c r="B34" s="80">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="80">
         <v>0.1154</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="80">
         <v>4.53E-2</v>
       </c>
-      <c r="E34" s="81">
+      <c r="E34" s="80">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F34" s="81">
+      <c r="F34" s="80">
         <v>1.37E-2</v>
       </c>
-      <c r="G34" s="81">
+      <c r="G34" s="80">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="77">
         <v>46</v>
       </c>
-      <c r="B35" s="81">
+      <c r="B35" s="80">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="80">
         <v>0.1154</v>
       </c>
-      <c r="D35" s="81">
+      <c r="D35" s="80">
         <v>4.53E-2</v>
       </c>
-      <c r="E35" s="81">
+      <c r="E35" s="80">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F35" s="81">
+      <c r="F35" s="80">
         <v>1.37E-2</v>
       </c>
-      <c r="G35" s="81">
+      <c r="G35" s="80">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="78">
+      <c r="A36" s="77">
         <v>47</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="80">
         <v>0.14419999999999999</v>
       </c>
-      <c r="C36" s="81">
+      <c r="C36" s="80">
         <v>0.1154</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="80">
         <v>4.53E-2</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="80">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="F36" s="81">
+      <c r="F36" s="80">
         <v>1.37E-2</v>
       </c>
-      <c r="G36" s="81">
+      <c r="G36" s="80">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="78">
+      <c r="A37" s="77">
         <v>48</v>
       </c>
-      <c r="B37" s="81">
+      <c r="B37" s="80">
         <v>0.1431</v>
       </c>
-      <c r="C37" s="81">
+      <c r="C37" s="80">
         <v>0.1166</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="80">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E37" s="81">
+      <c r="E37" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F37" s="80">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G37" s="81">
+      <c r="G37" s="80">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="78">
+      <c r="A38" s="77">
         <v>49</v>
       </c>
-      <c r="B38" s="81">
+      <c r="B38" s="80">
         <v>0.1431</v>
       </c>
-      <c r="C38" s="81">
+      <c r="C38" s="80">
         <v>0.1166</v>
       </c>
-      <c r="D38" s="81">
+      <c r="D38" s="80">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E38" s="81">
+      <c r="E38" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F38" s="81">
+      <c r="F38" s="80">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G38" s="81">
+      <c r="G38" s="80">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="77">
         <v>50</v>
       </c>
-      <c r="B39" s="81">
+      <c r="B39" s="80">
         <v>0.1431</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="80">
         <v>0.1166</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="80">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F39" s="81">
+      <c r="F39" s="80">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="80">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="77">
         <v>51</v>
       </c>
-      <c r="B40" s="81">
+      <c r="B40" s="80">
         <v>0.1431</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="80">
         <v>0.1166</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="80">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E40" s="81">
+      <c r="E40" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F40" s="81">
+      <c r="F40" s="80">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G40" s="81">
+      <c r="G40" s="80">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="78">
+      <c r="A41" s="77">
         <v>52</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="80">
         <v>0.1431</v>
       </c>
-      <c r="C41" s="81">
+      <c r="C41" s="80">
         <v>0.1166</v>
       </c>
-      <c r="D41" s="81">
+      <c r="D41" s="80">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F41" s="81">
+      <c r="F41" s="80">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G41" s="81">
+      <c r="G41" s="80">
         <v>2.06E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="78">
+      <c r="A42" s="77">
         <v>53</v>
       </c>
-      <c r="B42" s="81">
+      <c r="B42" s="80">
         <v>0.14380000000000001</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="80">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D42" s="81">
+      <c r="D42" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="80">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="80">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="80">
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="77">
         <v>54</v>
       </c>
-      <c r="B43" s="81">
+      <c r="B43" s="80">
         <v>0.14380000000000001</v>
       </c>
-      <c r="C43" s="81">
+      <c r="C43" s="80">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D43" s="81">
+      <c r="D43" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="80">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F43" s="80">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="80">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="77">
         <v>55</v>
       </c>
-      <c r="B44" s="81">
+      <c r="B44" s="80">
         <v>0.1217</v>
       </c>
-      <c r="C44" s="81">
+      <c r="C44" s="80">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="80">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="80">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G44" s="81">
+      <c r="G44" s="80">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="78">
+      <c r="A45" s="77">
         <v>56</v>
       </c>
-      <c r="B45" s="81">
+      <c r="B45" s="80">
         <v>0.1217</v>
       </c>
-      <c r="C45" s="81">
+      <c r="C45" s="80">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="80">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F45" s="81">
+      <c r="F45" s="80">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G45" s="81">
+      <c r="G45" s="80">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="78">
+      <c r="A46" s="77">
         <v>57</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="80">
         <v>0.11070000000000001</v>
       </c>
-      <c r="C46" s="81">
+      <c r="C46" s="80">
         <v>0.11749999999999999</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="80">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="80">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="80">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G46" s="81">
+      <c r="G46" s="80">
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="77">
         <v>58</v>
       </c>
-      <c r="B47" s="81">
+      <c r="B47" s="80">
         <v>0.11840000000000001</v>
       </c>
-      <c r="C47" s="81">
+      <c r="C47" s="80">
         <v>0.1225</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="80">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E47" s="81">
+      <c r="E47" s="80">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F47" s="81">
+      <c r="F47" s="80">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="G47" s="81">
+      <c r="G47" s="80">
         <v>4.65E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="78">
+      <c r="A48" s="77">
         <v>59</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="80">
         <v>0.11840000000000001</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C48" s="80">
         <v>0.1225</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="80">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="80">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="80">
         <v>5.57E-2</v>
       </c>
-      <c r="G48" s="81">
+      <c r="G48" s="80">
         <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="78">
+      <c r="A49" s="77">
         <v>60</v>
       </c>
-      <c r="B49" s="81">
+      <c r="B49" s="80">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C49" s="81">
+      <c r="C49" s="80">
         <v>0.1225</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="80">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E49" s="80">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="80">
         <v>5.57E-2</v>
       </c>
-      <c r="G49" s="81">
+      <c r="G49" s="80">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="79">
+      <c r="A50" s="78">
         <v>61</v>
       </c>
-      <c r="B50" s="82">
+      <c r="B50" s="81">
         <v>0.12429999999999999</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="81">
         <v>0.1225</v>
       </c>
-      <c r="D50" s="82">
+      <c r="D50" s="81">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E50" s="82">
+      <c r="E50" s="81">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="F50" s="82">
+      <c r="F50" s="81">
         <v>0.1237</v>
       </c>
-      <c r="G50" s="82">
+      <c r="G50" s="81">
         <v>0.1164</v>
       </c>
     </row>
@@ -6595,10 +6598,10 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="97"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -6613,22 +6616,22 @@
       <c r="A6" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="106"/>
+      <c r="C6" s="108"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="60"/>
@@ -6693,648 +6696,648 @@
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="76">
         <v>19</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="77">
         <v>20</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>21</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="77">
         <v>22</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>23</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="77">
         <v>24</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>25</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="77">
         <v>26</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="77">
         <v>27</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="83">
         <v>1.76E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="77">
         <v>28</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="83">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="77">
         <v>29</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="83">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="77">
         <v>30</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="77">
         <v>31</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>3.1799999999999998E-4</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="83">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="77">
         <v>32</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>4.4099999999999999E-4</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="83">
         <v>2.34E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="77">
         <v>33</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="83">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="77">
         <v>34</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>4.9399999999999997E-4</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="78">
+      <c r="A24" s="77">
         <v>35</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>5.8200000000000005E-4</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="83">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="78">
+      <c r="A25" s="77">
         <v>36</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="83">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
+      <c r="A26" s="77">
         <v>37</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="83">
         <v>7.6800000000000002E-4</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="83">
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="77">
         <v>38</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="83">
         <v>9.5600000000000004E-4</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="83">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="78">
+      <c r="A28" s="77">
         <v>39</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="83">
         <v>1.059E-3</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="83">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="78">
+      <c r="A29" s="77">
         <v>40</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="83">
         <v>1.163E-3</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="83">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="78">
+      <c r="A30" s="77">
         <v>41</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="83">
         <v>1.163E-3</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="83">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="77">
         <v>42</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <v>1.163E-3</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="83">
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="78">
+      <c r="A32" s="77">
         <v>43</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="83">
         <v>1.598E-3</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="83">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="78">
+      <c r="A33" s="77">
         <v>44</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="83">
         <v>1.598E-3</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="83">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="78">
+      <c r="A34" s="77">
         <v>45</v>
       </c>
-      <c r="B34" s="84">
+      <c r="B34" s="83">
         <v>1.598E-3</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="83">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="77">
         <v>46</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="83">
         <v>1.776E-3</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="83">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="78">
+      <c r="A36" s="77">
         <v>47</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="83">
         <v>1.954E-3</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="83">
         <v>1.3450000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="78">
+      <c r="A37" s="77">
         <v>48</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="83">
         <v>2.4299999999999999E-3</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="83">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="78">
+      <c r="A38" s="77">
         <v>49</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="83">
         <v>2.6329999999999999E-3</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="83">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="77">
         <v>50</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="83">
         <v>2.8349999999999998E-3</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="83">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="77">
         <v>51</v>
       </c>
-      <c r="B40" s="84">
+      <c r="B40" s="83">
         <v>3.1389999999999999E-3</v>
       </c>
-      <c r="C40" s="84">
+      <c r="C40" s="83">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="78">
+      <c r="A41" s="77">
         <v>52</v>
       </c>
-      <c r="B41" s="84">
+      <c r="B41" s="83">
         <v>3.4429999999999999E-3</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="83">
         <v>2.2859999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="78">
+      <c r="A42" s="77">
         <v>53</v>
       </c>
-      <c r="B42" s="84">
+      <c r="B42" s="83">
         <v>3.8049999999999998E-3</v>
       </c>
-      <c r="C42" s="84">
+      <c r="C42" s="83">
         <v>2.5209999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="77">
         <v>54</v>
       </c>
-      <c r="B43" s="84">
+      <c r="B43" s="83">
         <v>4.1139999999999996E-3</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C43" s="83">
         <v>2.9090000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="77">
         <v>55</v>
       </c>
-      <c r="B44" s="84">
+      <c r="B44" s="83">
         <v>4.4229999999999998E-3</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C44" s="83">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="78">
+      <c r="A45" s="77">
         <v>56</v>
       </c>
-      <c r="B45" s="84">
+      <c r="B45" s="83">
         <v>4.731E-3</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C45" s="83">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="78">
+      <c r="A46" s="77">
         <v>57</v>
       </c>
-      <c r="B46" s="84">
+      <c r="B46" s="83">
         <v>5.0400000000000002E-3</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="83">
         <v>3.6840000000000002E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="77">
         <v>58</v>
       </c>
-      <c r="B47" s="84">
+      <c r="B47" s="83">
         <v>5.2180000000000004E-3</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="83">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="78">
+      <c r="A48" s="77">
         <v>59</v>
       </c>
-      <c r="B48" s="84">
+      <c r="B48" s="83">
         <v>5.5189999999999996E-3</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="83">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="78">
+      <c r="A49" s="77">
         <v>60</v>
       </c>
-      <c r="B49" s="84">
+      <c r="B49" s="83">
         <v>5.8199999999999997E-3</v>
       </c>
-      <c r="C49" s="84">
+      <c r="C49" s="83">
         <v>3.5950000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="78">
+      <c r="A50" s="77">
         <v>61</v>
       </c>
-      <c r="B50" s="84">
+      <c r="B50" s="83">
         <v>3.6129999999999999E-3</v>
       </c>
-      <c r="C50" s="84">
+      <c r="C50" s="83">
         <v>2.7430000000000002E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="77">
         <v>62</v>
       </c>
-      <c r="B51" s="84">
+      <c r="B51" s="83">
         <v>3.1110000000000001E-3</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="83">
         <v>1.797E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="78">
+      <c r="A52" s="77">
         <v>63</v>
       </c>
-      <c r="B52" s="84">
+      <c r="B52" s="83">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="83">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="78">
+      <c r="A53" s="77">
         <v>64</v>
       </c>
-      <c r="B53" s="84">
+      <c r="B53" s="83">
         <v>1.7359999999999999E-3</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="83">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="78">
+      <c r="A54" s="77">
         <v>65</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="83">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="83">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="77">
         <v>66</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="83">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="83">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="78">
+      <c r="A56" s="77">
         <v>67</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="83">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="83">
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="78">
+      <c r="A57" s="77">
         <v>68</v>
       </c>
-      <c r="B57" s="84">
+      <c r="B57" s="83">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="83">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="78">
+      <c r="A58" s="77">
         <v>69</v>
       </c>
-      <c r="B58" s="84">
+      <c r="B58" s="83">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C58" s="84">
+      <c r="C58" s="83">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="77">
         <v>70</v>
       </c>
-      <c r="B59" s="84">
+      <c r="B59" s="83">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C59" s="84">
+      <c r="C59" s="83">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="78">
+      <c r="A60" s="77">
         <v>71</v>
       </c>
-      <c r="B60" s="84">
+      <c r="B60" s="83">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C60" s="84">
+      <c r="C60" s="83">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="78">
+      <c r="A61" s="77">
         <v>72</v>
       </c>
-      <c r="B61" s="84">
+      <c r="B61" s="83">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C61" s="84">
+      <c r="C61" s="83">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="78">
+      <c r="A62" s="77">
         <v>73</v>
       </c>
-      <c r="B62" s="84">
+      <c r="B62" s="83">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C62" s="84">
+      <c r="C62" s="83">
         <v>1.1490000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="79">
+      <c r="A63" s="78">
         <v>74</v>
       </c>
-      <c r="B63" s="85">
-        <v>0</v>
-      </c>
-      <c r="C63" s="85">
+      <c r="B63" s="84">
+        <v>0</v>
+      </c>
+      <c r="C63" s="84">
         <v>0</v>
       </c>
     </row>
@@ -7356,7 +7359,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7385,19 +7388,19 @@
       <c r="A4" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="99"/>
+      <c r="C4" s="102"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="99"/>
+      <c r="C5" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7449,647 +7452,647 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="76">
         <v>19</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>3.5500000000000001E-4</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="77">
         <v>20</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>3.9100000000000002E-4</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="83">
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="77">
         <v>21</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>4.3199999999999998E-4</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="77">
         <v>22</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>1.6200000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="77">
         <v>23</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>3.9399999999999998E-4</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="83">
         <v>1.25E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="77">
         <v>24</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="83">
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="77">
         <v>25</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>4.06E-4</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="83">
         <v>1.2899999999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="77">
         <v>26</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>3.68E-4</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>1.55E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="77">
         <v>27</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>3.1599999999999998E-4</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="83">
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="77">
         <v>28</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>3.0600000000000001E-4</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="83">
         <v>1.3899999999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="77">
         <v>29</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>3.48E-4</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="83">
         <v>1.4300000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="77">
         <v>30</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>3.9300000000000001E-4</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>1.65E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="78">
+      <c r="A20" s="77">
         <v>31</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="83">
         <v>1.85E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="78">
+      <c r="A21" s="77">
         <v>32</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>4.2099999999999999E-4</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="83">
         <v>2.0799999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="78">
+      <c r="A22" s="77">
         <v>33</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>3.6299999999999999E-4</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="83">
         <v>2.14E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="77">
         <v>34</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>2.22E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="78">
+      <c r="A24" s="77">
         <v>35</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>4.4200000000000001E-4</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="83">
         <v>2.4399999999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="78">
+      <c r="A25" s="77">
         <v>36</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="83">
         <v>2.24E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
+      <c r="A26" s="77">
         <v>37</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="83">
         <v>4.37E-4</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="83">
         <v>2.6200000000000003E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="77">
         <v>38</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="83">
         <v>4.8700000000000002E-4</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="83">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="78">
+      <c r="A28" s="77">
         <v>39</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="83">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="83">
         <v>2.9599999999999998E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="78">
+      <c r="A29" s="77">
         <v>40</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="83">
         <v>5.0199999999999995E-4</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="83">
         <v>3.2000000000000003E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="78">
+      <c r="A30" s="77">
         <v>41</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="83">
         <v>5.5400000000000002E-4</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="83">
         <v>3.8200000000000002E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="77">
         <v>42</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <v>6.3900000000000003E-4</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="83">
         <v>4.06E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="78">
+      <c r="A32" s="77">
         <v>43</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="83">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="83">
         <v>4.0900000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="78">
+      <c r="A33" s="77">
         <v>44</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="83">
         <v>7.1500000000000003E-4</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="83">
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="78">
+      <c r="A34" s="77">
         <v>45</v>
       </c>
-      <c r="B34" s="84">
+      <c r="B34" s="83">
         <v>8.3799999999999999E-4</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="83">
         <v>5.0600000000000005E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="77">
         <v>46</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="83">
         <v>7.76E-4</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="83">
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="78">
+      <c r="A36" s="77">
         <v>47</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="83">
         <v>9.1200000000000005E-4</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="83">
         <v>6.6200000000000005E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="78">
+      <c r="A37" s="77">
         <v>48</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="83">
         <v>1.132E-3</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="83">
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="78">
+      <c r="A38" s="77">
         <v>49</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="83">
         <v>1.2669999999999999E-3</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="83">
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="77">
         <v>50</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="83">
         <v>1.3760000000000001E-3</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="83">
         <v>8.8099999999999995E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="78">
+      <c r="A40" s="77">
         <v>51</v>
       </c>
-      <c r="B40" s="84">
+      <c r="B40" s="83">
         <v>1.49E-3</v>
       </c>
-      <c r="C40" s="84">
+      <c r="C40" s="83">
         <v>9.3899999999999995E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="78">
+      <c r="A41" s="77">
         <v>52</v>
       </c>
-      <c r="B41" s="84">
+      <c r="B41" s="83">
         <v>1.7340000000000001E-3</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="83">
         <v>1.0369999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="78">
+      <c r="A42" s="77">
         <v>53</v>
       </c>
-      <c r="B42" s="84">
+      <c r="B42" s="83">
         <v>1.769E-3</v>
       </c>
-      <c r="C42" s="84">
+      <c r="C42" s="83">
         <v>1.109E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="77">
         <v>54</v>
       </c>
-      <c r="B43" s="84">
+      <c r="B43" s="83">
         <v>2.0669999999999998E-3</v>
       </c>
-      <c r="C43" s="84">
+      <c r="C43" s="83">
         <v>1.206E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="78">
+      <c r="A44" s="77">
         <v>55</v>
       </c>
-      <c r="B44" s="84">
+      <c r="B44" s="83">
         <v>2.3340000000000001E-3</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C44" s="83">
         <v>1.3309999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="78">
+      <c r="A45" s="77">
         <v>56</v>
       </c>
-      <c r="B45" s="84">
+      <c r="B45" s="83">
         <v>2.49E-3</v>
       </c>
-      <c r="C45" s="84">
+      <c r="C45" s="83">
         <v>1.423E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="78">
+      <c r="A46" s="77">
         <v>57</v>
       </c>
-      <c r="B46" s="84">
+      <c r="B46" s="83">
         <v>2.8700000000000002E-3</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="83">
         <v>1.588E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="77">
         <v>58</v>
       </c>
-      <c r="B47" s="84">
+      <c r="B47" s="83">
         <v>2.9650000000000002E-3</v>
       </c>
-      <c r="C47" s="84">
+      <c r="C47" s="83">
         <v>1.691E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="78">
+      <c r="A48" s="77">
         <v>59</v>
       </c>
-      <c r="B48" s="84">
+      <c r="B48" s="83">
         <v>3.4139999999999999E-3</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C48" s="83">
         <v>1.792E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="78">
+      <c r="A49" s="77">
         <v>60</v>
       </c>
-      <c r="B49" s="84">
+      <c r="B49" s="83">
         <v>3.7880000000000001E-3</v>
       </c>
-      <c r="C49" s="84">
+      <c r="C49" s="83">
         <v>1.9589999999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="78">
+      <c r="A50" s="77">
         <v>61</v>
       </c>
-      <c r="B50" s="84">
+      <c r="B50" s="83">
         <v>4.0590000000000001E-3</v>
       </c>
-      <c r="C50" s="84">
+      <c r="C50" s="83">
         <v>2.137E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="77">
         <v>62</v>
       </c>
-      <c r="B51" s="84">
+      <c r="B51" s="83">
         <v>4.6779999999999999E-3</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="83">
         <v>2.2799999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="78">
+      <c r="A52" s="77">
         <v>63</v>
       </c>
-      <c r="B52" s="84">
+      <c r="B52" s="83">
         <v>5.5170000000000002E-3</v>
       </c>
-      <c r="C52" s="84">
+      <c r="C52" s="83">
         <v>2.539E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="78">
+      <c r="A53" s="77">
         <v>64</v>
       </c>
-      <c r="B53" s="84">
+      <c r="B53" s="83">
         <v>6.1900000000000002E-3</v>
       </c>
-      <c r="C53" s="84">
+      <c r="C53" s="83">
         <v>2.7899999999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="78">
+      <c r="A54" s="77">
         <v>65</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="83">
         <v>7.0029999999999997E-3</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="83">
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="77">
         <v>66</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="83">
         <v>7.5160000000000001E-3</v>
       </c>
-      <c r="C55" s="84">
+      <c r="C55" s="83">
         <v>3.4150000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="78">
+      <c r="A56" s="77">
         <v>67</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="83">
         <v>9.1769999999999994E-3</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="83">
         <v>3.6800000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="78">
+      <c r="A57" s="77">
         <v>68</v>
       </c>
-      <c r="B57" s="84">
+      <c r="B57" s="83">
         <v>9.6109999999999998E-3</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C57" s="83">
         <v>4.4730000000000004E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="78">
+      <c r="A58" s="77">
         <v>69</v>
       </c>
-      <c r="B58" s="84">
+      <c r="B58" s="83">
         <v>1.0673999999999999E-2</v>
       </c>
-      <c r="C58" s="84">
+      <c r="C58" s="83">
         <v>4.431E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="77">
         <v>70</v>
       </c>
-      <c r="B59" s="84">
+      <c r="B59" s="83">
         <v>1.1193E-2</v>
       </c>
-      <c r="C59" s="84">
+      <c r="C59" s="83">
         <v>5.0109999999999998E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="78">
+      <c r="A60" s="77">
         <v>71</v>
       </c>
-      <c r="B60" s="84">
+      <c r="B60" s="83">
         <v>1.3648E-2</v>
       </c>
-      <c r="C60" s="84">
+      <c r="C60" s="83">
         <v>5.9820000000000003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="78">
+      <c r="A61" s="77">
         <v>72</v>
       </c>
-      <c r="B61" s="84">
+      <c r="B61" s="83">
         <v>1.4447E-2</v>
       </c>
-      <c r="C61" s="84">
+      <c r="C61" s="83">
         <v>6.7559999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="78">
+      <c r="A62" s="77">
         <v>73</v>
       </c>
-      <c r="B62" s="84">
+      <c r="B62" s="83">
         <v>1.7038999999999999E-2</v>
       </c>
-      <c r="C62" s="84">
+      <c r="C62" s="83">
         <v>7.6020000000000003E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="79">
+      <c r="A63" s="78">
         <v>74</v>
       </c>
-      <c r="B63" s="85">
-        <v>0</v>
-      </c>
-      <c r="C63" s="85">
+      <c r="B63" s="84">
+        <v>0</v>
+      </c>
+      <c r="C63" s="84">
         <v>0</v>
       </c>
     </row>
@@ -8108,153 +8111,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="F6" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="H6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="I6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="J6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="K6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="L6" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="38">
+        <v>205</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="38">
         <v>20</v>
       </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="52">
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="52">
         <v>2.5</v>
-      </c>
-      <c r="G7" s="38">
-        <v>1</v>
       </c>
       <c r="H7" s="38">
         <v>1</v>
       </c>
       <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="38">
         <v>62</v>
       </c>
-      <c r="J7" s="38">
+      <c r="K7" s="38">
         <v>5</v>
       </c>
-      <c r="K7" s="38">
+      <c r="L7" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="38">
+        <v>206</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38">
         <v>20</v>
       </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="52">
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52">
         <v>2.5</v>
-      </c>
-      <c r="G8" s="52">
-        <v>1</v>
       </c>
       <c r="H8" s="52">
         <v>1</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="52">
+        <v>1</v>
+      </c>
+      <c r="J8" s="38">
         <v>65</v>
       </c>
-      <c r="J8" s="38">
+      <c r="K8" s="38">
         <v>10</v>
       </c>
-      <c r="K8" s="38">
+      <c r="L8" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="52">
+        <v>207</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="52">
         <v>20</v>
       </c>
-      <c r="E9" s="52">
-        <v>0</v>
-      </c>
       <c r="F9" s="52">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52">
         <v>2.5</v>
-      </c>
-      <c r="G9" s="52">
-        <v>1</v>
       </c>
       <c r="H9" s="52">
         <v>1</v>
       </c>
       <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="52">
         <v>65</v>
       </c>
-      <c r="J9" s="52">
+      <c r="K9" s="52">
         <v>10</v>
       </c>
-      <c r="K9" s="52">
+      <c r="L9" s="52">
         <v>0.10299999999999999</v>
       </c>
     </row>
@@ -8272,7 +8287,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8303,1169 +8318,1169 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="110"/>
+      <c r="D5" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="85" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="86" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+      <c r="A8" s="87">
         <v>50</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="90">
         <v>4.1929999999999997E-3</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="90">
         <v>2.5560000000000001E-3</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="90">
         <v>2.1038000000000001E-2</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="90">
         <v>1.1939999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+      <c r="A9" s="88">
         <v>51</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="91">
         <v>4.5269999999999998E-3</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <v>2.7409999999999999E-3</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="91">
         <v>2.1703E-2</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="91">
         <v>1.2501E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="89">
+      <c r="A10" s="88">
         <v>52</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="91">
         <v>4.8700000000000002E-3</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>2.869E-3</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="91">
         <v>2.2357999999999999E-2</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="91">
         <v>1.3063E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11" s="88">
         <v>53</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="91">
         <v>5.1879999999999999E-3</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="91">
         <v>3.0249999999999999E-3</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="91">
         <v>2.2852999999999998E-2</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="91">
         <v>1.3634E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="88">
         <v>54</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="91">
         <v>5.5059999999999996E-3</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>3.1809999999999998E-3</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="91">
         <v>2.3307999999999999E-2</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>1.4203E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
+      <c r="A13" s="88">
         <v>55</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="91">
         <v>5.8329999999999996E-3</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>3.4390000000000002E-3</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="91">
         <v>2.3768000000000001E-2</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <v>1.4768E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="88">
         <v>56</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="91">
         <v>6.1729999999999997E-3</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>3.64E-3</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="91">
         <v>2.4244000000000002E-2</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="91">
         <v>1.5334E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15" s="88">
         <v>57</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="91">
         <v>6.5339999999999999E-3</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="91">
         <v>3.9579999999999997E-3</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="91">
         <v>2.477E-2</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="91">
         <v>1.5893999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="88">
         <v>58</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="91">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="91">
         <v>4.2989999999999999E-3</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="91">
         <v>2.5347999999999999E-2</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="91">
         <v>1.6452999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17" s="88">
         <v>59</v>
       </c>
-      <c r="B17" s="92">
+      <c r="B17" s="91">
         <v>7.3379999999999999E-3</v>
       </c>
-      <c r="C17" s="92">
+      <c r="C17" s="91">
         <v>4.6540000000000002E-3</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="91">
         <v>2.5984E-2</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="91">
         <v>1.7028999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18" s="88">
         <v>60</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="91">
         <v>7.7990000000000004E-3</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="91">
         <v>5.071E-3</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="91">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="91">
         <v>1.7614999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19" s="88">
         <v>61</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="91">
         <v>8.3119999999999999E-3</v>
       </c>
-      <c r="C19" s="92">
+      <c r="C19" s="91">
         <v>5.5030000000000001E-3</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="91">
         <v>2.7507E-2</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="91">
         <v>1.8256999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
+      <c r="A20" s="88">
         <v>62</v>
       </c>
-      <c r="B20" s="92">
+      <c r="B20" s="91">
         <v>8.8920000000000006E-3</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="91">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="91">
         <v>2.8433E-2</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="91">
         <v>1.8957000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
+      <c r="A21" s="88">
         <v>63</v>
       </c>
-      <c r="B21" s="92">
+      <c r="B21" s="91">
         <v>9.554E-3</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="91">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="91">
         <v>2.9505E-2</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="91">
         <v>1.9748000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
+      <c r="A22" s="88">
         <v>64</v>
       </c>
-      <c r="B22" s="92">
+      <c r="B22" s="91">
         <v>1.0309E-2</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="91">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="D22" s="92">
+      <c r="D22" s="91">
         <v>3.0731000000000001E-2</v>
       </c>
-      <c r="E22" s="92">
+      <c r="E22" s="91">
         <v>2.0663000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23" s="88">
         <v>65</v>
       </c>
-      <c r="B23" s="92">
+      <c r="B23" s="91">
         <v>1.1169E-2</v>
       </c>
-      <c r="C23" s="92">
+      <c r="C23" s="91">
         <v>7.8919999999999997E-3</v>
       </c>
-      <c r="D23" s="92">
+      <c r="D23" s="91">
         <v>3.2134999999999997E-2</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="91">
         <v>2.1715000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
+      <c r="A24" s="88">
         <v>66</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="91">
         <v>1.2142999999999999E-2</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="91">
         <v>8.6499999999999997E-3</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="91">
         <v>3.3711999999999999E-2</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="91">
         <v>2.2922999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
+      <c r="A25" s="88">
         <v>67</v>
       </c>
-      <c r="B25" s="92">
+      <c r="B25" s="91">
         <v>1.3242E-2</v>
       </c>
-      <c r="C25" s="92">
+      <c r="C25" s="91">
         <v>9.5399999999999999E-3</v>
       </c>
-      <c r="D25" s="92">
+      <c r="D25" s="91">
         <v>3.5465999999999998E-2</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="91">
         <v>2.4315E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="88">
         <v>68</v>
       </c>
-      <c r="B26" s="92">
+      <c r="B26" s="91">
         <v>1.4484E-2</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="91">
         <v>1.0465E-2</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="91">
         <v>3.7429999999999998E-2</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="91">
         <v>2.5898999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27" s="88">
         <v>69</v>
       </c>
-      <c r="B27" s="92">
+      <c r="B27" s="91">
         <v>1.5882E-2</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="91">
         <v>1.1528999999999999E-2</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="91">
         <v>3.9600999999999997E-2</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="91">
         <v>2.7681000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="89">
+      <c r="A28" s="88">
         <v>70</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="91">
         <v>1.7451000000000001E-2</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="91">
         <v>1.2706E-2</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="91">
         <v>4.1986000000000002E-2</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="91">
         <v>2.9672E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="89">
+      <c r="A29" s="88">
         <v>71</v>
       </c>
-      <c r="B29" s="92">
+      <c r="B29" s="91">
         <v>1.9195E-2</v>
       </c>
-      <c r="C29" s="92">
+      <c r="C29" s="91">
         <v>1.3983000000000001E-2</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="91">
         <v>4.4581000000000003E-2</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="91">
         <v>3.1898999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
+      <c r="A30" s="88">
         <v>72</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="91">
         <v>2.1156000000000001E-2</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="91">
         <v>1.5469E-2</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="91">
         <v>4.7446000000000002E-2</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="91">
         <v>3.4358E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="89">
+      <c r="A31" s="88">
         <v>73</v>
       </c>
-      <c r="B31" s="92">
+      <c r="B31" s="91">
         <v>2.3337E-2</v>
       </c>
-      <c r="C31" s="92">
+      <c r="C31" s="91">
         <v>1.6990999999999999E-2</v>
       </c>
-      <c r="D31" s="92">
+      <c r="D31" s="91">
         <v>5.0556999999999998E-2</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="91">
         <v>3.7082999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="89">
+      <c r="A32" s="88">
         <v>74</v>
       </c>
-      <c r="B32" s="92">
+      <c r="B32" s="91">
         <v>2.5766000000000001E-2</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="91">
         <v>1.8807999999999998E-2</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="91">
         <v>5.3940000000000002E-2</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="91">
         <v>4.0087999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="89">
+      <c r="A33" s="88">
         <v>75</v>
       </c>
-      <c r="B33" s="92">
+      <c r="B33" s="91">
         <v>2.8482E-2</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="91">
         <v>2.0775999999999999E-2</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="91">
         <v>5.7639000000000003E-2</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E33" s="91">
         <v>4.3392E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="89">
+      <c r="A34" s="88">
         <v>76</v>
       </c>
-      <c r="B34" s="92">
+      <c r="B34" s="91">
         <v>3.1517000000000003E-2</v>
       </c>
-      <c r="C34" s="92">
+      <c r="C34" s="91">
         <v>2.2922000000000001E-2</v>
       </c>
-      <c r="D34" s="92">
+      <c r="D34" s="91">
         <v>6.1669000000000002E-2</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E34" s="91">
         <v>4.7003999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="89">
+      <c r="A35" s="88">
         <v>77</v>
       </c>
-      <c r="B35" s="92">
+      <c r="B35" s="91">
         <v>3.4923999999999997E-2</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="91">
         <v>2.5277999999999998E-2</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="91">
         <v>6.6087000000000007E-2</v>
       </c>
-      <c r="E35" s="92">
+      <c r="E35" s="91">
         <v>5.0992000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+      <c r="A36" s="88">
         <v>78</v>
       </c>
-      <c r="B36" s="92">
+      <c r="B36" s="91">
         <v>3.8740999999999998E-2</v>
       </c>
-      <c r="C36" s="92">
+      <c r="C36" s="91">
         <v>2.8080000000000001E-2</v>
       </c>
-      <c r="D36" s="92">
+      <c r="D36" s="91">
         <v>7.0909E-2</v>
       </c>
-      <c r="E36" s="92">
+      <c r="E36" s="91">
         <v>5.5336999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="89">
+      <c r="A37" s="88">
         <v>79</v>
       </c>
-      <c r="B37" s="92">
+      <c r="B37" s="91">
         <v>4.3032000000000001E-2</v>
       </c>
-      <c r="C37" s="92">
+      <c r="C37" s="91">
         <v>3.1167E-2</v>
       </c>
-      <c r="D37" s="92">
+      <c r="D37" s="91">
         <v>7.6191999999999996E-2</v>
       </c>
-      <c r="E37" s="92">
+      <c r="E37" s="91">
         <v>6.0074000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="89">
+      <c r="A38" s="88">
         <v>80</v>
       </c>
-      <c r="B38" s="92">
+      <c r="B38" s="91">
         <v>4.7877000000000003E-2</v>
       </c>
-      <c r="C38" s="92">
+      <c r="C38" s="91">
         <v>3.4653999999999997E-2</v>
       </c>
-      <c r="D38" s="92">
+      <c r="D38" s="91">
         <v>8.2020999999999997E-2</v>
       </c>
-      <c r="E38" s="92">
+      <c r="E38" s="91">
         <v>6.5215999999999996E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="89">
+      <c r="A39" s="88">
         <v>81</v>
       </c>
-      <c r="B39" s="92">
+      <c r="B39" s="91">
         <v>5.3323000000000002E-2</v>
       </c>
-      <c r="C39" s="92">
+      <c r="C39" s="91">
         <v>3.8705999999999997E-2</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="91">
         <v>8.8413000000000005E-2</v>
       </c>
-      <c r="E39" s="92">
+      <c r="E39" s="91">
         <v>7.0822999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="90">
+      <c r="A40" s="89">
         <v>82</v>
       </c>
-      <c r="B40" s="93">
+      <c r="B40" s="92">
         <v>5.9471999999999997E-2</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="92">
         <v>4.3188999999999998E-2</v>
       </c>
-      <c r="D40" s="93">
+      <c r="D40" s="92">
         <v>9.5469999999999999E-2</v>
       </c>
-      <c r="E40" s="93">
+      <c r="E40" s="92">
         <v>7.6855999999999994E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="88">
+      <c r="A41" s="87">
         <v>83</v>
       </c>
-      <c r="B41" s="91">
+      <c r="B41" s="90">
         <v>6.6387000000000002E-2</v>
       </c>
-      <c r="C41" s="91">
+      <c r="C41" s="90">
         <v>4.8592999999999997E-2</v>
       </c>
-      <c r="D41" s="91">
+      <c r="D41" s="90">
         <v>0.10323300000000001</v>
       </c>
-      <c r="E41" s="91">
+      <c r="E41" s="90">
         <v>8.3399000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="89">
+      <c r="A42" s="88">
         <v>84</v>
       </c>
-      <c r="B42" s="92">
+      <c r="B42" s="91">
         <v>7.4195999999999998E-2</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="91">
         <v>5.4351999999999998E-2</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="91">
         <v>0.111831</v>
       </c>
-      <c r="E42" s="92">
+      <c r="E42" s="91">
         <v>9.0454000000000007E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="89">
+      <c r="A43" s="88">
         <v>85</v>
       </c>
-      <c r="B43" s="92">
+      <c r="B43" s="91">
         <v>8.2932000000000006E-2</v>
       </c>
-      <c r="C43" s="92">
+      <c r="C43" s="91">
         <v>6.1115000000000003E-2</v>
       </c>
-      <c r="D43" s="92">
+      <c r="D43" s="91">
         <v>0.121249</v>
       </c>
-      <c r="E43" s="92">
+      <c r="E43" s="91">
         <v>9.8012000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="89">
+      <c r="A44" s="88">
         <v>86</v>
       </c>
-      <c r="B44" s="92">
+      <c r="B44" s="91">
         <v>9.2705999999999997E-2</v>
       </c>
-      <c r="C44" s="92">
+      <c r="C44" s="91">
         <v>6.8409999999999999E-2</v>
       </c>
-      <c r="D44" s="92">
+      <c r="D44" s="91">
         <v>0.13158900000000001</v>
       </c>
-      <c r="E44" s="92">
+      <c r="E44" s="91">
         <v>0.106125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="89">
+      <c r="A45" s="88">
         <v>87</v>
       </c>
-      <c r="B45" s="92">
+      <c r="B45" s="91">
         <v>0.103659</v>
       </c>
-      <c r="C45" s="92">
+      <c r="C45" s="91">
         <v>7.6642000000000002E-2</v>
       </c>
-      <c r="D45" s="92">
+      <c r="D45" s="91">
         <v>0.142982</v>
       </c>
-      <c r="E45" s="92">
+      <c r="E45" s="91">
         <v>0.114756</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="89">
+      <c r="A46" s="88">
         <v>88</v>
       </c>
-      <c r="B46" s="92">
+      <c r="B46" s="91">
         <v>0.115809</v>
       </c>
-      <c r="C46" s="92">
+      <c r="C46" s="91">
         <v>8.5860000000000006E-2</v>
       </c>
-      <c r="D46" s="92">
+      <c r="D46" s="91">
         <v>0.15538099999999999</v>
       </c>
-      <c r="E46" s="92">
+      <c r="E46" s="91">
         <v>0.123866</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="89">
+      <c r="A47" s="88">
         <v>89</v>
       </c>
-      <c r="B47" s="92">
+      <c r="B47" s="91">
         <v>0.12932099999999999</v>
       </c>
-      <c r="C47" s="92">
+      <c r="C47" s="91">
         <v>9.6109E-2</v>
       </c>
-      <c r="D47" s="92">
+      <c r="D47" s="91">
         <v>0.168932</v>
       </c>
-      <c r="E47" s="92">
+      <c r="E47" s="91">
         <v>0.133466</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="89">
+      <c r="A48" s="88">
         <v>90</v>
       </c>
-      <c r="B48" s="92">
+      <c r="B48" s="91">
         <v>0.14427200000000001</v>
       </c>
-      <c r="C48" s="92">
+      <c r="C48" s="91">
         <v>0.10763200000000001</v>
       </c>
-      <c r="D48" s="92">
+      <c r="D48" s="91">
         <v>0.18365200000000001</v>
       </c>
-      <c r="E48" s="92">
+      <c r="E48" s="91">
         <v>0.143701</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="89">
+      <c r="A49" s="88">
         <v>91</v>
       </c>
-      <c r="B49" s="92">
+      <c r="B49" s="91">
         <v>0.16012399999999999</v>
       </c>
-      <c r="C49" s="92">
+      <c r="C49" s="91">
         <v>0.119724</v>
       </c>
-      <c r="D49" s="92">
+      <c r="D49" s="91">
         <v>0.19836899999999999</v>
       </c>
-      <c r="E49" s="92">
+      <c r="E49" s="91">
         <v>0.15490599999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="89">
+      <c r="A50" s="88">
         <v>92</v>
       </c>
-      <c r="B50" s="92">
+      <c r="B50" s="91">
         <v>0.17643700000000001</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="91">
         <v>0.13281799999999999</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="91">
         <v>0.212982</v>
       </c>
-      <c r="E50" s="92">
+      <c r="E50" s="91">
         <v>0.16706399999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="89">
+      <c r="A51" s="88">
         <v>93</v>
       </c>
-      <c r="B51" s="92">
+      <c r="B51" s="91">
         <v>0.19293099999999999</v>
       </c>
-      <c r="C51" s="92">
+      <c r="C51" s="91">
         <v>0.14646300000000001</v>
       </c>
-      <c r="D51" s="92">
+      <c r="D51" s="91">
         <v>0.22741600000000001</v>
       </c>
-      <c r="E51" s="92">
+      <c r="E51" s="91">
         <v>0.17996400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="89">
+      <c r="A52" s="88">
         <v>94</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="91">
         <v>0.20955499999999999</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C52" s="91">
         <v>0.16056000000000001</v>
       </c>
-      <c r="D52" s="92">
+      <c r="D52" s="91">
         <v>0.241727</v>
       </c>
-      <c r="E52" s="92">
+      <c r="E52" s="91">
         <v>0.19351199999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="89">
+      <c r="A53" s="88">
         <v>95</v>
       </c>
-      <c r="B53" s="92">
+      <c r="B53" s="91">
         <v>0.22620599999999999</v>
       </c>
-      <c r="C53" s="92">
+      <c r="C53" s="91">
         <v>0.175231</v>
       </c>
-      <c r="D53" s="92">
+      <c r="D53" s="91">
         <v>0.25581700000000002</v>
       </c>
-      <c r="E53" s="92">
+      <c r="E53" s="91">
         <v>0.20766100000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="89">
+      <c r="A54" s="88">
         <v>96</v>
       </c>
-      <c r="B54" s="92">
+      <c r="B54" s="91">
         <v>0.244336</v>
       </c>
-      <c r="C54" s="92">
+      <c r="C54" s="91">
         <v>0.19181400000000001</v>
       </c>
-      <c r="D54" s="92">
+      <c r="D54" s="91">
         <v>0.27127099999999998</v>
       </c>
-      <c r="E54" s="92">
+      <c r="E54" s="91">
         <v>0.223077</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="89">
+      <c r="A55" s="88">
         <v>97</v>
       </c>
-      <c r="B55" s="92">
+      <c r="B55" s="91">
         <v>0.262934</v>
       </c>
-      <c r="C55" s="92">
+      <c r="C55" s="91">
         <v>0.207561</v>
       </c>
-      <c r="D55" s="92">
+      <c r="D55" s="91">
         <v>0.28686800000000001</v>
       </c>
-      <c r="E55" s="92">
+      <c r="E55" s="91">
         <v>0.239119</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="89">
+      <c r="A56" s="88">
         <v>98</v>
       </c>
-      <c r="B56" s="92">
+      <c r="B56" s="91">
         <v>0.28220299999999998</v>
       </c>
-      <c r="C56" s="92">
+      <c r="C56" s="91">
         <v>0.224075</v>
       </c>
-      <c r="D56" s="92">
+      <c r="D56" s="91">
         <v>0.30279499999999998</v>
       </c>
-      <c r="E56" s="92">
+      <c r="E56" s="91">
         <v>0.25581700000000002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="89">
+      <c r="A57" s="88">
         <v>99</v>
       </c>
-      <c r="B57" s="92">
+      <c r="B57" s="91">
         <v>0.30202600000000002</v>
       </c>
-      <c r="C57" s="92">
+      <c r="C57" s="91">
         <v>0.242783</v>
       </c>
-      <c r="D57" s="92">
+      <c r="D57" s="91">
         <v>0.31895600000000002</v>
       </c>
-      <c r="E57" s="92">
+      <c r="E57" s="91">
         <v>0.27298299999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="89">
+      <c r="A58" s="88">
         <v>100</v>
       </c>
-      <c r="B58" s="92">
+      <c r="B58" s="91">
         <v>0.32213599999999998</v>
       </c>
-      <c r="C58" s="92">
+      <c r="C58" s="91">
         <v>0.261237</v>
       </c>
-      <c r="D58" s="92">
+      <c r="D58" s="91">
         <v>0.33519399999999999</v>
       </c>
-      <c r="E58" s="92">
+      <c r="E58" s="91">
         <v>0.290601</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="89">
+      <c r="A59" s="88">
         <v>101</v>
       </c>
-      <c r="B59" s="92">
+      <c r="B59" s="91">
         <v>0.34241500000000002</v>
       </c>
-      <c r="C59" s="92">
+      <c r="C59" s="91">
         <v>0.28054000000000001</v>
       </c>
-      <c r="D59" s="92">
+      <c r="D59" s="91">
         <v>0.35164299999999998</v>
       </c>
-      <c r="E59" s="92">
+      <c r="E59" s="91">
         <v>0.30860300000000002</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="89">
+      <c r="A60" s="88">
         <v>102</v>
       </c>
-      <c r="B60" s="92">
+      <c r="B60" s="91">
         <v>0.36243599999999998</v>
       </c>
-      <c r="C60" s="92">
+      <c r="C60" s="91">
         <v>0.29914499999999999</v>
       </c>
-      <c r="D60" s="92">
+      <c r="D60" s="91">
         <v>0.36827199999999999</v>
       </c>
-      <c r="E60" s="92">
+      <c r="E60" s="91">
         <v>0.326959</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="89">
+      <c r="A61" s="88">
         <v>103</v>
       </c>
-      <c r="B61" s="92">
+      <c r="B61" s="91">
         <v>0.38221899999999998</v>
       </c>
-      <c r="C61" s="92">
+      <c r="C61" s="91">
         <v>0.317332</v>
       </c>
-      <c r="D61" s="92">
+      <c r="D61" s="91">
         <v>0.38527899999999998</v>
       </c>
-      <c r="E61" s="92">
+      <c r="E61" s="91">
         <v>0.34557599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="89">
+      <c r="A62" s="88">
         <v>104</v>
       </c>
-      <c r="B62" s="92">
+      <c r="B62" s="91">
         <v>0.40142600000000001</v>
       </c>
-      <c r="C62" s="92">
+      <c r="C62" s="91">
         <v>0.33612599999999998</v>
       </c>
-      <c r="D62" s="92">
+      <c r="D62" s="91">
         <v>0.40248899999999999</v>
       </c>
-      <c r="E62" s="92">
+      <c r="E62" s="91">
         <v>0.36431799999999998</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="89">
+      <c r="A63" s="88">
         <v>105</v>
       </c>
-      <c r="B63" s="92">
+      <c r="B63" s="91">
         <v>0.41986499999999999</v>
       </c>
-      <c r="C63" s="92">
+      <c r="C63" s="91">
         <v>0.35540100000000002</v>
       </c>
-      <c r="D63" s="92">
+      <c r="D63" s="91">
         <v>0.41986499999999999</v>
       </c>
-      <c r="E63" s="92">
+      <c r="E63" s="91">
         <v>0.38322699999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="89">
+      <c r="A64" s="88">
         <v>106</v>
       </c>
-      <c r="B64" s="92">
+      <c r="B64" s="91">
         <v>0.437668</v>
       </c>
-      <c r="C64" s="92">
+      <c r="C64" s="91">
         <v>0.375944</v>
       </c>
-      <c r="D64" s="92">
+      <c r="D64" s="91">
         <v>0.437668</v>
       </c>
-      <c r="E64" s="92">
+      <c r="E64" s="91">
         <v>0.40228799999999998</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="89">
+      <c r="A65" s="88">
         <v>107</v>
       </c>
-      <c r="B65" s="92">
+      <c r="B65" s="91">
         <v>0.454347</v>
       </c>
-      <c r="C65" s="92">
+      <c r="C65" s="91">
         <v>0.388598</v>
       </c>
-      <c r="D65" s="92">
+      <c r="D65" s="91">
         <v>0.454347</v>
       </c>
-      <c r="E65" s="92">
+      <c r="E65" s="91">
         <v>0.42046099999999997</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="89">
+      <c r="A66" s="88">
         <v>108</v>
       </c>
-      <c r="B66" s="92">
+      <c r="B66" s="91">
         <v>0.47012799999999999</v>
       </c>
-      <c r="C66" s="92">
+      <c r="C66" s="91">
         <v>0.399982</v>
       </c>
-      <c r="D66" s="92">
+      <c r="D66" s="91">
         <v>0.47012799999999999</v>
       </c>
-      <c r="E66" s="92">
+      <c r="E66" s="91">
         <v>0.43795499999999998</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="89">
+      <c r="A67" s="88">
         <v>109</v>
       </c>
-      <c r="B67" s="92">
+      <c r="B67" s="91">
         <v>0.48492499999999999</v>
       </c>
-      <c r="C67" s="92">
+      <c r="C67" s="91">
         <v>0.43267099999999997</v>
       </c>
-      <c r="D67" s="92">
+      <c r="D67" s="91">
         <v>0.48492499999999999</v>
       </c>
-      <c r="E67" s="92">
+      <c r="E67" s="91">
         <v>0.45436900000000002</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="89">
+      <c r="A68" s="88">
         <v>110</v>
       </c>
-      <c r="B68" s="92">
+      <c r="B68" s="91">
         <v>0.498558</v>
       </c>
-      <c r="C68" s="92">
+      <c r="C68" s="91">
         <v>0.46975299999999998</v>
       </c>
-      <c r="D68" s="92">
+      <c r="D68" s="91">
         <v>0.498558</v>
       </c>
-      <c r="E68" s="92">
+      <c r="E68" s="91">
         <v>0.46975299999999998</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="89">
+      <c r="A69" s="88">
         <v>111</v>
       </c>
-      <c r="B69" s="92">
+      <c r="B69" s="91">
         <v>0.50341899999999995</v>
       </c>
-      <c r="C69" s="92">
+      <c r="C69" s="91">
         <v>0.455181</v>
       </c>
-      <c r="D69" s="92">
+      <c r="D69" s="91">
         <v>0.50341899999999995</v>
       </c>
-      <c r="E69" s="92">
+      <c r="E69" s="91">
         <v>0.48410599999999998</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="89">
+      <c r="A70" s="88">
         <v>112</v>
       </c>
-      <c r="B70" s="92">
+      <c r="B70" s="91">
         <v>0.50251000000000001</v>
       </c>
-      <c r="C70" s="92">
+      <c r="C70" s="91">
         <v>0.49745499999999998</v>
       </c>
-      <c r="D70" s="92">
+      <c r="D70" s="91">
         <v>0.50251000000000001</v>
       </c>
-      <c r="E70" s="92">
+      <c r="E70" s="91">
         <v>0.49745499999999998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="89">
+      <c r="A71" s="88">
         <v>113</v>
       </c>
-      <c r="B71" s="92">
+      <c r="B71" s="91">
         <v>0.50175499999999995</v>
       </c>
-      <c r="C71" s="92">
+      <c r="C71" s="91">
         <v>0.50301399999999996</v>
       </c>
-      <c r="D71" s="92">
+      <c r="D71" s="91">
         <v>0.50175499999999995</v>
       </c>
-      <c r="E71" s="92">
+      <c r="E71" s="91">
         <v>0.50301399999999996</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="89">
+      <c r="A72" s="88">
         <v>114</v>
       </c>
-      <c r="B72" s="92">
+      <c r="B72" s="91">
         <v>0.50090199999999996</v>
       </c>
-      <c r="C72" s="92">
+      <c r="C72" s="91">
         <v>0.50140300000000004</v>
       </c>
-      <c r="D72" s="92">
+      <c r="D72" s="91">
         <v>0.50090199999999996</v>
       </c>
-      <c r="E72" s="92">
+      <c r="E72" s="91">
         <v>0.50140300000000004</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="90">
+      <c r="A73" s="89">
         <v>115</v>
       </c>
-      <c r="B73" s="93">
+      <c r="B73" s="92">
         <v>0.5</v>
       </c>
-      <c r="C73" s="93">
+      <c r="C73" s="92">
         <v>0.5</v>
       </c>
-      <c r="D73" s="93">
+      <c r="D73" s="92">
         <v>0.5</v>
       </c>
-      <c r="E73" s="93">
+      <c r="E73" s="92">
         <v>0.5</v>
       </c>
     </row>
@@ -10145,24 +10160,24 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
         <v>201</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
         <v>202</v>
-      </c>
-      <c r="D70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B71">
         <f>3974+207425</f>
@@ -10172,11 +10187,11 @@
         <f>1000*(188002+11204863)/B71</f>
         <v>53892.709993897792</v>
       </c>
-      <c r="D71" s="110">
+      <c r="D71" s="95">
         <f>(3974*51.2+207425*46.6)/B71</f>
         <v>46.686473445948188</v>
       </c>
-      <c r="E71" s="110">
+      <c r="E71" s="95">
         <f>(3974*17.8+207425*13.3)/B71</f>
         <v>13.384593588427572</v>
       </c>
@@ -10187,7 +10202,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B72">
         <v>41189</v>
@@ -10209,7 +10224,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B73">
         <v>7280</v>
@@ -10333,7 +10348,7 @@
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -10516,7 +10531,7 @@
       <c r="A7" s="32">
         <v>19</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="69">
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
@@ -10527,7 +10542,7 @@
       <c r="A8" s="33">
         <v>20</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="70">
         <v>0.10249999999999999</v>
       </c>
     </row>
@@ -10535,7 +10550,7 @@
       <c r="A9" s="33">
         <v>21</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="70">
         <v>0.10050000000000001</v>
       </c>
     </row>
@@ -10543,7 +10558,7 @@
       <c r="A10" s="33">
         <v>22</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="70">
         <v>9.849999999999999E-2</v>
       </c>
     </row>
@@ -10551,7 +10566,7 @@
       <c r="A11" s="33">
         <v>23</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="70">
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
@@ -10559,7 +10574,7 @@
       <c r="A12" s="33">
         <v>24</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="70">
         <v>9.4499999999999987E-2</v>
       </c>
     </row>
@@ -10567,7 +10582,7 @@
       <c r="A13" s="33">
         <v>25</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="70">
         <v>9.2499999999999999E-2</v>
       </c>
     </row>
@@ -10575,7 +10590,7 @@
       <c r="A14" s="33">
         <v>26</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="70">
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
@@ -10583,7 +10598,7 @@
       <c r="A15" s="33">
         <v>27</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="70">
         <v>8.6500000000000007E-2</v>
       </c>
     </row>
@@ -10591,7 +10606,7 @@
       <c r="A16" s="33">
         <v>28</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="70">
         <v>8.3499999999999991E-2</v>
       </c>
     </row>
@@ -10599,7 +10614,7 @@
       <c r="A17" s="33">
         <v>29</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="70">
         <v>8.0500000000000002E-2</v>
       </c>
     </row>
@@ -10607,7 +10622,7 @@
       <c r="A18" s="33">
         <v>30</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="70">
         <v>7.7499999999999999E-2</v>
       </c>
     </row>
@@ -10615,7 +10630,7 @@
       <c r="A19" s="33">
         <v>31</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="70">
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
@@ -10623,7 +10638,7 @@
       <c r="A20" s="33">
         <v>32</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="70">
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
@@ -10631,7 +10646,7 @@
       <c r="A21" s="33">
         <v>33</v>
       </c>
-      <c r="B21" s="71">
+      <c r="B21" s="70">
         <v>7.1500000000000008E-2</v>
       </c>
     </row>
@@ -10639,7 +10654,7 @@
       <c r="A22" s="33">
         <v>34</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="70">
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
@@ -10647,7 +10662,7 @@
       <c r="A23" s="33">
         <v>35</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="70">
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
@@ -10655,7 +10670,7 @@
       <c r="A24" s="33">
         <v>36</v>
       </c>
-      <c r="B24" s="71">
+      <c r="B24" s="70">
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
@@ -10663,7 +10678,7 @@
       <c r="A25" s="33">
         <v>37</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="70">
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
@@ -10671,7 +10686,7 @@
       <c r="A26" s="33">
         <v>38</v>
       </c>
-      <c r="B26" s="71">
+      <c r="B26" s="70">
         <v>6.1500000000000006E-2</v>
       </c>
     </row>
@@ -10679,7 +10694,7 @@
       <c r="A27" s="33">
         <v>39</v>
       </c>
-      <c r="B27" s="71">
+      <c r="B27" s="70">
         <v>5.9500000000000004E-2</v>
       </c>
     </row>
@@ -10687,7 +10702,7 @@
       <c r="A28" s="33">
         <v>40</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="70">
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
@@ -10695,7 +10710,7 @@
       <c r="A29" s="33">
         <v>41</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="70">
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
@@ -10703,7 +10718,7 @@
       <c r="A30" s="33">
         <v>42</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="70">
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
@@ -10711,7 +10726,7 @@
       <c r="A31" s="33">
         <v>43</v>
       </c>
-      <c r="B31" s="71">
+      <c r="B31" s="70">
         <v>5.1500000000000004E-2</v>
       </c>
     </row>
@@ -10719,7 +10734,7 @@
       <c r="A32" s="33">
         <v>44</v>
       </c>
-      <c r="B32" s="71">
+      <c r="B32" s="70">
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
@@ -10727,7 +10742,7 @@
       <c r="A33" s="33">
         <v>45</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="70">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
@@ -10735,7 +10750,7 @@
       <c r="A34" s="33">
         <v>46</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="71">
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
@@ -10743,7 +10758,7 @@
       <c r="A35" s="33">
         <v>47</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="69">
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
@@ -10751,7 +10766,7 @@
       <c r="A36" s="33">
         <v>48</v>
       </c>
-      <c r="B36" s="71">
+      <c r="B36" s="70">
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
@@ -10759,7 +10774,7 @@
       <c r="A37" s="33">
         <v>49</v>
       </c>
-      <c r="B37" s="71">
+      <c r="B37" s="70">
         <v>3.95E-2</v>
       </c>
     </row>
@@ -10767,7 +10782,7 @@
       <c r="A38" s="33">
         <v>50</v>
       </c>
-      <c r="B38" s="71">
+      <c r="B38" s="70">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -10775,7 +10790,7 @@
       <c r="A39" s="33">
         <v>51</v>
       </c>
-      <c r="B39" s="71">
+      <c r="B39" s="70">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
@@ -10783,7 +10798,7 @@
       <c r="A40" s="33">
         <v>52</v>
       </c>
-      <c r="B40" s="71">
+      <c r="B40" s="70">
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
@@ -10791,7 +10806,7 @@
       <c r="A41" s="33">
         <v>53</v>
       </c>
-      <c r="B41" s="71">
+      <c r="B41" s="70">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -10799,7 +10814,7 @@
       <c r="A42" s="33">
         <v>54</v>
       </c>
-      <c r="B42" s="71">
+      <c r="B42" s="70">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
@@ -10807,7 +10822,7 @@
       <c r="A43" s="33">
         <v>55</v>
       </c>
-      <c r="B43" s="71">
+      <c r="B43" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10815,7 +10830,7 @@
       <c r="A44" s="33">
         <v>56</v>
       </c>
-      <c r="B44" s="71">
+      <c r="B44" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10823,7 +10838,7 @@
       <c r="A45" s="33">
         <v>57</v>
       </c>
-      <c r="B45" s="71">
+      <c r="B45" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10831,7 +10846,7 @@
       <c r="A46" s="33">
         <v>58</v>
       </c>
-      <c r="B46" s="71">
+      <c r="B46" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10839,7 +10854,7 @@
       <c r="A47" s="33">
         <v>59</v>
       </c>
-      <c r="B47" s="71">
+      <c r="B47" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10847,7 +10862,7 @@
       <c r="A48" s="33">
         <v>60</v>
       </c>
-      <c r="B48" s="71">
+      <c r="B48" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10855,7 +10870,7 @@
       <c r="A49" s="33">
         <v>61</v>
       </c>
-      <c r="B49" s="71">
+      <c r="B49" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10863,7 +10878,7 @@
       <c r="A50" s="33">
         <v>62</v>
       </c>
-      <c r="B50" s="71">
+      <c r="B50" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10871,7 +10886,7 @@
       <c r="A51" s="33">
         <v>63</v>
       </c>
-      <c r="B51" s="71">
+      <c r="B51" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10879,7 +10894,7 @@
       <c r="A52" s="33">
         <v>64</v>
       </c>
-      <c r="B52" s="71">
+      <c r="B52" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10887,7 +10902,7 @@
       <c r="A53" s="33">
         <v>65</v>
       </c>
-      <c r="B53" s="71">
+      <c r="B53" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10895,7 +10910,7 @@
       <c r="A54" s="33">
         <v>66</v>
       </c>
-      <c r="B54" s="71">
+      <c r="B54" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10903,7 +10918,7 @@
       <c r="A55" s="33">
         <v>67</v>
       </c>
-      <c r="B55" s="71">
+      <c r="B55" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10911,7 +10926,7 @@
       <c r="A56" s="33">
         <v>68</v>
       </c>
-      <c r="B56" s="71">
+      <c r="B56" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10919,7 +10934,7 @@
       <c r="A57" s="33">
         <v>69</v>
       </c>
-      <c r="B57" s="71">
+      <c r="B57" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10927,7 +10942,7 @@
       <c r="A58" s="33">
         <v>70</v>
       </c>
-      <c r="B58" s="71">
+      <c r="B58" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10935,7 +10950,7 @@
       <c r="A59" s="33">
         <v>71</v>
       </c>
-      <c r="B59" s="71">
+      <c r="B59" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10943,7 +10958,7 @@
       <c r="A60" s="33">
         <v>72</v>
       </c>
-      <c r="B60" s="71">
+      <c r="B60" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10951,7 +10966,7 @@
       <c r="A61" s="33">
         <v>73</v>
       </c>
-      <c r="B61" s="71">
+      <c r="B61" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
@@ -10980,9 +10995,9 @@
     <col min="3" max="3" width="32.28515625" style="24" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="57" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="62" customWidth="1"/>
     <col min="7" max="7" width="32.28515625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="65" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="15" max="19" width="14.5703125" customWidth="1"/>
   </cols>
@@ -11036,13 +11051,13 @@
       <c r="E6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>73</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -11062,13 +11077,13 @@
       <c r="E7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>82</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="67" t="s">
         <v>84</v>
       </c>
       <c r="I7" s="47" t="s">

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -784,9 +784,6 @@
     <t>AV2015 pdf p14</t>
   </si>
   <si>
-    <t>B61</t>
-  </si>
-  <si>
     <t>Exp2016 pdf p55</t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>tF</t>
+  </si>
+  <si>
+    <t>B62</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3946,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4102,65 +4102,65 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>129</v>
-      </c>
       <c r="D4" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>134</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="100" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>137</v>
       </c>
       <c r="C7" s="100"/>
       <c r="D7" s="102"/>
@@ -4168,22 +4168,22 @@
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="96"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -4332,35 +4332,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>161</v>
-      </c>
       <c r="D6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>160</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
@@ -4368,16 +4368,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="D7" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="E7" s="75" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>174</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -5376,7 +5376,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -5401,28 +5401,28 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="97"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,25 +5430,25 @@
         <v>65</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="105"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="107"/>
     </row>
@@ -5503,45 +5503,45 @@
         <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="103" t="s">
         <v>156</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>157</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>161</v>
-      </c>
       <c r="D6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>161</v>
-      </c>
       <c r="F6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="73" t="s">
         <v>160</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
@@ -5549,22 +5549,22 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="D7" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="E7" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="F7" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="75" t="s">
         <v>165</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6599,25 +6599,25 @@
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="97"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="108"/>
     </row>
@@ -6626,13 +6626,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -6690,27 +6690,27 @@
         <v>51</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,10 +6718,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>177</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>178</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -7378,18 +7378,18 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="102"/>
     </row>
@@ -7398,7 +7398,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="102"/>
     </row>
@@ -7448,25 +7448,25 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7474,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8134,7 +8134,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8142,7 +8142,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>59</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
@@ -8314,35 +8314,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="110" t="s">
         <v>183</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>184</v>
       </c>
       <c r="C5" s="110"/>
       <c r="D5" s="110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="109"/>
       <c r="B6" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>187</v>
-      </c>
       <c r="D6" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8350,16 +8350,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>191</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -10160,24 +10160,24 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" t="s">
         <v>198</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>199</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>200</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>201</v>
-      </c>
-      <c r="F70" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71">
         <f>3974+207425</f>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72">
         <v>41189</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73">
         <v>7280</v>
@@ -10478,10 +10478,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10508,7 +10508,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -10535,7 +10535,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -10967,6 +10967,14 @@
         <v>73</v>
       </c>
       <c r="B61" s="70">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
+        <v>74</v>
+      </c>
+      <c r="B62" s="70">
         <v>3.2500000000000001E-2</v>
       </c>
     </row>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -4083,7 +4083,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,7 +4303,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5376,8 +5376,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8114,7 +8114,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="38">
         <v>1</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="52">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="52">
         <v>1</v>
@@ -10480,7 +10480,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -5376,7 +5376,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -10133,8 +10133,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>factor.ca.disb</t>
   </si>
   <si>
-    <t>EEC.rate</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -1409,9 +1406,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>K9</t>
-  </si>
-  <si>
     <t>cola</t>
   </si>
   <si>
@@ -1425,6 +1419,12 @@
   </si>
   <si>
     <t>B62</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>EEC_rate</t>
   </si>
 </sst>
 </file>
@@ -3701,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3749,7 +3749,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>42</v>
@@ -3842,42 +3842,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3936,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -3946,25 +3946,25 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,65 +4102,65 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>127</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>133</v>
-      </c>
       <c r="D5" s="101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="101"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="100" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="100" t="s">
-        <v>136</v>
       </c>
       <c r="C7" s="100"/>
       <c r="D7" s="102"/>
@@ -4168,22 +4168,22 @@
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="96"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -4332,35 +4332,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>160</v>
-      </c>
       <c r="D6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
@@ -4368,16 +4368,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="D7" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="E7" s="75" t="s">
         <v>172</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>173</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -5401,28 +5401,28 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="97"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,25 +5430,25 @@
         <v>65</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="105"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="107"/>
     </row>
@@ -5503,45 +5503,45 @@
         <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="103" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>156</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="103"/>
       <c r="F5" s="103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>160</v>
-      </c>
       <c r="D6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>160</v>
-      </c>
       <c r="F6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="73" t="s">
         <v>159</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
@@ -5549,22 +5549,22 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="D7" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="E7" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="F7" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="75" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6599,25 +6599,25 @@
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="97"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="108"/>
     </row>
@@ -6626,13 +6626,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -6690,27 +6690,27 @@
         <v>51</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>159</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,10 +6718,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>176</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>177</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -7378,18 +7378,18 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>127</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="102"/>
     </row>
@@ -7398,7 +7398,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="102"/>
     </row>
@@ -7448,25 +7448,25 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="103"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>159</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7474,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>180</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8113,8 +8113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,7 +8134,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8142,7 +8142,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8150,7 +8150,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>59</v>
@@ -8174,12 +8174,12 @@
         <v>62</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
@@ -8314,35 +8314,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="110" t="s">
         <v>182</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>183</v>
       </c>
       <c r="C5" s="110"/>
       <c r="D5" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="109"/>
       <c r="B6" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>186</v>
-      </c>
       <c r="D6" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>185</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8350,16 +8350,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>190</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9541,7 +9541,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9549,27 +9549,27 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
         <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
       </c>
       <c r="J5">
         <v>3.5000000000000003E-2</v>
@@ -9596,7 +9596,7 @@
         <v>5324062.2605363978</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>2.9000000000000001E-2</v>
@@ -9619,7 +9619,7 @@
         <v>5558321</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7" s="50">
         <v>0.02</v>
@@ -10151,7 +10151,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10160,24 +10160,24 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
         <v>197</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>198</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>199</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>200</v>
-      </c>
-      <c r="F70" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71">
         <f>3974+207425</f>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72">
         <v>41189</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73">
         <v>7280</v>
@@ -10254,7 +10254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -10334,7 +10334,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -10343,16 +10343,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -10382,7 +10382,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -10508,7 +10508,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -10535,7 +10535,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11028,16 +11028,16 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11045,28 +11045,28 @@
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="66" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="66" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11074,28 +11074,28 @@
         <v>58</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="D7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="E7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="F7" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="G7" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="H7" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="I7" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -2759,15 +2759,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>570843</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361293</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>112702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2791,7 +2791,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676900" y="857250"/>
+          <a:off x="590550" y="666750"/>
           <a:ext cx="5257143" cy="12780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8113,8 +8113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S72" sqref="S72"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10370,7 +10370,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -2667,15 +2667,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>418155</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>742329</xdr:rowOff>
+      <xdr:colOff>475305</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2698,7 +2698,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10458450" y="1390650"/>
+          <a:off x="10515600" y="3448050"/>
           <a:ext cx="7561905" cy="4971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10133,8 +10133,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10284,8 +10284,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10369,7 +10369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -10399,8 +10399,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="211">
   <si>
     <t>Notes</t>
   </si>
@@ -595,12 +595,6 @@
   </si>
   <si>
     <t>GenFund.high</t>
-  </si>
-  <si>
-    <t>GenFund.med</t>
-  </si>
-  <si>
-    <t>GenFund.low</t>
   </si>
   <si>
     <t>C5</t>
@@ -1946,6 +1940,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1990,46 +2024,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2564,27 +2558,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>570500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>150997</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323062</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424DC9A7-90D6-441C-A495-480D10F5A923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0DB7B5-DA26-498D-9B05-4F7BC8C260C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2600,8 +2594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="1123950"/>
-          <a:ext cx="8000000" cy="11219047"/>
+          <a:off x="8858250" y="1866900"/>
+          <a:ext cx="6304762" cy="3752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,6 +2604,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>532528</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>37667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C338BC16-6FE4-43CB-A198-8EB259432F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="5715000"/>
+          <a:ext cx="6971428" cy="3466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -2637,7 +2680,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2646,6 +2689,50 @@
         <a:xfrm>
           <a:off x="8705850" y="1181100"/>
           <a:ext cx="8133333" cy="11561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570471</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>150990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0676B19-3E49-4D13-9C2D-5C8C173E3BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="876300"/>
+          <a:ext cx="8228571" cy="11276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3740,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3788,7 +3875,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,7 +3923,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3931,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3873,7 +3960,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>42</v>
@@ -3881,42 +3968,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3954,7 +4041,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,7 +4072,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -4008,7 +4095,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C7" s="87">
         <v>-565540000</v>
@@ -4016,7 +4103,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C8" s="87">
         <v>-565540000</v>
@@ -4024,7 +4111,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C9" s="87">
         <v>-565540000</v>
@@ -4032,7 +4119,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C10" s="87">
         <v>-565540000</v>
@@ -4040,7 +4127,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C11" s="87">
         <v>-565540000</v>
@@ -4048,7 +4135,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C12" s="87">
         <v>-565540000</v>
@@ -4056,7 +4143,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C13" s="87">
         <v>-565540000</v>
@@ -4064,7 +4151,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C14" s="87">
         <v>-565540000</v>
@@ -4072,7 +4159,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C15" s="87">
         <v>-565540000</v>
@@ -4081,7 +4168,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C16" s="87">
         <v>-565540000</v>
@@ -4140,89 +4227,89 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91" t="s">
+      <c r="B3" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="106"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="94"/>
+        <v>129</v>
+      </c>
+      <c r="D5" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="108"/>
     </row>
     <row r="6" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="95"/>
+        <v>134</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="109"/>
     </row>
     <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+        <v>131</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="107"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
     </row>
     <row r="8" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="D8" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="89"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -4371,35 +4458,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="96"/>
+      <c r="A5" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
@@ -4407,16 +4494,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="E7" s="68" t="s">
         <v>169</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>171</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -5439,57 +5526,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="90"/>
+      <c r="B4" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="95"/>
+      <c r="B7" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="109"/>
     </row>
     <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="100"/>
+      <c r="C9" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5542,45 +5629,45 @@
         <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96" t="s">
+      <c r="G5" s="110"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96" t="s">
+      <c r="C6" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="96"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>158</v>
-      </c>
       <c r="D6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
@@ -5588,22 +5675,22 @@
         <v>53</v>
       </c>
       <c r="B7" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="E7" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="F7" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="68" t="s">
         <v>161</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6637,41 +6724,41 @@
     </row>
     <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="90"/>
+      <c r="B4" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="101"/>
+        <v>122</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="115"/>
     </row>
     <row r="7" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="95"/>
+      <c r="B7" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="109"/>
     </row>
     <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -6729,27 +6816,27 @@
         <v>51</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="96"/>
+      <c r="A5" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="110"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,10 +6844,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="21"/>
     </row>
@@ -7417,29 +7504,29 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="95"/>
+        <v>122</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="95"/>
+      <c r="B5" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7487,25 +7574,25 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="96"/>
+      <c r="A5" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="110"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7513,10 +7600,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8173,7 +8260,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8181,7 +8268,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8189,7 +8276,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>59</v>
@@ -8213,12 +8300,12 @@
         <v>62</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -8250,7 +8337,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -8282,7 +8369,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
@@ -8353,35 +8440,35 @@
         <v>51</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="E5" s="117"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="116"/>
+      <c r="B6" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103" t="s">
+      <c r="C6" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="103"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>184</v>
-      </c>
       <c r="D6" s="78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8389,16 +8476,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>188</v>
-      </c>
       <c r="E7" s="79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9554,10 +9641,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9565,33 +9652,37 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>32311/30902</f>
+        <v>1.0455957543201087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>87</v>
       </c>
@@ -9601,561 +9692,322 @@
       <c r="E5" t="s">
         <v>93</v>
       </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
       <c r="G5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
         <v>90</v>
       </c>
-      <c r="J5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O5">
+        <f>32971/32311</f>
+        <v>1.0204264801460803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2015</v>
       </c>
       <c r="D6" s="44">
-        <f>D7/(1+0.044)</f>
+        <v>30902</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" ref="E6" si="0">E7/(1+0.044)</f>
         <v>5324062.2605363978</v>
       </c>
-      <c r="E6" s="44">
-        <f t="shared" ref="E6:G6" si="0">E7/(1+0.044)</f>
-        <v>5324062.2605363978</v>
-      </c>
-      <c r="F6" s="44">
-        <f t="shared" si="0"/>
-        <v>5324062.2605363978</v>
-      </c>
-      <c r="G6" s="44">
-        <f t="shared" si="0"/>
-        <v>5324062.2605363978</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
         <v>91</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2016</v>
       </c>
       <c r="D7" s="45">
-        <v>5558321</v>
+        <v>32311</v>
       </c>
       <c r="E7" s="45">
         <v>5558321</v>
       </c>
-      <c r="F7" s="45">
-        <v>5558321</v>
-      </c>
-      <c r="G7" s="45">
-        <v>5558321</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="46">
+      <c r="H7" s="46">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" s="45">
-        <v>5600426</v>
+        <v>32971</v>
       </c>
       <c r="E8" s="45">
         <v>5600426</v>
       </c>
-      <c r="F8" s="45">
-        <v>5600426</v>
-      </c>
-      <c r="G8" s="45">
-        <v>5600426</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2018</v>
       </c>
       <c r="D9" s="45">
-        <v>5783199</v>
+        <v>34176</v>
       </c>
       <c r="E9" s="45">
         <v>5783199</v>
       </c>
-      <c r="F9" s="45">
-        <v>5783199</v>
-      </c>
-      <c r="G9" s="45">
-        <v>5783199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2019</v>
       </c>
       <c r="D10" s="45">
-        <v>5983030</v>
+        <v>35379</v>
       </c>
       <c r="E10" s="45">
         <v>5983030</v>
       </c>
-      <c r="F10" s="45">
-        <v>5983030</v>
-      </c>
-      <c r="G10" s="45">
-        <v>5983030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11" s="45">
-        <v>6156556</v>
+        <v>36758</v>
       </c>
       <c r="E11" s="45">
         <v>6156556</v>
       </c>
-      <c r="F11" s="45">
-        <v>6156556</v>
-      </c>
-      <c r="G11" s="45">
-        <v>6156556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="45">
+        <v>37936</v>
+      </c>
       <c r="E12" s="47">
-        <f>E11*(1 + $J$5)</f>
-        <v>6372035.46</v>
-      </c>
-      <c r="F12" s="47">
-        <f>F11*(1 + $J$6)</f>
-        <v>6335096.1239999998</v>
-      </c>
-      <c r="G12" s="47">
-        <f>G11*(1 + $J$7)</f>
-        <v>6279687.1200000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E11*(1 + $H$5)</f>
+        <v>6359722.3479999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="E13" s="47">
-        <f t="shared" ref="E13:E35" si="1">E12*(1 + J$5)</f>
-        <v>6595056.7010999992</v>
-      </c>
-      <c r="F13" s="47">
-        <f t="shared" ref="F13:F36" si="2">F12*(1 + $J$6)</f>
-        <v>6518813.9115959993</v>
-      </c>
-      <c r="G13" s="47">
-        <f t="shared" ref="G13:G36" si="3">G12*(1 + $J$7)</f>
-        <v>6405280.8624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E12*(1 + H$5)</f>
+        <v>6569593.1854839986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2023</v>
       </c>
       <c r="E14" s="47">
-        <f t="shared" si="1"/>
-        <v>6825883.6856384985</v>
-      </c>
-      <c r="F14" s="47">
-        <f t="shared" si="2"/>
-        <v>6707859.515032283</v>
-      </c>
-      <c r="G14" s="47">
-        <f t="shared" si="3"/>
-        <v>6533386.4796480006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E13*(1 + H$5)</f>
+        <v>6786389.7606049702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="E15" s="47">
-        <f t="shared" si="1"/>
-        <v>7064789.6146358456</v>
-      </c>
-      <c r="F15" s="47">
-        <f t="shared" si="2"/>
-        <v>6902387.4409682183</v>
-      </c>
-      <c r="G15" s="47">
-        <f t="shared" si="3"/>
-        <v>6664054.2092409609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E14*(1 + H$5)</f>
+        <v>7010340.6227049334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2025</v>
       </c>
       <c r="E16" s="47">
-        <f t="shared" si="1"/>
-        <v>7312057.2511481</v>
-      </c>
-      <c r="F16" s="47">
-        <f t="shared" si="2"/>
-        <v>7102556.6767562963</v>
-      </c>
-      <c r="G16" s="47">
-        <f t="shared" si="3"/>
-        <v>6797335.2934257798</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E15*(1 + H$5)</f>
+        <v>7241681.863254196</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>2026</v>
       </c>
       <c r="E17" s="47">
-        <f t="shared" si="1"/>
-        <v>7567979.254938283</v>
-      </c>
-      <c r="F17" s="47">
-        <f t="shared" si="2"/>
-        <v>7308530.8203822281</v>
-      </c>
-      <c r="G17" s="47">
-        <f t="shared" si="3"/>
-        <v>6933281.9992942959</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E16*(1 + H$5)</f>
+        <v>7480657.3647415843</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2027</v>
       </c>
       <c r="E18" s="47">
-        <f t="shared" si="1"/>
-        <v>7832858.5288611222</v>
-      </c>
-      <c r="F18" s="47">
-        <f t="shared" si="2"/>
-        <v>7520478.2141733123</v>
-      </c>
-      <c r="G18" s="47">
-        <f t="shared" si="3"/>
-        <v>7071947.6392801823</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E17*(1 + H$5)</f>
+        <v>7727519.0577780558</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2028</v>
       </c>
       <c r="E19" s="47">
-        <f t="shared" si="1"/>
-        <v>8107008.5773712611</v>
-      </c>
-      <c r="F19" s="47">
-        <f t="shared" si="2"/>
-        <v>7738572.0823843377</v>
-      </c>
-      <c r="G19" s="47">
-        <f t="shared" si="3"/>
-        <v>7213386.592065786</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E18*(1 + H$5)</f>
+        <v>7982527.1866847314</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2029</v>
       </c>
       <c r="E20" s="47">
-        <f t="shared" si="1"/>
-        <v>8390753.877579255</v>
-      </c>
-      <c r="F20" s="47">
-        <f t="shared" si="2"/>
-        <v>7962990.6727734832</v>
-      </c>
-      <c r="G20" s="47">
-        <f t="shared" si="3"/>
-        <v>7357654.3239071015</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E19*(1 + H$5)</f>
+        <v>8245950.5838453267</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2030</v>
       </c>
       <c r="E21" s="47">
-        <f t="shared" si="1"/>
-        <v>8684430.2632945292</v>
-      </c>
-      <c r="F21" s="47">
-        <f t="shared" si="2"/>
-        <v>8193917.4022839135</v>
-      </c>
-      <c r="G21" s="47">
-        <f t="shared" si="3"/>
-        <v>7504807.4103852436</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E20*(1 + H$5)</f>
+        <v>8518066.9531122223</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2031</v>
       </c>
       <c r="E22" s="47">
-        <f t="shared" si="1"/>
-        <v>8988385.3225098364</v>
-      </c>
-      <c r="F22" s="47">
-        <f t="shared" si="2"/>
-        <v>8431541.0069501456</v>
-      </c>
-      <c r="G22" s="47">
-        <f t="shared" si="3"/>
-        <v>7654903.5585929491</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E21*(1 + H$5)</f>
+        <v>8799163.162564924</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2032</v>
       </c>
       <c r="E23" s="47">
-        <f t="shared" si="1"/>
-        <v>9302978.8087976798</v>
-      </c>
-      <c r="F23" s="47">
-        <f t="shared" si="2"/>
-        <v>8676055.6961516999</v>
-      </c>
-      <c r="G23" s="47">
-        <f t="shared" si="3"/>
-        <v>7808001.6297648083</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E22*(1 + H$5)</f>
+        <v>9089535.5469295662</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>2033</v>
       </c>
       <c r="E24" s="47">
-        <f t="shared" si="1"/>
-        <v>9628583.0671055987</v>
-      </c>
-      <c r="F24" s="47">
-        <f t="shared" si="2"/>
-        <v>8927661.3113400992</v>
-      </c>
-      <c r="G24" s="47">
-        <f t="shared" si="3"/>
-        <v>7964161.6623601047</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E23*(1 + H$5)</f>
+        <v>9389490.2199782412</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>2034</v>
       </c>
       <c r="E25" s="47">
-        <f t="shared" si="1"/>
-        <v>9965583.474454293</v>
-      </c>
-      <c r="F25" s="47">
-        <f t="shared" si="2"/>
-        <v>9186563.4893689621</v>
-      </c>
-      <c r="G25" s="47">
-        <f t="shared" si="3"/>
-        <v>8123444.8956073066</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E24*(1 + H$5)</f>
+        <v>9699343.3972375225</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2035</v>
       </c>
       <c r="E26" s="47">
-        <f t="shared" si="1"/>
-        <v>10314378.896060193</v>
-      </c>
-      <c r="F26" s="47">
-        <f t="shared" si="2"/>
-        <v>9452973.8305606619</v>
-      </c>
-      <c r="G26" s="47">
-        <f t="shared" si="3"/>
-        <v>8285913.7935194531</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E25*(1 + H$5)</f>
+        <v>10019421.729346359</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2036</v>
       </c>
       <c r="E27" s="47">
-        <f t="shared" si="1"/>
-        <v>10675382.157422299</v>
-      </c>
-      <c r="F27" s="47">
-        <f t="shared" si="2"/>
-        <v>9727110.0716469195</v>
-      </c>
-      <c r="G27" s="47">
-        <f t="shared" si="3"/>
-        <v>8451632.0693898425</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E26*(1 + H$5)</f>
+        <v>10350062.646414788</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>2037</v>
       </c>
       <c r="E28" s="47">
-        <f t="shared" si="1"/>
-        <v>11049020.532932078</v>
-      </c>
-      <c r="F28" s="47">
-        <f t="shared" si="2"/>
-        <v>10009196.263724679</v>
-      </c>
-      <c r="G28" s="47">
-        <f t="shared" si="3"/>
-        <v>8620664.7107776403</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E27*(1 + H$5)</f>
+        <v>10691614.713746475</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>2038</v>
       </c>
       <c r="E29" s="47">
-        <f t="shared" si="1"/>
-        <v>11435736.251584701</v>
-      </c>
-      <c r="F29" s="47">
-        <f t="shared" si="2"/>
-        <v>10299462.955372695</v>
-      </c>
-      <c r="G29" s="47">
-        <f t="shared" si="3"/>
-        <v>8793078.0049931929</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E28*(1 + H$5)</f>
+        <v>11044437.999300107</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>2039</v>
       </c>
       <c r="E30" s="47">
-        <f t="shared" si="1"/>
-        <v>11835987.020390164</v>
-      </c>
-      <c r="F30" s="47">
-        <f t="shared" si="2"/>
-        <v>10598147.381078502</v>
-      </c>
-      <c r="G30" s="47">
-        <f t="shared" si="3"/>
-        <v>8968939.5650930572</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E29*(1 + H$5)</f>
+        <v>11408904.45327701</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>2040</v>
       </c>
       <c r="E31" s="47">
-        <f t="shared" si="1"/>
-        <v>12250246.56610382</v>
-      </c>
-      <c r="F31" s="47">
-        <f t="shared" si="2"/>
-        <v>10905493.655129777</v>
-      </c>
-      <c r="G31" s="47">
-        <f t="shared" si="3"/>
-        <v>9148318.3563949186</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E30*(1 + H$5)</f>
+        <v>11785398.30023515</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>2041</v>
       </c>
       <c r="E32" s="47">
-        <f t="shared" si="1"/>
-        <v>12679005.195917452</v>
-      </c>
-      <c r="F32" s="47">
-        <f t="shared" si="2"/>
-        <v>11221752.97112854</v>
-      </c>
-      <c r="G32" s="47">
-        <f t="shared" si="3"/>
-        <v>9331284.7235228177</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E31*(1 + H$5)</f>
+        <v>12174316.44414291</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>2042</v>
       </c>
       <c r="E33" s="47">
-        <f t="shared" si="1"/>
-        <v>13122770.377774561</v>
-      </c>
-      <c r="F33" s="47">
-        <f t="shared" si="2"/>
-        <v>11547183.807291267</v>
-      </c>
-      <c r="G33" s="47">
-        <f t="shared" si="3"/>
-        <v>9517910.4179932736</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E32*(1 + H$5)</f>
+        <v>12576068.886799624</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2043</v>
       </c>
       <c r="E34" s="47">
-        <f t="shared" si="1"/>
-        <v>13582067.34099667</v>
-      </c>
-      <c r="F34" s="47">
-        <f t="shared" si="2"/>
-        <v>11882052.137702713</v>
-      </c>
-      <c r="G34" s="47">
-        <f t="shared" si="3"/>
-        <v>9708268.6263531391</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E33*(1 + H$5)</f>
+        <v>12991079.16006401</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>2044</v>
       </c>
       <c r="E35" s="47">
-        <f t="shared" si="1"/>
-        <v>14057439.697931552</v>
-      </c>
-      <c r="F35" s="47">
-        <f t="shared" si="2"/>
-        <v>12226631.649696091</v>
-      </c>
-      <c r="G35" s="47">
-        <f t="shared" si="3"/>
-        <v>9902433.998880202</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+        <f>E34*(1 + H$5)</f>
+        <v>13419784.77234612</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>2045</v>
       </c>
       <c r="E36" s="47">
-        <f t="shared" ref="E36" si="4">E35*(1 + J$5)</f>
-        <v>14549450.087359155</v>
-      </c>
-      <c r="F36" s="47">
-        <f t="shared" si="2"/>
-        <v>12581203.967537276</v>
-      </c>
-      <c r="G36" s="47">
-        <f t="shared" si="3"/>
-        <v>10100482.678857807</v>
+        <f>E35*(1 + H$5)</f>
+        <v>13862637.669833541</v>
       </c>
     </row>
   </sheetData>
@@ -10164,6 +10016,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10190,7 +10043,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10199,24 +10052,24 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" t="s">
         <v>195</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>196</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>197</v>
-      </c>
-      <c r="E70" t="s">
-        <v>198</v>
-      </c>
-      <c r="F70" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B71">
         <f>3974+207425</f>
@@ -10241,7 +10094,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B72">
         <v>41189</v>
@@ -10263,7 +10116,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B73">
         <v>7280</v>
@@ -10293,8 +10146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="AC43" sqref="AC43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10306,7 +10159,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -10341,7 +10194,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -10365,7 +10218,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -10373,7 +10226,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -10382,16 +10235,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -10421,7 +10274,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -10547,7 +10400,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -10574,7 +10427,7 @@
         <v>0.10249999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11067,7 +10920,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F3" s="50"/>
     </row>
@@ -11109,271 +10962,271 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="90" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="92" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="114">
+      <c r="C8" s="99">
         <v>2011</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="95">
         <v>16729283000</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="96">
         <v>24</v>
       </c>
-      <c r="F8" s="110">
+      <c r="F8" s="95">
         <v>18104409000</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="96">
         <f>24 - (2015 - C8)</f>
         <v>20</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="101">
         <v>1409996000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="112">
+        <v>208</v>
+      </c>
+      <c r="C9" s="97">
         <v>2011</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="98">
         <v>3419297000</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="96">
         <v>24</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="98">
         <v>3788049000</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="96">
         <f t="shared" ref="G9:G14" si="0">24 - (2015 - C9)</f>
         <v>20</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="102">
         <v>295019000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="112">
+        <v>208</v>
+      </c>
+      <c r="C10" s="97">
         <v>2012</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="98">
         <v>564642000</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="96">
         <v>24</v>
       </c>
-      <c r="F10" s="113">
+      <c r="F10" s="98">
         <v>618361000</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="96">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="102">
         <v>46630000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="112">
+        <v>209</v>
+      </c>
+      <c r="C11" s="97">
         <v>2012</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="98">
         <v>4592397000</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="96">
         <v>24</v>
       </c>
-      <c r="F11" s="113">
+      <c r="F11" s="98">
         <v>5029313000</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="96">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="102">
         <v>379255000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="112">
+        <v>208</v>
+      </c>
+      <c r="C12" s="97">
         <v>2013</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="98">
         <v>2372550000</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="96">
         <v>24</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="98">
         <v>2587142000</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="96">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="102">
         <v>189307000</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="112">
+        <v>208</v>
+      </c>
+      <c r="C13" s="97">
         <v>2014</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="98">
         <v>2707494000</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="96">
         <v>24</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="98">
         <v>2933999000</v>
       </c>
-      <c r="G13" s="111">
+      <c r="G13" s="96">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="102">
         <v>208727000</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="112">
+        <v>208</v>
+      </c>
+      <c r="C14" s="97">
         <v>2015</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="98">
         <v>2170432000</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="96">
         <v>24</v>
       </c>
-      <c r="F14" s="113">
+      <c r="F14" s="98">
         <v>2333214000</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="96">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H14" s="117">
+      <c r="H14" s="102">
         <v>161665000</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="114">
+        <v>208</v>
+      </c>
+      <c r="C15" s="99">
         <v>2016</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="95">
         <v>1941277000</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="96">
         <v>24</v>
       </c>
-      <c r="F15" s="115">
+      <c r="F15" s="100">
         <v>1941277000</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="96">
         <v>24</v>
       </c>
-      <c r="H15" s="116">
+      <c r="H15" s="101">
         <v>139707000</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Death_decRet" sheetId="5" r:id="rId20"/>
     <sheet name="Health" sheetId="34" r:id="rId21"/>
     <sheet name="Fiscal" sheetId="28" r:id="rId22"/>
+    <sheet name="Options" sheetId="36" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="214">
   <si>
     <t>Notes</t>
   </si>
@@ -1434,6 +1435,15 @@
   </si>
   <si>
     <t>I15</t>
+  </si>
+  <si>
+    <t>AV2015 pdf p55</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2651,27 +2661,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>379983</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>170005</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418355</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA90698-27D7-4FFF-B4FA-BB7834337908}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7142FEE-1D09-49BA-A788-BF1E9D0882FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,8 +2697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705850" y="1181100"/>
-          <a:ext cx="8133333" cy="11561905"/>
+          <a:off x="552450" y="647700"/>
+          <a:ext cx="5961905" cy="8704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2697,6 +2707,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2724,7 +2739,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2733,6 +2748,50 @@
         <a:xfrm>
           <a:off x="266700" y="876300"/>
           <a:ext cx="8228571" cy="11276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>113305</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>17621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1587B880-4535-41AA-9D29-40B100CCBF2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="781050"/>
+          <a:ext cx="7961905" cy="11428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9643,7 +9702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -9799,7 +9858,7 @@
         <v>2022</v>
       </c>
       <c r="E13" s="47">
-        <f>E12*(1 + H$5)</f>
+        <f t="shared" ref="E13:E36" si="1">E12*(1 + H$5)</f>
         <v>6569593.1854839986</v>
       </c>
     </row>
@@ -9808,7 +9867,7 @@
         <v>2023</v>
       </c>
       <c r="E14" s="47">
-        <f>E13*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>6786389.7606049702</v>
       </c>
     </row>
@@ -9817,7 +9876,7 @@
         <v>2024</v>
       </c>
       <c r="E15" s="47">
-        <f>E14*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>7010340.6227049334</v>
       </c>
     </row>
@@ -9826,7 +9885,7 @@
         <v>2025</v>
       </c>
       <c r="E16" s="47">
-        <f>E15*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>7241681.863254196</v>
       </c>
     </row>
@@ -9835,7 +9894,7 @@
         <v>2026</v>
       </c>
       <c r="E17" s="47">
-        <f>E16*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>7480657.3647415843</v>
       </c>
     </row>
@@ -9844,7 +9903,7 @@
         <v>2027</v>
       </c>
       <c r="E18" s="47">
-        <f>E17*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>7727519.0577780558</v>
       </c>
     </row>
@@ -9853,7 +9912,7 @@
         <v>2028</v>
       </c>
       <c r="E19" s="47">
-        <f>E18*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>7982527.1866847314</v>
       </c>
     </row>
@@ -9862,7 +9921,7 @@
         <v>2029</v>
       </c>
       <c r="E20" s="47">
-        <f>E19*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>8245950.5838453267</v>
       </c>
     </row>
@@ -9871,7 +9930,7 @@
         <v>2030</v>
       </c>
       <c r="E21" s="47">
-        <f>E20*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>8518066.9531122223</v>
       </c>
     </row>
@@ -9880,7 +9939,7 @@
         <v>2031</v>
       </c>
       <c r="E22" s="47">
-        <f>E21*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>8799163.162564924</v>
       </c>
     </row>
@@ -9889,7 +9948,7 @@
         <v>2032</v>
       </c>
       <c r="E23" s="47">
-        <f>E22*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>9089535.5469295662</v>
       </c>
     </row>
@@ -9898,7 +9957,7 @@
         <v>2033</v>
       </c>
       <c r="E24" s="47">
-        <f>E23*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>9389490.2199782412</v>
       </c>
     </row>
@@ -9907,7 +9966,7 @@
         <v>2034</v>
       </c>
       <c r="E25" s="47">
-        <f>E24*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>9699343.3972375225</v>
       </c>
     </row>
@@ -9916,7 +9975,7 @@
         <v>2035</v>
       </c>
       <c r="E26" s="47">
-        <f>E25*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>10019421.729346359</v>
       </c>
     </row>
@@ -9925,7 +9984,7 @@
         <v>2036</v>
       </c>
       <c r="E27" s="47">
-        <f>E26*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>10350062.646414788</v>
       </c>
     </row>
@@ -9934,7 +9993,7 @@
         <v>2037</v>
       </c>
       <c r="E28" s="47">
-        <f>E27*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>10691614.713746475</v>
       </c>
     </row>
@@ -9943,7 +10002,7 @@
         <v>2038</v>
       </c>
       <c r="E29" s="47">
-        <f>E28*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>11044437.999300107</v>
       </c>
     </row>
@@ -9952,7 +10011,7 @@
         <v>2039</v>
       </c>
       <c r="E30" s="47">
-        <f>E29*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>11408904.45327701</v>
       </c>
     </row>
@@ -9961,7 +10020,7 @@
         <v>2040</v>
       </c>
       <c r="E31" s="47">
-        <f>E30*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>11785398.30023515</v>
       </c>
     </row>
@@ -9970,7 +10029,7 @@
         <v>2041</v>
       </c>
       <c r="E32" s="47">
-        <f>E31*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>12174316.44414291</v>
       </c>
     </row>
@@ -9979,7 +10038,7 @@
         <v>2042</v>
       </c>
       <c r="E33" s="47">
-        <f>E32*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>12576068.886799624</v>
       </c>
     </row>
@@ -9988,7 +10047,7 @@
         <v>2043</v>
       </c>
       <c r="E34" s="47">
-        <f>E33*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>12991079.16006401</v>
       </c>
     </row>
@@ -9997,7 +10056,7 @@
         <v>2044</v>
       </c>
       <c r="E35" s="47">
-        <f>E34*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>13419784.77234612</v>
       </c>
     </row>
@@ -10006,7 +10065,7 @@
         <v>2045</v>
       </c>
       <c r="E36" s="47">
-        <f>E35*(1 + H$5)</f>
+        <f t="shared" si="1"/>
         <v>13862637.669833541</v>
       </c>
     </row>
@@ -10017,6 +10076,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5">
+        <v>30335</v>
+      </c>
+      <c r="O5">
+        <v>78047</v>
+      </c>
+      <c r="P5">
+        <f>SUM(N5:O5)</f>
+        <v>108382</v>
+      </c>
+      <c r="Q5">
+        <f>P5/P$10</f>
+        <v>0.54157151780137414</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>9952</v>
+      </c>
+      <c r="O6">
+        <v>29069</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P10" si="0">SUM(N6:O6)</f>
+        <v>39021</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q10" si="1">P6/P$10</f>
+        <v>0.19498313554028732</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>15353</v>
+      </c>
+      <c r="O7">
+        <v>16216</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>31569</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0.15774640849469082</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>8280</v>
+      </c>
+      <c r="O8">
+        <v>10632</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>18912</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>9.4500936914428485E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1446</v>
+      </c>
+      <c r="O9">
+        <v>831</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>2277</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1.1377888819487821E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10">
+        <v>65366</v>
+      </c>
+      <c r="O10">
+        <v>134759</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>200125</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10146,7 +10340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -2572,23 +2572,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323062</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>94781</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>7339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0DB7B5-DA26-498D-9B05-4F7BC8C260C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C338BC16-6FE4-43CB-A198-8EB259432F5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,8 +2604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8858250" y="1866900"/>
-          <a:ext cx="6304762" cy="3752381"/>
+          <a:off x="190500" y="17392650"/>
+          <a:ext cx="6029325" cy="2998189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2616,23 +2616,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>532528</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>37667</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608798</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C338BC16-6FE4-43CB-A198-8EB259432F5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322B3905-83B2-4D39-8FB0-415F498DF2BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,8 +2648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="5715000"/>
-          <a:ext cx="6971428" cy="3466667"/>
+          <a:off x="0" y="8001000"/>
+          <a:ext cx="6419048" cy="8971428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3137,6 +3137,50 @@
         <a:xfrm>
           <a:off x="9410700" y="1314450"/>
           <a:ext cx="7561905" cy="4971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>75181</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515372BA-763E-4D07-9A4D-296025938B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="7353300"/>
+          <a:ext cx="8152381" cy="4571429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4100,7 +4144,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8472,7 +8516,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,8 +9746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9711,6 +9755,7 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9767,11 +9812,10 @@
         <v>2015</v>
       </c>
       <c r="D6" s="44">
-        <v>30902</v>
+        <v>30902000000</v>
       </c>
       <c r="E6" s="44">
-        <f t="shared" ref="E6" si="0">E7/(1+0.044)</f>
-        <v>5324062.2605363978</v>
+        <v>30902000000</v>
       </c>
       <c r="G6" t="s">
         <v>91</v>
@@ -9785,10 +9829,10 @@
         <v>2016</v>
       </c>
       <c r="D7" s="45">
-        <v>32311</v>
+        <v>32311000000</v>
       </c>
       <c r="E7" s="45">
-        <v>5558321</v>
+        <v>32311000000</v>
       </c>
       <c r="G7" t="s">
         <v>92</v>
@@ -9802,10 +9846,10 @@
         <v>2017</v>
       </c>
       <c r="D8" s="45">
-        <v>32971</v>
+        <v>32971000000</v>
       </c>
       <c r="E8" s="45">
-        <v>5600426</v>
+        <v>32971000000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -9813,10 +9857,10 @@
         <v>2018</v>
       </c>
       <c r="D9" s="45">
-        <v>34176</v>
+        <v>34176000000</v>
       </c>
       <c r="E9" s="45">
-        <v>5783199</v>
+        <v>34176000000</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -9824,10 +9868,10 @@
         <v>2019</v>
       </c>
       <c r="D10" s="45">
-        <v>35379</v>
+        <v>35379000000</v>
       </c>
       <c r="E10" s="45">
-        <v>5983030</v>
+        <v>35379000000</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -9835,10 +9879,10 @@
         <v>2020</v>
       </c>
       <c r="D11" s="45">
-        <v>36758</v>
+        <v>36758000000</v>
       </c>
       <c r="E11" s="45">
-        <v>6156556</v>
+        <v>36758000000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -9846,227 +9890,298 @@
         <v>2021</v>
       </c>
       <c r="D12" s="45">
-        <v>37936</v>
-      </c>
-      <c r="E12" s="47">
-        <f>E11*(1 + $H$5)</f>
-        <v>6359722.3479999993</v>
+        <v>37936000000</v>
+      </c>
+      <c r="E12" s="45">
+        <v>37936000000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2022</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" s="47">
-        <f t="shared" ref="E13:E36" si="1">E12*(1 + H$5)</f>
-        <v>6569593.1854839986</v>
+        <f t="shared" ref="E13:E36" si="0">E12*(1 + H$5)</f>
+        <v>39187888000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2023</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14" s="47">
-        <f t="shared" si="1"/>
-        <v>6786389.7606049702</v>
+        <f t="shared" si="0"/>
+        <v>40481088304</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>2024</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15" s="47">
-        <f t="shared" si="1"/>
-        <v>7010340.6227049334</v>
+        <f t="shared" si="0"/>
+        <v>41816964218.031998</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2025</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16" s="47">
-        <f t="shared" si="1"/>
-        <v>7241681.863254196</v>
+        <f t="shared" si="0"/>
+        <v>43196924037.227051</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>2026</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17" s="47">
-        <f t="shared" si="1"/>
-        <v>7480657.3647415843</v>
+        <f t="shared" si="0"/>
+        <v>44622422530.455544</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2027</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18" s="47">
-        <f t="shared" si="1"/>
-        <v>7727519.0577780558</v>
+        <f t="shared" si="0"/>
+        <v>46094962473.960571</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2028</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19" s="47">
-        <f t="shared" si="1"/>
-        <v>7982527.1866847314</v>
+        <f t="shared" si="0"/>
+        <v>47616096235.601265</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2029</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20" s="47">
-        <f t="shared" si="1"/>
-        <v>8245950.5838453267</v>
+        <f t="shared" si="0"/>
+        <v>49187427411.376106</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2030</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21" s="47">
-        <f t="shared" si="1"/>
-        <v>8518066.9531122223</v>
+        <f t="shared" si="0"/>
+        <v>50810612515.951515</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2031</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22" s="47">
-        <f t="shared" si="1"/>
-        <v>8799163.162564924</v>
+        <f t="shared" si="0"/>
+        <v>52487362728.977913</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2032</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23" s="47">
-        <f t="shared" si="1"/>
-        <v>9089535.5469295662</v>
+        <f t="shared" si="0"/>
+        <v>54219445699.03418</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>2033</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24" s="47">
-        <f t="shared" si="1"/>
-        <v>9389490.2199782412</v>
+        <f t="shared" si="0"/>
+        <v>56008687407.102303</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>2034</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25" s="47">
-        <f t="shared" si="1"/>
-        <v>9699343.3972375225</v>
+        <f t="shared" si="0"/>
+        <v>57856974091.536674</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2035</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26" s="47">
-        <f t="shared" si="1"/>
-        <v>10019421.729346359</v>
+        <f t="shared" si="0"/>
+        <v>59766254236.557381</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2036</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27" s="47">
-        <f t="shared" si="1"/>
-        <v>10350062.646414788</v>
+        <f t="shared" si="0"/>
+        <v>61738540626.36377</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>2037</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
       <c r="E28" s="47">
-        <f t="shared" si="1"/>
-        <v>10691614.713746475</v>
+        <f t="shared" si="0"/>
+        <v>63775912467.033768</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>2038</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
       <c r="E29" s="47">
-        <f t="shared" si="1"/>
-        <v>11044437.999300107</v>
+        <f t="shared" si="0"/>
+        <v>65880517578.445877</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>2039</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30" s="47">
-        <f t="shared" si="1"/>
-        <v>11408904.45327701</v>
+        <f t="shared" si="0"/>
+        <v>68054574658.534584</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>2040</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31" s="47">
-        <f t="shared" si="1"/>
-        <v>11785398.30023515</v>
+        <f t="shared" si="0"/>
+        <v>70300375622.26622</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>2041</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32" s="47">
-        <f t="shared" si="1"/>
-        <v>12174316.44414291</v>
+        <f t="shared" si="0"/>
+        <v>72620288017.800995</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>2042</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33" s="47">
-        <f t="shared" si="1"/>
-        <v>12576068.886799624</v>
+        <f t="shared" si="0"/>
+        <v>75016757522.388428</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2043</v>
       </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34" s="47">
-        <f t="shared" si="1"/>
-        <v>12991079.16006401</v>
+        <f t="shared" si="0"/>
+        <v>77492310520.627243</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>2044</v>
       </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
       <c r="E35" s="47">
-        <f t="shared" si="1"/>
-        <v>13419784.77234612</v>
+        <f t="shared" si="0"/>
+        <v>80049556767.807938</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>2045</v>
       </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
       <c r="E36" s="47">
-        <f t="shared" si="1"/>
-        <v>13862637.669833541</v>
+        <f t="shared" si="0"/>
+        <v>82691192141.145599</v>
       </c>
     </row>
   </sheetData>
@@ -10338,10 +10453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="V67" sqref="V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10354,6 +10469,23 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f>12.7*0.292</f>
+        <v>3.7083999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f>D70/D69</f>
+        <v>0.12001294498381877</v>
       </c>
     </row>
   </sheetData>
@@ -10486,7 +10618,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11079,7 +11211,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -4312,7 +4312,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10455,7 +10455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+    <sheetView topLeftCell="N4" workbookViewId="0">
       <selection activeCell="V67" sqref="V67"/>
     </sheetView>
   </sheetViews>
@@ -10502,8 +10502,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
+++ b/Data_inputs/PSERS_PlanInfo_AV2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="853" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="31" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="217">
   <si>
     <t>Notes</t>
   </si>
@@ -1413,9 +1413,6 @@
     <t>B62</t>
   </si>
   <si>
-    <t>L9</t>
-  </si>
-  <si>
     <t>EEC_rate</t>
   </si>
   <si>
@@ -1444,6 +1441,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>ScnDC_EEC_DB.rate</t>
+  </si>
+  <si>
+    <t>ScnDC_EEC_DC.rate</t>
+  </si>
+  <si>
+    <t>ScnDC_bf.reduction</t>
+  </si>
+  <si>
+    <t>O9</t>
   </si>
 </sst>
 </file>
@@ -4312,7 +4321,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8340,10 +8349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8351,14 +8360,17 @@
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>50</v>
       </c>
@@ -8366,15 +8378,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>58</v>
       </c>
@@ -8403,10 +8415,19 @@
         <v>62</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="36" t="s">
         <v>199</v>
       </c>
@@ -8437,8 +8458,17 @@
       <c r="L7" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="48">
+        <v>0</v>
+      </c>
+      <c r="N7" s="48">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O7" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="36" t="s">
         <v>200</v>
       </c>
@@ -8469,8 +8499,17 @@
       <c r="L8" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="48">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="O8" s="48">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="36" t="s">
         <v>201</v>
       </c>
@@ -8500,6 +8539,15 @@
       </c>
       <c r="L9" s="48">
         <v>0.10299999999999999</v>
+      </c>
+      <c r="M9" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="48">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="O9" s="48">
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10206,12 +10254,12 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N5">
         <v>30335</v>
@@ -10306,7 +10354,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N10">
         <v>65366</v>
@@ -10502,7 +10550,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -11246,7 +11294,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" s="50"/>
     </row>
@@ -11318,10 +11366,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="99">
         <v>2011</v>
@@ -11343,15 +11391,15 @@
         <v>1409996000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="97">
         <v>2011</v>
@@ -11373,15 +11421,15 @@
         <v>295019000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="97">
         <v>2012</v>
@@ -11403,15 +11451,15 @@
         <v>46630000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="97">
         <v>2012</v>
@@ -11433,15 +11481,15 @@
         <v>379255000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="97">
         <v>2013</v>
@@ -11463,15 +11511,15 @@
         <v>189307000</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="97">
         <v>2014</v>
@@ -11493,15 +11541,15 @@
         <v>208727000</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="97">
         <v>2015</v>
@@ -11523,15 +11571,15 @@
         <v>161665000</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="99">
         <v>2016</v>
@@ -11552,7 +11600,7 @@
         <v>139707000</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
